--- a/pooled_data.xlsx
+++ b/pooled_data.xlsx
@@ -447,13 +447,13 @@
         <v>10.53</v>
       </c>
       <c r="B3">
-        <v>4.99</v>
+        <v>0.505</v>
       </c>
       <c r="C3">
-        <v>6.39</v>
+        <v>9.93</v>
       </c>
       <c r="D3">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,13 +461,13 @@
         <v>7.31</v>
       </c>
       <c r="B4">
-        <v>5.625</v>
+        <v>3.235</v>
       </c>
       <c r="C4">
-        <v>5.99</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D4">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,13 +475,13 @@
         <v>8.42</v>
       </c>
       <c r="B5">
-        <v>-1.035</v>
+        <v>3.355</v>
       </c>
       <c r="C5">
-        <v>6.72</v>
+        <v>7.57</v>
       </c>
       <c r="D5">
-        <v>0.364</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,13 +489,13 @@
         <v>8.859999999999999</v>
       </c>
       <c r="B6">
-        <v>4.555</v>
+        <v>4.2</v>
       </c>
       <c r="C6">
-        <v>2.73</v>
+        <v>7.39</v>
       </c>
       <c r="D6">
-        <v>0.361</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,13 +503,13 @@
         <v>14.25</v>
       </c>
       <c r="B7">
-        <v>4.640000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="C7">
-        <v>5.03</v>
+        <v>6.57</v>
       </c>
       <c r="D7">
-        <v>0.36</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -517,13 +517,13 @@
         <v>17.88</v>
       </c>
       <c r="B8">
-        <v>5.255</v>
+        <v>4.45</v>
       </c>
       <c r="C8">
-        <v>3.21</v>
+        <v>6.54</v>
       </c>
       <c r="D8">
-        <v>0.376</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,13 +531,13 @@
         <v>14.35</v>
       </c>
       <c r="B9">
-        <v>4.984999999999999</v>
+        <v>4.744999999999999</v>
       </c>
       <c r="C9">
-        <v>3.44</v>
+        <v>6.34</v>
       </c>
       <c r="D9">
-        <v>0.376</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -545,13 +545,13 @@
         <v>5.4</v>
       </c>
       <c r="B10">
-        <v>4.035</v>
+        <v>3.745</v>
       </c>
       <c r="C10">
-        <v>3.35</v>
+        <v>5.48</v>
       </c>
       <c r="D10">
-        <v>0.283</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -559,13 +559,13 @@
         <v>6.24</v>
       </c>
       <c r="B11">
-        <v>7.09</v>
+        <v>4.51</v>
       </c>
       <c r="C11">
-        <v>9.050000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="D11">
-        <v>0.364</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -573,13 +573,13 @@
         <v>3.93</v>
       </c>
       <c r="B12">
-        <v>5.470000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="C12">
-        <v>8.359999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="D12">
-        <v>0.431</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -587,13 +587,13 @@
         <v>9.529999999999999</v>
       </c>
       <c r="B13">
-        <v>4.945</v>
+        <v>-1.54</v>
       </c>
       <c r="C13">
-        <v>8.4</v>
+        <v>6.59</v>
       </c>
       <c r="D13">
-        <v>0.415</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -601,13 +601,13 @@
         <v>13.58</v>
       </c>
       <c r="B14">
-        <v>5.42</v>
+        <v>0.35</v>
       </c>
       <c r="C14">
-        <v>5.31</v>
+        <v>6.3</v>
       </c>
       <c r="D14">
-        <v>0.382</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -615,13 +615,13 @@
         <v>14.91</v>
       </c>
       <c r="B15">
-        <v>4.435</v>
+        <v>5.225</v>
       </c>
       <c r="C15">
-        <v>4.07</v>
+        <v>6.3</v>
       </c>
       <c r="D15">
-        <v>0.433</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -629,13 +629,13 @@
         <v>12.34</v>
       </c>
       <c r="B16">
-        <v>5.305</v>
+        <v>4.35</v>
       </c>
       <c r="C16">
-        <v>4.31</v>
+        <v>5.97</v>
       </c>
       <c r="D16">
-        <v>0.415</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -643,13 +643,13 @@
         <v>5.9</v>
       </c>
       <c r="B17">
-        <v>5.455</v>
+        <v>4.055</v>
       </c>
       <c r="C17">
-        <v>8.58</v>
+        <v>6.17</v>
       </c>
       <c r="D17">
-        <v>0.401</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -657,13 +657,13 @@
         <v>4.74</v>
       </c>
       <c r="B18">
-        <v>5.9</v>
+        <v>4.505</v>
       </c>
       <c r="C18">
-        <v>1.37</v>
+        <v>5.75</v>
       </c>
       <c r="D18">
-        <v>0.377</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -671,13 +671,13 @@
         <v>17.1</v>
       </c>
       <c r="B19">
-        <v>20.885</v>
+        <v>4.99</v>
       </c>
       <c r="C19">
-        <v>4.98</v>
+        <v>6.39</v>
       </c>
       <c r="D19">
-        <v>0.368</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -685,13 +685,13 @@
         <v>22.61</v>
       </c>
       <c r="B20">
-        <v>4.805</v>
+        <v>5.2</v>
       </c>
       <c r="C20">
-        <v>3.12</v>
+        <v>6.71</v>
       </c>
       <c r="D20">
-        <v>0.339</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -699,13 +699,13 @@
         <v>8.029999999999999</v>
       </c>
       <c r="B21">
-        <v>5.205</v>
+        <v>5.075</v>
       </c>
       <c r="C21">
-        <v>4.78</v>
+        <v>6.49</v>
       </c>
       <c r="D21">
-        <v>0.334</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -713,13 +713,13 @@
         <v>5.94</v>
       </c>
       <c r="B22">
-        <v>7.305</v>
+        <v>5.265000000000001</v>
       </c>
       <c r="C22">
-        <v>3.14</v>
+        <v>5.84</v>
       </c>
       <c r="D22">
-        <v>0.326</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -727,13 +727,13 @@
         <v>4.99</v>
       </c>
       <c r="B23">
-        <v>3.635</v>
+        <v>4.835</v>
       </c>
       <c r="C23">
-        <v>4.83</v>
+        <v>6.41</v>
       </c>
       <c r="D23">
-        <v>0.353</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -741,13 +741,13 @@
         <v>6.23</v>
       </c>
       <c r="B24">
-        <v>-0.645</v>
+        <v>5.4</v>
       </c>
       <c r="C24">
-        <v>7.17</v>
+        <v>5.6</v>
       </c>
       <c r="D24">
-        <v>0.316</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -755,13 +755,13 @@
         <v>6.24</v>
       </c>
       <c r="B25">
-        <v>4.515</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="D25">
-        <v>0.294</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -769,13 +769,13 @@
         <v>8.65</v>
       </c>
       <c r="B26">
-        <v>6.345000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="C26">
-        <v>8.69</v>
+        <v>5.55</v>
       </c>
       <c r="D26">
-        <v>0.368</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -783,13 +783,13 @@
         <v>14.66</v>
       </c>
       <c r="B27">
-        <v>15.67</v>
+        <v>5.279999999999999</v>
       </c>
       <c r="C27">
-        <v>2.99</v>
+        <v>5.57</v>
       </c>
       <c r="D27">
-        <v>0.374</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -797,13 +797,13 @@
         <v>9.390000000000001</v>
       </c>
       <c r="B28">
-        <v>6.91</v>
+        <v>5.16</v>
       </c>
       <c r="C28">
-        <v>5.81</v>
+        <v>5.39</v>
       </c>
       <c r="D28">
-        <v>0.424</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -811,13 +811,13 @@
         <v>12.9</v>
       </c>
       <c r="B29">
-        <v>6.470000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="C29">
-        <v>3.62</v>
+        <v>4.71</v>
       </c>
       <c r="D29">
-        <v>0.399</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -825,13 +825,13 @@
         <v>18.32</v>
       </c>
       <c r="B30">
-        <v>5.7</v>
+        <v>-2.77</v>
       </c>
       <c r="C30">
-        <v>3.06</v>
+        <v>6.91</v>
       </c>
       <c r="D30">
-        <v>0.42</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -839,13 +839,13 @@
         <v>12.4</v>
       </c>
       <c r="B31">
-        <v>7.065</v>
+        <v>1.55</v>
       </c>
       <c r="C31">
-        <v>1.81</v>
+        <v>6.01</v>
       </c>
       <c r="D31">
-        <v>0.363</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -853,13 +853,13 @@
         <v>19.51</v>
       </c>
       <c r="B32">
-        <v>4.835</v>
+        <v>3.74</v>
       </c>
       <c r="C32">
-        <v>6.72</v>
+        <v>6.33</v>
       </c>
       <c r="D32">
-        <v>0.34</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -867,13 +867,13 @@
         <v>6.84</v>
       </c>
       <c r="B33">
-        <v>5.765000000000001</v>
+        <v>4.325</v>
       </c>
       <c r="C33">
-        <v>5.56</v>
+        <v>5.47</v>
       </c>
       <c r="D33">
-        <v>0.28</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -881,13 +881,13 @@
         <v>25.82</v>
       </c>
       <c r="B34">
-        <v>2.635</v>
+        <v>5.115</v>
       </c>
       <c r="C34">
-        <v>4.61</v>
+        <v>6.16</v>
       </c>
       <c r="D34">
-        <v>0.44</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -895,13 +895,13 @@
         <v>28.17</v>
       </c>
       <c r="B35">
-        <v>7.47</v>
+        <v>5.03</v>
       </c>
       <c r="C35">
-        <v>3.72</v>
+        <v>5.24</v>
       </c>
       <c r="D35">
-        <v>0.421</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -909,13 +909,13 @@
         <v>17.11</v>
       </c>
       <c r="B36">
-        <v>0.505</v>
+        <v>5.625</v>
       </c>
       <c r="C36">
-        <v>9.93</v>
+        <v>5.99</v>
       </c>
       <c r="D36">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -923,13 +923,13 @@
         <v>10.79</v>
       </c>
       <c r="B37">
-        <v>5.2</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="C37">
-        <v>6.71</v>
+        <v>6.89</v>
       </c>
       <c r="D37">
-        <v>0.326</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -937,13 +937,13 @@
         <v>6.71</v>
       </c>
       <c r="B38">
-        <v>5.449999999999999</v>
+        <v>5.72</v>
       </c>
       <c r="C38">
-        <v>6.89</v>
+        <v>5.81</v>
       </c>
       <c r="D38">
-        <v>0.319</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -951,13 +951,13 @@
         <v>8.82</v>
       </c>
       <c r="B39">
-        <v>1.505</v>
+        <v>4.84</v>
       </c>
       <c r="C39">
-        <v>7.83</v>
+        <v>5.09</v>
       </c>
       <c r="D39">
-        <v>0.366</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -965,13 +965,13 @@
         <v>9.119999999999999</v>
       </c>
       <c r="B40">
-        <v>3.875</v>
+        <v>5.185</v>
       </c>
       <c r="C40">
-        <v>4.34</v>
+        <v>5.8</v>
       </c>
       <c r="D40">
-        <v>0.344</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -979,13 +979,13 @@
         <v>13.77</v>
       </c>
       <c r="B41">
-        <v>4.2</v>
+        <v>5.415</v>
       </c>
       <c r="C41">
-        <v>6.07</v>
+        <v>5.58</v>
       </c>
       <c r="D41">
-        <v>0.334</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -993,13 +993,13 @@
         <v>17.16</v>
       </c>
       <c r="B42">
-        <v>5.02</v>
+        <v>4.9</v>
       </c>
       <c r="C42">
-        <v>4.91</v>
+        <v>5.68</v>
       </c>
       <c r="D42">
-        <v>0.371</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1007,13 +1007,13 @@
         <v>13.53</v>
       </c>
       <c r="B43">
-        <v>5.275</v>
+        <v>5.36</v>
       </c>
       <c r="C43">
-        <v>5.14</v>
+        <v>5.66</v>
       </c>
       <c r="D43">
-        <v>0.352</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1021,13 +1021,13 @@
         <v>4.83</v>
       </c>
       <c r="B44">
-        <v>4.125</v>
+        <v>4.905</v>
       </c>
       <c r="C44">
-        <v>6.29</v>
+        <v>5.38</v>
       </c>
       <c r="D44">
-        <v>0.275</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1035,13 +1035,13 @@
         <v>5.78</v>
       </c>
       <c r="B45">
-        <v>5.01</v>
+        <v>5.105</v>
       </c>
       <c r="C45">
-        <v>6.2</v>
+        <v>5.38</v>
       </c>
       <c r="D45">
-        <v>0.339</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1049,13 +1049,13 @@
         <v>3.61</v>
       </c>
       <c r="B46">
-        <v>6.335</v>
+        <v>-0.5399999999999998</v>
       </c>
       <c r="C46">
-        <v>7.23</v>
+        <v>5.25</v>
       </c>
       <c r="D46">
-        <v>0.421</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1063,13 +1063,13 @@
         <v>9.57</v>
       </c>
       <c r="B47">
-        <v>5.145</v>
+        <v>-2.575</v>
       </c>
       <c r="C47">
-        <v>8.720000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="D47">
-        <v>0.426</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1077,13 +1077,13 @@
         <v>13.32</v>
       </c>
       <c r="B48">
-        <v>5.52</v>
+        <v>2.8</v>
       </c>
       <c r="C48">
-        <v>4.99</v>
+        <v>6.67</v>
       </c>
       <c r="D48">
-        <v>0.382</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1091,13 +1091,13 @@
         <v>13.16</v>
       </c>
       <c r="B49">
-        <v>5.445</v>
+        <v>3.84</v>
       </c>
       <c r="C49">
-        <v>4.07</v>
+        <v>6.52</v>
       </c>
       <c r="D49">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1105,13 +1105,13 @@
         <v>12.28</v>
       </c>
       <c r="B50">
-        <v>5.57</v>
+        <v>4.365</v>
       </c>
       <c r="C50">
-        <v>4.47</v>
+        <v>6.17</v>
       </c>
       <c r="D50">
-        <v>0.403</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1119,13 +1119,13 @@
         <v>5.75</v>
       </c>
       <c r="B51">
-        <v>5.45</v>
+        <v>4.355</v>
       </c>
       <c r="C51">
-        <v>9.550000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="D51">
-        <v>0.386</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1133,13 +1133,13 @@
         <v>5.25</v>
       </c>
       <c r="B52">
-        <v>6.145</v>
+        <v>4.965</v>
       </c>
       <c r="C52">
-        <v>1.99</v>
+        <v>5.9</v>
       </c>
       <c r="D52">
-        <v>0.399</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1147,13 +1147,13 @@
         <v>16.54</v>
       </c>
       <c r="B53">
-        <v>23.065</v>
+        <v>-1.035</v>
       </c>
       <c r="C53">
-        <v>5.69</v>
+        <v>6.72</v>
       </c>
       <c r="D53">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1161,13 +1161,13 @@
         <v>22.58</v>
       </c>
       <c r="B54">
-        <v>5.025</v>
+        <v>1.505</v>
       </c>
       <c r="C54">
-        <v>3.83</v>
+        <v>7.83</v>
       </c>
       <c r="D54">
-        <v>0.348</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>8.44</v>
       </c>
       <c r="B55">
-        <v>4.59</v>
+        <v>2.745</v>
       </c>
       <c r="C55">
-        <v>5.15</v>
+        <v>5.94</v>
       </c>
       <c r="D55">
-        <v>0.33</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>5.91</v>
       </c>
       <c r="B56">
-        <v>6.720000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="C56">
-        <v>4.54</v>
+        <v>7.43</v>
       </c>
       <c r="D56">
-        <v>0.3</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>4.72</v>
       </c>
       <c r="B57">
-        <v>4.015</v>
+        <v>2.63</v>
       </c>
       <c r="C57">
-        <v>4.92</v>
+        <v>5.76</v>
       </c>
       <c r="D57">
-        <v>0.334</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>6.1</v>
       </c>
       <c r="B58">
-        <v>-1.75</v>
+        <v>2.7</v>
       </c>
       <c r="C58">
-        <v>7.5</v>
+        <v>6.22</v>
       </c>
       <c r="D58">
-        <v>0.315</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>6.32</v>
       </c>
       <c r="B59">
-        <v>2.35</v>
+        <v>2.665</v>
       </c>
       <c r="C59">
-        <v>5.68</v>
+        <v>5.55</v>
       </c>
       <c r="D59">
-        <v>0.314</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>8.98</v>
       </c>
       <c r="B60">
-        <v>5.95</v>
+        <v>2.065</v>
       </c>
       <c r="C60">
-        <v>9.029999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="D60">
-        <v>0.366</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>14.07</v>
       </c>
       <c r="B61">
-        <v>15.365</v>
+        <v>2.915</v>
       </c>
       <c r="C61">
-        <v>4.1</v>
+        <v>5.36</v>
       </c>
       <c r="D61">
-        <v>0.37</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>10.12</v>
       </c>
       <c r="B62">
-        <v>7.425</v>
+        <v>2.71</v>
       </c>
       <c r="C62">
-        <v>5.95</v>
+        <v>5.76</v>
       </c>
       <c r="D62">
-        <v>0.404</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13.74</v>
       </c>
       <c r="B63">
-        <v>7.25</v>
+        <v>-0.6199999999999999</v>
       </c>
       <c r="C63">
-        <v>5.55</v>
+        <v>4.92</v>
       </c>
       <c r="D63">
-        <v>0.381</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>18.16</v>
       </c>
       <c r="B64">
-        <v>6.755000000000001</v>
+        <v>-1.61</v>
       </c>
       <c r="C64">
-        <v>4.65</v>
+        <v>6.32</v>
       </c>
       <c r="D64">
-        <v>0.401</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>11.9</v>
       </c>
       <c r="B65">
-        <v>7.495</v>
+        <v>2.785</v>
       </c>
       <c r="C65">
-        <v>3.35</v>
+        <v>4.96</v>
       </c>
       <c r="D65">
-        <v>0.362</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>19.36</v>
       </c>
       <c r="B66">
-        <v>6.09</v>
+        <v>3.97</v>
       </c>
       <c r="C66">
-        <v>9.93</v>
+        <v>4.42</v>
       </c>
       <c r="D66">
-        <v>0.338</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>6.22</v>
       </c>
       <c r="B67">
-        <v>6.42</v>
+        <v>4.78</v>
       </c>
       <c r="C67">
-        <v>6.05</v>
+        <v>4.4</v>
       </c>
       <c r="D67">
-        <v>0.286</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>25.73</v>
       </c>
       <c r="B68">
-        <v>5.845000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="C68">
-        <v>8.08</v>
+        <v>4.37</v>
       </c>
       <c r="D68">
-        <v>0.428</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>28.4</v>
       </c>
       <c r="B69">
-        <v>7.295</v>
+        <v>4.41</v>
       </c>
       <c r="C69">
-        <v>3.99</v>
+        <v>4.25</v>
       </c>
       <c r="D69">
-        <v>0.392</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>16.73</v>
       </c>
       <c r="B70">
-        <v>3.235</v>
+        <v>4.555</v>
       </c>
       <c r="C70">
-        <v>8.130000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="D70">
-        <v>0.333</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>10.35</v>
       </c>
       <c r="B71">
-        <v>5.075</v>
+        <v>3.875</v>
       </c>
       <c r="C71">
-        <v>6.49</v>
+        <v>4.34</v>
       </c>
       <c r="D71">
-        <v>0.319</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>7.09</v>
       </c>
       <c r="B72">
-        <v>5.72</v>
+        <v>3.605</v>
       </c>
       <c r="C72">
-        <v>5.81</v>
+        <v>4.66</v>
       </c>
       <c r="D72">
-        <v>0.331</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>7.98</v>
       </c>
       <c r="B73">
-        <v>2.745</v>
+        <v>5.12</v>
       </c>
       <c r="C73">
-        <v>5.94</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>8.41</v>
       </c>
       <c r="B74">
-        <v>3.605</v>
+        <v>4.215</v>
       </c>
       <c r="C74">
-        <v>4.66</v>
+        <v>3.67</v>
       </c>
       <c r="D74">
-        <v>0.349</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>13.54</v>
       </c>
       <c r="B75">
-        <v>5.005</v>
+        <v>4.96</v>
       </c>
       <c r="C75">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="D75">
-        <v>0.348</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>17.32</v>
       </c>
       <c r="B76">
-        <v>5.215</v>
+        <v>4.7</v>
       </c>
       <c r="C76">
-        <v>3.84</v>
+        <v>3.56</v>
       </c>
       <c r="D76">
-        <v>0.357</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>14.29</v>
       </c>
       <c r="B77">
-        <v>5.145</v>
+        <v>4.675000000000001</v>
       </c>
       <c r="C77">
-        <v>4.54</v>
+        <v>3.73</v>
       </c>
       <c r="D77">
-        <v>0.364</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>5.22</v>
       </c>
       <c r="B78">
-        <v>3.63</v>
+        <v>4.765000000000001</v>
       </c>
       <c r="C78">
-        <v>6.17</v>
+        <v>3.52</v>
       </c>
       <c r="D78">
-        <v>0.275</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>5.98</v>
       </c>
       <c r="B79">
-        <v>4.655</v>
+        <v>3.95</v>
       </c>
       <c r="C79">
-        <v>9.029999999999999</v>
+        <v>4.06</v>
       </c>
       <c r="D79">
-        <v>0.354</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>3.75</v>
       </c>
       <c r="B80">
-        <v>5.915</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="C80">
-        <v>5.77</v>
+        <v>4.26</v>
       </c>
       <c r="D80">
-        <v>0.411</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="B81">
-        <v>5.5</v>
+        <v>-0.98</v>
       </c>
       <c r="C81">
-        <v>8.57</v>
+        <v>5.13</v>
       </c>
       <c r="D81">
-        <v>0.413</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>13.27</v>
       </c>
       <c r="B82">
-        <v>5.375</v>
+        <v>2.57</v>
       </c>
       <c r="C82">
-        <v>4.2</v>
+        <v>4.76</v>
       </c>
       <c r="D82">
-        <v>0.366</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>13.34</v>
       </c>
       <c r="B83">
-        <v>5.24</v>
+        <v>4.84</v>
       </c>
       <c r="C83">
-        <v>2.81</v>
+        <v>5.09</v>
       </c>
       <c r="D83">
-        <v>0.42</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>12.05</v>
       </c>
       <c r="B84">
-        <v>5.695</v>
+        <v>5.02</v>
       </c>
       <c r="C84">
-        <v>4.14</v>
+        <v>4.7</v>
       </c>
       <c r="D84">
-        <v>0.402</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>5.42</v>
       </c>
       <c r="B85">
-        <v>5.165</v>
+        <v>5.215</v>
       </c>
       <c r="C85">
-        <v>7.95</v>
+        <v>4.59</v>
       </c>
       <c r="D85">
-        <v>0.394</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>4.25</v>
       </c>
       <c r="B86">
-        <v>6.375</v>
+        <v>4.9</v>
       </c>
       <c r="C86">
-        <v>2.12</v>
+        <v>4.5</v>
       </c>
       <c r="D86">
-        <v>0.366</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>16.48</v>
       </c>
       <c r="B87">
-        <v>8.344999999999999</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="C87">
-        <v>3.66</v>
+        <v>5.03</v>
       </c>
       <c r="D87">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>22.19</v>
       </c>
       <c r="B88">
-        <v>5.125</v>
+        <v>4.2</v>
       </c>
       <c r="C88">
-        <v>3.59</v>
+        <v>6.07</v>
       </c>
       <c r="D88">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>7.87</v>
       </c>
       <c r="B89">
-        <v>5.369999999999999</v>
+        <v>5.005</v>
       </c>
       <c r="C89">
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="D89">
-        <v>0.341</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>5.66</v>
       </c>
       <c r="B90">
-        <v>5.415</v>
+        <v>5.08</v>
       </c>
       <c r="C90">
-        <v>3.67</v>
+        <v>4.31</v>
       </c>
       <c r="D90">
-        <v>0.33</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>4.85</v>
       </c>
       <c r="B91">
-        <v>4.550000000000001</v>
+        <v>5.25</v>
       </c>
       <c r="C91">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="D91">
-        <v>0.332</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>6.11</v>
       </c>
       <c r="B92">
-        <v>-0.615</v>
+        <v>5.77</v>
       </c>
       <c r="C92">
-        <v>8.859999999999999</v>
+        <v>4.39</v>
       </c>
       <c r="D92">
-        <v>0.315</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>6.23</v>
       </c>
       <c r="B93">
-        <v>2.795</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="C93">
-        <v>3.92</v>
+        <v>4.08</v>
       </c>
       <c r="D93">
-        <v>0.3</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>8.34</v>
       </c>
       <c r="B94">
-        <v>6.055</v>
+        <v>6.065</v>
       </c>
       <c r="C94">
-        <v>7.82</v>
+        <v>4.27</v>
       </c>
       <c r="D94">
-        <v>0.386</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>14.45</v>
       </c>
       <c r="B95">
-        <v>14.535</v>
+        <v>5.73</v>
       </c>
       <c r="C95">
-        <v>3.46</v>
+        <v>4.02</v>
       </c>
       <c r="D95">
-        <v>0.362</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>9.4</v>
       </c>
       <c r="B96">
-        <v>7.625</v>
+        <v>5.655</v>
       </c>
       <c r="C96">
-        <v>5.11</v>
+        <v>4.53</v>
       </c>
       <c r="D96">
-        <v>0.426</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>12.88</v>
       </c>
       <c r="B97">
-        <v>6.154999999999999</v>
+        <v>1.215</v>
       </c>
       <c r="C97">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="D97">
-        <v>0.402</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>17.72</v>
       </c>
       <c r="B98">
-        <v>6.02</v>
+        <v>-1.32</v>
       </c>
       <c r="C98">
-        <v>3.88</v>
+        <v>5.51</v>
       </c>
       <c r="D98">
-        <v>0.419</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>11.74</v>
       </c>
       <c r="B99">
-        <v>5.32</v>
+        <v>2.655</v>
       </c>
       <c r="C99">
-        <v>2.72</v>
+        <v>5.17</v>
       </c>
       <c r="D99">
-        <v>0.364</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>19.18</v>
       </c>
       <c r="B100">
-        <v>5.835</v>
+        <v>4.52</v>
       </c>
       <c r="C100">
-        <v>6.98</v>
+        <v>4.98</v>
       </c>
       <c r="D100">
-        <v>0.348</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>6.33</v>
       </c>
       <c r="B101">
-        <v>5.45</v>
+        <v>5.19</v>
       </c>
       <c r="C101">
-        <v>3.43</v>
+        <v>4.74</v>
       </c>
       <c r="D101">
-        <v>0.286</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>25.43</v>
       </c>
       <c r="B102">
-        <v>4.67</v>
+        <v>5.26</v>
       </c>
       <c r="C102">
-        <v>5.73</v>
+        <v>4.63</v>
       </c>
       <c r="D102">
-        <v>0.373</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>28.54</v>
       </c>
       <c r="B103">
-        <v>-3.08</v>
+        <v>5.154999999999999</v>
       </c>
       <c r="C103">
-        <v>2.97</v>
+        <v>4.53</v>
       </c>
       <c r="D103">
-        <v>0.39</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>16.43</v>
       </c>
       <c r="B104">
-        <v>3.355</v>
+        <v>5.255</v>
       </c>
       <c r="C104">
-        <v>7.57</v>
+        <v>3.21</v>
       </c>
       <c r="D104">
-        <v>0.341</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>10.27</v>
       </c>
       <c r="B105">
-        <v>5.265000000000001</v>
+        <v>5.02</v>
       </c>
       <c r="C105">
-        <v>5.84</v>
+        <v>4.91</v>
       </c>
       <c r="D105">
-        <v>0.312</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>7.14</v>
       </c>
       <c r="B106">
-        <v>4.84</v>
+        <v>5.215</v>
       </c>
       <c r="C106">
-        <v>5.09</v>
+        <v>3.84</v>
       </c>
       <c r="D106">
-        <v>0.312</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>7.67</v>
       </c>
       <c r="B107">
-        <v>1.64</v>
+        <v>5.345</v>
       </c>
       <c r="C107">
-        <v>7.43</v>
+        <v>3.3</v>
       </c>
       <c r="D107">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>8.369999999999999</v>
       </c>
       <c r="B108">
-        <v>5.12</v>
+        <v>5.23</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>2.81</v>
       </c>
       <c r="D108">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>13.39</v>
       </c>
       <c r="B109">
-        <v>5.08</v>
+        <v>4.74</v>
       </c>
       <c r="C109">
-        <v>4.31</v>
+        <v>3.74</v>
       </c>
       <c r="D109">
-        <v>0.362</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>17.03</v>
       </c>
       <c r="B110">
-        <v>5.345</v>
+        <v>5.105</v>
       </c>
       <c r="C110">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="D110">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>13.86</v>
       </c>
       <c r="B111">
-        <v>5.13</v>
+        <v>4.84</v>
       </c>
       <c r="C111">
-        <v>4.62</v>
+        <v>3.35</v>
       </c>
       <c r="D111">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>5.04</v>
       </c>
       <c r="B112">
-        <v>4.555</v>
+        <v>5.025</v>
       </c>
       <c r="C112">
-        <v>2.6</v>
+        <v>2.41</v>
       </c>
       <c r="D112">
-        <v>0.288</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>5.84</v>
       </c>
       <c r="B113">
-        <v>5.29</v>
+        <v>4.855</v>
       </c>
       <c r="C113">
-        <v>7.69</v>
+        <v>3.26</v>
       </c>
       <c r="D113">
-        <v>0.352</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>3.75</v>
       </c>
       <c r="B114">
-        <v>5.824999999999999</v>
+        <v>1.455</v>
       </c>
       <c r="C114">
-        <v>6.12</v>
+        <v>3.08</v>
       </c>
       <c r="D114">
-        <v>0.397</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>8.77</v>
       </c>
       <c r="B115">
-        <v>5.82</v>
+        <v>-1.425</v>
       </c>
       <c r="C115">
-        <v>8.890000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="D115">
-        <v>0.402</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>13.19</v>
       </c>
       <c r="B116">
-        <v>5.125</v>
+        <v>2.44</v>
       </c>
       <c r="C116">
-        <v>4.63</v>
+        <v>3.72</v>
       </c>
       <c r="D116">
-        <v>0.357</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>13.1</v>
       </c>
       <c r="B117">
-        <v>4.86</v>
+        <v>4.17</v>
       </c>
       <c r="C117">
-        <v>2.72</v>
+        <v>3.65</v>
       </c>
       <c r="D117">
-        <v>0.425</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>11.85</v>
       </c>
       <c r="B118">
-        <v>5.455</v>
+        <v>3.965</v>
       </c>
       <c r="C118">
-        <v>4.21</v>
+        <v>3.39</v>
       </c>
       <c r="D118">
-        <v>0.402</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>5.36</v>
       </c>
       <c r="B119">
-        <v>5.390000000000001</v>
+        <v>4.63</v>
       </c>
       <c r="C119">
-        <v>8.92</v>
+        <v>3.59</v>
       </c>
       <c r="D119">
-        <v>0.392</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>4.15</v>
       </c>
       <c r="B120">
-        <v>6.285</v>
+        <v>4.14</v>
       </c>
       <c r="C120">
-        <v>1.89</v>
+        <v>3.21</v>
       </c>
       <c r="D120">
-        <v>0.374</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>16.02</v>
       </c>
       <c r="B121">
-        <v>3.49</v>
+        <v>4.984999999999999</v>
       </c>
       <c r="C121">
-        <v>3.94</v>
+        <v>3.44</v>
       </c>
       <c r="D121">
-        <v>0.365</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>22.01</v>
       </c>
       <c r="B122">
-        <v>5.109999999999999</v>
+        <v>5.275</v>
       </c>
       <c r="C122">
-        <v>3.25</v>
+        <v>5.14</v>
       </c>
       <c r="D122">
-        <v>0.362</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>5.045</v>
+        <v>5.145</v>
       </c>
       <c r="C123">
-        <v>4.23</v>
+        <v>4.54</v>
       </c>
       <c r="D123">
-        <v>0.331</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>5.36</v>
       </c>
       <c r="B124">
-        <v>7.26</v>
+        <v>5.13</v>
       </c>
       <c r="C124">
-        <v>4.82</v>
+        <v>4.62</v>
       </c>
       <c r="D124">
-        <v>0.347</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>4.52</v>
       </c>
       <c r="B125">
-        <v>4.295</v>
+        <v>5.075</v>
       </c>
       <c r="C125">
-        <v>5.45</v>
+        <v>4.43</v>
       </c>
       <c r="D125">
-        <v>0.351</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="B126">
-        <v>-0.15</v>
+        <v>5.255</v>
       </c>
       <c r="C126">
-        <v>7.95</v>
+        <v>4.33</v>
       </c>
       <c r="D126">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>6.99</v>
       </c>
       <c r="B127">
-        <v>4.275</v>
+        <v>5.215</v>
       </c>
       <c r="C127">
-        <v>5.23</v>
+        <v>4.32</v>
       </c>
       <c r="D127">
-        <v>0.305</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B128">
-        <v>6.245</v>
+        <v>5.25</v>
       </c>
       <c r="C128">
-        <v>6.18</v>
+        <v>4.04</v>
       </c>
       <c r="D128">
-        <v>0.379</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>14.09</v>
       </c>
       <c r="B129">
-        <v>5.795</v>
+        <v>5.385</v>
       </c>
       <c r="C129">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="D129">
-        <v>0.347</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>9.24</v>
       </c>
       <c r="B130">
-        <v>7.22</v>
+        <v>5.135</v>
       </c>
       <c r="C130">
-        <v>4.8</v>
+        <v>4.03</v>
       </c>
       <c r="D130">
-        <v>0.4</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>12.77</v>
       </c>
       <c r="B131">
-        <v>6.81</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="C131">
-        <v>2.72</v>
+        <v>4.26</v>
       </c>
       <c r="D131">
-        <v>0.388</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>17.63</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>-2.315</v>
       </c>
       <c r="C132">
-        <v>2.76</v>
+        <v>4.67</v>
       </c>
       <c r="D132">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>11.19</v>
       </c>
       <c r="B133">
-        <v>6.65</v>
+        <v>1.565</v>
       </c>
       <c r="C133">
-        <v>3.33</v>
+        <v>4.54</v>
       </c>
       <c r="D133">
-        <v>0.371</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>19.26</v>
       </c>
       <c r="B134">
-        <v>5.635</v>
+        <v>4.029999999999999</v>
       </c>
       <c r="C134">
-        <v>7.05</v>
+        <v>4.69</v>
       </c>
       <c r="D134">
-        <v>0.344</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>6.41</v>
       </c>
       <c r="B135">
-        <v>6.075</v>
+        <v>4.045</v>
       </c>
       <c r="C135">
-        <v>4.01</v>
+        <v>4.31</v>
       </c>
       <c r="D135">
-        <v>0.309</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>24.88</v>
       </c>
       <c r="B136">
-        <v>4.365</v>
+        <v>4.495</v>
       </c>
       <c r="C136">
-        <v>7.46</v>
+        <v>4.52</v>
       </c>
       <c r="D136">
-        <v>0.401</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>28.4</v>
       </c>
       <c r="B137">
-        <v>20.93</v>
+        <v>4.470000000000001</v>
       </c>
       <c r="C137">
-        <v>3.35</v>
+        <v>4.18</v>
       </c>
       <c r="D137">
-        <v>0.399</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>16.89</v>
       </c>
       <c r="B138">
-        <v>4.2</v>
+        <v>4.035</v>
       </c>
       <c r="C138">
-        <v>7.39</v>
+        <v>3.35</v>
       </c>
       <c r="D138">
-        <v>0.329</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>10.22</v>
       </c>
       <c r="B139">
-        <v>4.835</v>
+        <v>4.125</v>
       </c>
       <c r="C139">
-        <v>6.41</v>
+        <v>6.29</v>
       </c>
       <c r="D139">
-        <v>0.315</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>6.87</v>
       </c>
       <c r="B140">
-        <v>5.185</v>
+        <v>3.63</v>
       </c>
       <c r="C140">
-        <v>5.8</v>
+        <v>6.17</v>
       </c>
       <c r="D140">
-        <v>0.318</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>7.78</v>
       </c>
       <c r="B141">
-        <v>2.63</v>
+        <v>4.555</v>
       </c>
       <c r="C141">
-        <v>5.76</v>
+        <v>2.6</v>
       </c>
       <c r="D141">
-        <v>0.325</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>8.19</v>
       </c>
       <c r="B142">
-        <v>4.215</v>
+        <v>5.76</v>
       </c>
       <c r="C142">
-        <v>3.67</v>
+        <v>4.46</v>
       </c>
       <c r="D142">
-        <v>0.335</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>13.19</v>
       </c>
       <c r="B143">
-        <v>5.25</v>
+        <v>3.235</v>
       </c>
       <c r="C143">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="D143">
-        <v>0.361</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>16.45</v>
       </c>
       <c r="B144">
-        <v>5.23</v>
+        <v>3.495</v>
       </c>
       <c r="C144">
-        <v>2.81</v>
+        <v>3.59</v>
       </c>
       <c r="D144">
-        <v>0.351</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>13.69</v>
       </c>
       <c r="B145">
-        <v>5.075</v>
+        <v>5.39</v>
       </c>
       <c r="C145">
-        <v>4.43</v>
+        <v>3.61</v>
       </c>
       <c r="D145">
-        <v>0.334</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>5.2</v>
       </c>
       <c r="B146">
-        <v>5.76</v>
+        <v>3.135</v>
       </c>
       <c r="C146">
-        <v>4.46</v>
+        <v>3.32</v>
       </c>
       <c r="D146">
-        <v>0.282</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>6.06</v>
       </c>
       <c r="B147">
-        <v>1.495</v>
+        <v>3.5</v>
       </c>
       <c r="C147">
-        <v>6.44</v>
+        <v>3.58</v>
       </c>
       <c r="D147">
-        <v>0.334</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>3.77</v>
       </c>
       <c r="B148">
-        <v>6.275</v>
+        <v>-1.78</v>
       </c>
       <c r="C148">
-        <v>5.36</v>
+        <v>3.35</v>
       </c>
       <c r="D148">
-        <v>0.413</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>8.710000000000001</v>
       </c>
       <c r="B149">
-        <v>5.380000000000001</v>
+        <v>-2.72</v>
       </c>
       <c r="C149">
-        <v>8.49</v>
+        <v>5.25</v>
       </c>
       <c r="D149">
-        <v>0.403</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>13.01</v>
       </c>
       <c r="B150">
-        <v>5.220000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="C150">
-        <v>4.15</v>
+        <v>5.04</v>
       </c>
       <c r="D150">
-        <v>0.365</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>13.02</v>
       </c>
       <c r="B151">
-        <v>5.185</v>
+        <v>6.205</v>
       </c>
       <c r="C151">
-        <v>2.84</v>
+        <v>5.03</v>
       </c>
       <c r="D151">
-        <v>0.432</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>11.77</v>
       </c>
       <c r="B152">
-        <v>5.21</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="C152">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="D152">
-        <v>0.396</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>5.45</v>
       </c>
       <c r="B153">
-        <v>5.75</v>
+        <v>4.495</v>
       </c>
       <c r="C153">
-        <v>7.75</v>
+        <v>4.77</v>
       </c>
       <c r="D153">
-        <v>0.382</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>4.25</v>
       </c>
       <c r="B154">
-        <v>6.085</v>
+        <v>4.765000000000001</v>
       </c>
       <c r="C154">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="D154">
-        <v>0.384</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>16.07</v>
       </c>
       <c r="B155">
-        <v>-2.43</v>
+        <v>7.09</v>
       </c>
       <c r="C155">
-        <v>3.86</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D155">
-        <v>0.371</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>21.85</v>
       </c>
       <c r="B156">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="C156">
-        <v>3.21</v>
+        <v>6.2</v>
       </c>
       <c r="D156">
-        <v>0.359</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>7.88</v>
       </c>
       <c r="B157">
-        <v>4.805</v>
+        <v>4.655</v>
       </c>
       <c r="C157">
-        <v>4.22</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D157">
-        <v>0.327</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>5.37</v>
       </c>
       <c r="B158">
-        <v>7.805</v>
+        <v>5.29</v>
       </c>
       <c r="C158">
-        <v>3.13</v>
+        <v>7.69</v>
       </c>
       <c r="D158">
-        <v>0.343</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>4.73</v>
       </c>
       <c r="B159">
-        <v>5.1</v>
+        <v>1.495</v>
       </c>
       <c r="C159">
-        <v>3.53</v>
+        <v>6.44</v>
       </c>
       <c r="D159">
-        <v>0.347</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>6.19</v>
       </c>
       <c r="B160">
-        <v>3.725</v>
+        <v>2.46</v>
       </c>
       <c r="C160">
-        <v>8.550000000000001</v>
+        <v>7.16</v>
       </c>
       <c r="D160">
-        <v>0.33</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>7.22</v>
       </c>
       <c r="B161">
-        <v>6.77</v>
+        <v>4.415</v>
       </c>
       <c r="C161">
-        <v>5.17</v>
+        <v>7.3</v>
       </c>
       <c r="D161">
-        <v>0.308</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>8.1</v>
       </c>
       <c r="B162">
-        <v>6.105</v>
+        <v>4.505</v>
       </c>
       <c r="C162">
-        <v>6.12</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D162">
-        <v>0.396</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>14.14</v>
       </c>
       <c r="B163">
-        <v>5.25</v>
+        <v>4.69</v>
       </c>
       <c r="C163">
-        <v>2.97</v>
+        <v>7.02</v>
       </c>
       <c r="D163">
-        <v>0.355</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>9.380000000000001</v>
       </c>
       <c r="B164">
-        <v>7.245</v>
+        <v>4.96</v>
       </c>
       <c r="C164">
-        <v>4.77</v>
+        <v>7.5</v>
       </c>
       <c r="D164">
-        <v>0.407</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>12.81</v>
       </c>
       <c r="B165">
-        <v>7.29</v>
+        <v>-2.395</v>
       </c>
       <c r="C165">
-        <v>3.14</v>
+        <v>5.98</v>
       </c>
       <c r="D165">
-        <v>0.394</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>17.65</v>
       </c>
       <c r="B166">
-        <v>6.99</v>
+        <v>-5.135</v>
       </c>
       <c r="C166">
-        <v>3.65</v>
+        <v>10.34</v>
       </c>
       <c r="D166">
-        <v>0.43</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>11.3</v>
       </c>
       <c r="B167">
-        <v>6.185</v>
+        <v>2.855</v>
       </c>
       <c r="C167">
-        <v>2.98</v>
+        <v>10.12</v>
       </c>
       <c r="D167">
-        <v>0.354</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>18.45</v>
       </c>
       <c r="B168">
-        <v>6.21</v>
+        <v>4.12</v>
       </c>
       <c r="C168">
-        <v>7.77</v>
+        <v>9.91</v>
       </c>
       <c r="D168">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>6.35</v>
       </c>
       <c r="B169">
-        <v>7.300000000000001</v>
+        <v>3.92</v>
       </c>
       <c r="C169">
-        <v>4.82</v>
+        <v>8.02</v>
       </c>
       <c r="D169">
-        <v>0.317</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>25.1</v>
       </c>
       <c r="B170">
-        <v>2.83</v>
+        <v>6.215</v>
       </c>
       <c r="C170">
-        <v>7.52</v>
+        <v>8.23</v>
       </c>
       <c r="D170">
-        <v>0.39</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>27.62</v>
       </c>
       <c r="B171">
-        <v>5.035</v>
+        <v>5.775</v>
       </c>
       <c r="C171">
-        <v>3.96</v>
+        <v>7.61</v>
       </c>
       <c r="D171">
-        <v>0.397</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>15.92</v>
       </c>
       <c r="B172">
-        <v>4.17</v>
+        <v>5.470000000000001</v>
       </c>
       <c r="C172">
-        <v>6.57</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D172">
-        <v>0.329</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>9.279999999999999</v>
       </c>
       <c r="B173">
-        <v>5.4</v>
+        <v>6.335</v>
       </c>
       <c r="C173">
-        <v>5.6</v>
+        <v>7.23</v>
       </c>
       <c r="D173">
-        <v>0.335</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>6.75</v>
       </c>
       <c r="B174">
-        <v>5.415</v>
+        <v>5.915</v>
       </c>
       <c r="C174">
-        <v>5.58</v>
+        <v>5.77</v>
       </c>
       <c r="D174">
-        <v>0.312</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>7.41</v>
       </c>
       <c r="B175">
-        <v>2.7</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="C175">
-        <v>6.22</v>
+        <v>6.12</v>
       </c>
       <c r="D175">
-        <v>0.325</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>7.9</v>
       </c>
       <c r="B176">
-        <v>4.96</v>
+        <v>6.275</v>
       </c>
       <c r="C176">
-        <v>3.87</v>
+        <v>5.36</v>
       </c>
       <c r="D176">
-        <v>0.334</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>13.1</v>
       </c>
       <c r="B177">
-        <v>5.77</v>
+        <v>6.125</v>
       </c>
       <c r="C177">
-        <v>4.39</v>
+        <v>7.14</v>
       </c>
       <c r="D177">
-        <v>0.365</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>15.59</v>
       </c>
       <c r="B178">
-        <v>4.74</v>
+        <v>5.895</v>
       </c>
       <c r="C178">
-        <v>3.74</v>
+        <v>5.73</v>
       </c>
       <c r="D178">
-        <v>0.349</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>13.04</v>
       </c>
       <c r="B179">
-        <v>5.255</v>
+        <v>6.305</v>
       </c>
       <c r="C179">
-        <v>4.33</v>
+        <v>6.65</v>
       </c>
       <c r="D179">
-        <v>0.333</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>5.3</v>
       </c>
       <c r="B180">
-        <v>3.235</v>
+        <v>5.775</v>
       </c>
       <c r="C180">
-        <v>3.78</v>
+        <v>5.5</v>
       </c>
       <c r="D180">
-        <v>0.276</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>6.13</v>
       </c>
       <c r="B181">
-        <v>2.46</v>
+        <v>5.875</v>
       </c>
       <c r="C181">
-        <v>7.16</v>
+        <v>6.54</v>
       </c>
       <c r="D181">
-        <v>0.359</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>3.78</v>
       </c>
       <c r="B182">
-        <v>6.125</v>
+        <v>-1.66</v>
       </c>
       <c r="C182">
-        <v>7.14</v>
+        <v>5.15</v>
       </c>
       <c r="D182">
-        <v>0.409</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>7.83</v>
       </c>
       <c r="B183">
-        <v>5.285</v>
+        <v>-3.055</v>
       </c>
       <c r="C183">
-        <v>8.220000000000001</v>
+        <v>10.95</v>
       </c>
       <c r="D183">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>12.23</v>
       </c>
       <c r="B184">
-        <v>5.295</v>
+        <v>4.49</v>
       </c>
       <c r="C184">
-        <v>4.57</v>
+        <v>8.51</v>
       </c>
       <c r="D184">
-        <v>0.365</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>12.36</v>
       </c>
       <c r="B185">
-        <v>5.335</v>
+        <v>3.02</v>
       </c>
       <c r="C185">
-        <v>3.02</v>
+        <v>8.5</v>
       </c>
       <c r="D185">
-        <v>0.44</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>11.2</v>
       </c>
       <c r="B186">
-        <v>5.699999999999999</v>
+        <v>5.115</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D186">
-        <v>0.415</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>5.59</v>
       </c>
       <c r="B187">
-        <v>5.755</v>
+        <v>5.395</v>
       </c>
       <c r="C187">
-        <v>9.279999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="D187">
-        <v>0.379</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>4.14</v>
       </c>
       <c r="B188">
-        <v>5.075</v>
+        <v>5.035</v>
       </c>
       <c r="C188">
-        <v>1.48</v>
+        <v>7.57</v>
       </c>
       <c r="D188">
-        <v>0.379</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>15.05</v>
       </c>
       <c r="B189">
-        <v>2.41</v>
+        <v>4.945</v>
       </c>
       <c r="C189">
-        <v>3.32</v>
+        <v>8.4</v>
       </c>
       <c r="D189">
-        <v>0.378</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>21.38</v>
       </c>
       <c r="B190">
-        <v>5.105</v>
+        <v>5.145</v>
       </c>
       <c r="C190">
-        <v>3.27</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D190">
-        <v>0.359</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>7.86</v>
       </c>
       <c r="B191">
-        <v>5.505</v>
+        <v>5.5</v>
       </c>
       <c r="C191">
-        <v>4.36</v>
+        <v>8.57</v>
       </c>
       <c r="D191">
-        <v>0.329</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>5.26</v>
       </c>
       <c r="B192">
-        <v>5.71</v>
+        <v>5.82</v>
       </c>
       <c r="C192">
-        <v>4.23</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D192">
-        <v>0.327</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>4.7</v>
       </c>
       <c r="B193">
-        <v>5.455</v>
+        <v>5.380000000000001</v>
       </c>
       <c r="C193">
-        <v>4.77</v>
+        <v>8.49</v>
       </c>
       <c r="D193">
-        <v>0.347</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>6.08</v>
       </c>
       <c r="B194">
-        <v>2.555</v>
+        <v>5.285</v>
       </c>
       <c r="C194">
-        <v>6.91</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D194">
-        <v>0.333</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>6.96</v>
       </c>
       <c r="B195">
-        <v>6.83</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C195">
-        <v>5.54</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D195">
-        <v>0.313</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>7.9</v>
       </c>
       <c r="B196">
-        <v>6.505000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="C196">
-        <v>7.18</v>
+        <v>8.23</v>
       </c>
       <c r="D196">
-        <v>0.394</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>14.22</v>
       </c>
       <c r="B197">
-        <v>8.899999999999999</v>
+        <v>5.49</v>
       </c>
       <c r="C197">
-        <v>3.81</v>
+        <v>7.78</v>
       </c>
       <c r="D197">
-        <v>0.345</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>9.48</v>
       </c>
       <c r="B198">
-        <v>7.195</v>
+        <v>4.57</v>
       </c>
       <c r="C198">
-        <v>5.61</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D198">
-        <v>0.429</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>11.97</v>
       </c>
       <c r="B199">
-        <v>6.295</v>
+        <v>-1.665</v>
       </c>
       <c r="C199">
-        <v>3.3</v>
+        <v>7.71</v>
       </c>
       <c r="D199">
-        <v>0.404</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>17.14</v>
       </c>
       <c r="B200">
-        <v>6.51</v>
+        <v>-3.27</v>
       </c>
       <c r="C200">
-        <v>4.28</v>
+        <v>10.46</v>
       </c>
       <c r="D200">
-        <v>0.405</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>11.18</v>
       </c>
       <c r="B201">
-        <v>6.615</v>
+        <v>2.7</v>
       </c>
       <c r="C201">
-        <v>3.21</v>
+        <v>8.92</v>
       </c>
       <c r="D201">
-        <v>0.339</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>18.29</v>
       </c>
       <c r="B202">
-        <v>5.465</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C202">
-        <v>9.289999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="D202">
-        <v>0.321</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>6.44</v>
       </c>
       <c r="B203">
-        <v>8.030000000000001</v>
+        <v>5.595000000000001</v>
       </c>
       <c r="C203">
-        <v>5.33</v>
+        <v>8.35</v>
       </c>
       <c r="D203">
-        <v>0.33</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>23.12</v>
       </c>
       <c r="B204">
-        <v>5.095</v>
+        <v>5.32</v>
       </c>
       <c r="C204">
-        <v>6.49</v>
+        <v>8.31</v>
       </c>
       <c r="D204">
-        <v>0.387</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>27.76</v>
       </c>
       <c r="B205">
-        <v>4.28</v>
+        <v>5.13</v>
       </c>
       <c r="C205">
-        <v>3.62</v>
+        <v>7.89</v>
       </c>
       <c r="D205">
-        <v>0.398</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>15.97</v>
       </c>
       <c r="B206">
-        <v>4.45</v>
+        <v>5.42</v>
       </c>
       <c r="C206">
-        <v>6.54</v>
+        <v>5.31</v>
       </c>
       <c r="D206">
-        <v>0.325</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>9.220000000000001</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>5.52</v>
       </c>
       <c r="C207">
-        <v>5.61</v>
+        <v>4.99</v>
       </c>
       <c r="D207">
-        <v>0.318</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>6.65</v>
       </c>
       <c r="B208">
-        <v>4.9</v>
+        <v>5.375</v>
       </c>
       <c r="C208">
-        <v>5.68</v>
+        <v>4.2</v>
       </c>
       <c r="D208">
-        <v>0.321</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>7.39</v>
       </c>
       <c r="B209">
-        <v>2.665</v>
+        <v>5.125</v>
       </c>
       <c r="C209">
-        <v>5.55</v>
+        <v>4.63</v>
       </c>
       <c r="D209">
-        <v>0.327</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>7.92</v>
       </c>
       <c r="B210">
-        <v>4.7</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C210">
-        <v>3.56</v>
+        <v>4.15</v>
       </c>
       <c r="D210">
-        <v>0.334</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>12.8</v>
       </c>
       <c r="B211">
-        <v>5.949999999999999</v>
+        <v>5.295</v>
       </c>
       <c r="C211">
-        <v>4.08</v>
+        <v>4.57</v>
       </c>
       <c r="D211">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>15.43</v>
       </c>
       <c r="B212">
-        <v>5.105</v>
+        <v>5.37</v>
       </c>
       <c r="C212">
-        <v>2.63</v>
+        <v>4.19</v>
       </c>
       <c r="D212">
-        <v>0.362</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>13.14</v>
       </c>
       <c r="B213">
-        <v>5.215</v>
+        <v>5.225</v>
       </c>
       <c r="C213">
-        <v>4.32</v>
+        <v>4.47</v>
       </c>
       <c r="D213">
-        <v>0.346</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>5.25</v>
       </c>
       <c r="B214">
-        <v>3.495</v>
+        <v>5.31</v>
       </c>
       <c r="C214">
-        <v>3.59</v>
+        <v>4.19</v>
       </c>
       <c r="D214">
-        <v>0.281</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>6.2</v>
       </c>
       <c r="B215">
-        <v>4.415</v>
+        <v>5.395</v>
       </c>
       <c r="C215">
-        <v>7.3</v>
+        <v>4.44</v>
       </c>
       <c r="D215">
-        <v>0.33</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>3.57</v>
       </c>
       <c r="B216">
-        <v>5.895</v>
+        <v>-1.68</v>
       </c>
       <c r="C216">
-        <v>5.73</v>
+        <v>4.2</v>
       </c>
       <c r="D216">
-        <v>0.394</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>7.45</v>
       </c>
       <c r="B217">
-        <v>5.765000000000001</v>
+        <v>-3.53</v>
       </c>
       <c r="C217">
-        <v>8.220000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="D217">
-        <v>0.407</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>11.32</v>
       </c>
       <c r="B218">
-        <v>5.37</v>
+        <v>2.68</v>
       </c>
       <c r="C218">
-        <v>4.19</v>
+        <v>5.96</v>
       </c>
       <c r="D218">
-        <v>0.378</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>12.13</v>
       </c>
       <c r="B219">
-        <v>5.665</v>
+        <v>4.06</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="D219">
-        <v>0.441</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>10.98</v>
       </c>
       <c r="B220">
-        <v>5.484999999999999</v>
+        <v>5.37</v>
       </c>
       <c r="C220">
-        <v>3.77</v>
+        <v>5.75</v>
       </c>
       <c r="D220">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>5.24</v>
       </c>
       <c r="B221">
-        <v>5.65</v>
+        <v>5.25</v>
       </c>
       <c r="C221">
-        <v>7.72</v>
+        <v>5.57</v>
       </c>
       <c r="D221">
-        <v>0.385</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>4.01</v>
       </c>
       <c r="B222">
-        <v>5.77</v>
+        <v>5.135</v>
       </c>
       <c r="C222">
-        <v>0.88</v>
+        <v>5.24</v>
       </c>
       <c r="D222">
-        <v>0.377</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>14.75</v>
       </c>
       <c r="B223">
-        <v>-0.635</v>
+        <v>4.435</v>
       </c>
       <c r="C223">
-        <v>3.28</v>
+        <v>4.07</v>
       </c>
       <c r="D223">
-        <v>0.372</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>21.35</v>
       </c>
       <c r="B224">
-        <v>5.005</v>
+        <v>5.445</v>
       </c>
       <c r="C224">
-        <v>2.82</v>
+        <v>4.07</v>
       </c>
       <c r="D224">
-        <v>0.351</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>7.77</v>
       </c>
       <c r="B225">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="C225">
-        <v>4.09</v>
+        <v>2.81</v>
       </c>
       <c r="D225">
-        <v>0.339</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>5.17</v>
       </c>
       <c r="B226">
-        <v>4.995</v>
+        <v>4.86</v>
       </c>
       <c r="C226">
-        <v>3.14</v>
+        <v>2.72</v>
       </c>
       <c r="D226">
-        <v>0.342</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>4.54</v>
       </c>
       <c r="B227">
-        <v>4.755</v>
+        <v>5.185</v>
       </c>
       <c r="C227">
-        <v>3.72</v>
+        <v>2.84</v>
       </c>
       <c r="D227">
-        <v>0.344</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>6.03</v>
       </c>
       <c r="B228">
-        <v>1.87</v>
+        <v>5.335</v>
       </c>
       <c r="C228">
-        <v>6.79</v>
+        <v>3.02</v>
       </c>
       <c r="D228">
-        <v>0.342</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>7.09</v>
       </c>
       <c r="B229">
-        <v>4.460000000000001</v>
+        <v>5.665</v>
       </c>
       <c r="C229">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>0.303</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>7.8</v>
       </c>
       <c r="B230">
-        <v>6.19</v>
+        <v>6.715</v>
       </c>
       <c r="C230">
-        <v>5.86</v>
+        <v>3.37</v>
       </c>
       <c r="D230">
-        <v>0.394</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>14.01</v>
       </c>
       <c r="B231">
-        <v>20.89</v>
+        <v>7.14</v>
       </c>
       <c r="C231">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="D231">
-        <v>0.346</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>9.06</v>
       </c>
       <c r="B232">
-        <v>7.32</v>
+        <v>6.075</v>
       </c>
       <c r="C232">
-        <v>5.04</v>
+        <v>3.18</v>
       </c>
       <c r="D232">
-        <v>0.397</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>11.63</v>
       </c>
       <c r="B233">
-        <v>6.115</v>
+        <v>-3.57</v>
       </c>
       <c r="C233">
-        <v>2.77</v>
+        <v>3.38</v>
       </c>
       <c r="D233">
-        <v>0.409</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>16.81</v>
       </c>
       <c r="B234">
-        <v>6.775</v>
+        <v>-1.815</v>
       </c>
       <c r="C234">
-        <v>3.38</v>
+        <v>4.57</v>
       </c>
       <c r="D234">
-        <v>0.403</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>11.25</v>
       </c>
       <c r="B235">
-        <v>6.18</v>
+        <v>8.875</v>
       </c>
       <c r="C235">
-        <v>2.33</v>
+        <v>4.28</v>
       </c>
       <c r="D235">
-        <v>0.37</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>18.12</v>
       </c>
       <c r="B236">
-        <v>5.425</v>
+        <v>2.6</v>
       </c>
       <c r="C236">
-        <v>7.07</v>
+        <v>4.56</v>
       </c>
       <c r="D236">
-        <v>0.343</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>6.64</v>
       </c>
       <c r="B237">
-        <v>7.46</v>
+        <v>4.44</v>
       </c>
       <c r="C237">
-        <v>4.56</v>
+        <v>3.73</v>
       </c>
       <c r="D237">
-        <v>0.328</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>23.01</v>
       </c>
       <c r="B238">
-        <v>9.390000000000001</v>
+        <v>5.865</v>
       </c>
       <c r="C238">
-        <v>6.27</v>
+        <v>4.06</v>
       </c>
       <c r="D238">
-        <v>0.394</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>27.74</v>
       </c>
       <c r="B239">
-        <v>25.25</v>
+        <v>5.24</v>
       </c>
       <c r="C239">
-        <v>2.75</v>
+        <v>3.58</v>
       </c>
       <c r="D239">
-        <v>0.384</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>15.68</v>
       </c>
       <c r="B240">
-        <v>4.744999999999999</v>
+        <v>5.305</v>
       </c>
       <c r="C240">
-        <v>6.34</v>
+        <v>4.31</v>
       </c>
       <c r="D240">
-        <v>0.318</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>8.94</v>
       </c>
       <c r="B241">
-        <v>5.34</v>
+        <v>5.57</v>
       </c>
       <c r="C241">
-        <v>5.55</v>
+        <v>4.47</v>
       </c>
       <c r="D241">
-        <v>0.311</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>6.55</v>
       </c>
       <c r="B242">
-        <v>5.36</v>
+        <v>5.695</v>
       </c>
       <c r="C242">
-        <v>5.66</v>
+        <v>4.14</v>
       </c>
       <c r="D242">
-        <v>0.305</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>7.21</v>
       </c>
       <c r="B243">
-        <v>2.065</v>
+        <v>5.455</v>
       </c>
       <c r="C243">
-        <v>5.98</v>
+        <v>4.21</v>
       </c>
       <c r="D243">
-        <v>0.347</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>7.85</v>
       </c>
       <c r="B244">
-        <v>4.675000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="C244">
-        <v>3.73</v>
+        <v>4.1</v>
       </c>
       <c r="D244">
-        <v>0.335</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>12.82</v>
       </c>
       <c r="B245">
-        <v>6.065</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C245">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="D245">
-        <v>0.341</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>15.41</v>
       </c>
       <c r="B246">
-        <v>4.84</v>
+        <v>5.484999999999999</v>
       </c>
       <c r="C246">
-        <v>3.35</v>
+        <v>3.77</v>
       </c>
       <c r="D246">
-        <v>0.355</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>13.01</v>
       </c>
       <c r="B247">
-        <v>5.25</v>
+        <v>5.46</v>
       </c>
       <c r="C247">
-        <v>4.04</v>
+        <v>3.91</v>
       </c>
       <c r="D247">
-        <v>0.326</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>4.77</v>
       </c>
       <c r="B248">
-        <v>5.39</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C248">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="D248">
-        <v>0.272</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>5.83</v>
       </c>
       <c r="B249">
-        <v>4.505</v>
+        <v>5.37</v>
       </c>
       <c r="C249">
-        <v>8.039999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="D249">
-        <v>0.339</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>3.55</v>
       </c>
       <c r="B250">
-        <v>6.305</v>
+        <v>-1.49</v>
       </c>
       <c r="C250">
-        <v>6.65</v>
+        <v>3.6</v>
       </c>
       <c r="D250">
-        <v>0.39</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>7.25</v>
       </c>
       <c r="B251">
-        <v>5.55</v>
+        <v>-3.065</v>
       </c>
       <c r="C251">
-        <v>8.23</v>
+        <v>5.84</v>
       </c>
       <c r="D251">
-        <v>0.405</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>11.19</v>
       </c>
       <c r="B252">
-        <v>5.225</v>
+        <v>3.31</v>
       </c>
       <c r="C252">
-        <v>4.47</v>
+        <v>5.17</v>
       </c>
       <c r="D252">
-        <v>0.357</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>11.81</v>
       </c>
       <c r="B253">
-        <v>6.715</v>
+        <v>3.905</v>
       </c>
       <c r="C253">
-        <v>3.37</v>
+        <v>5.74</v>
       </c>
       <c r="D253">
-        <v>0.422</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3961,10 +3961,10 @@
         <v>10.85</v>
       </c>
       <c r="B254">
-        <v>5.46</v>
+        <v>5.505</v>
       </c>
       <c r="C254">
-        <v>3.91</v>
+        <v>4.81</v>
       </c>
       <c r="D254">
         <v>0.371</v>
@@ -3975,13 +3975,13 @@
         <v>5.25</v>
       </c>
       <c r="B255">
-        <v>5.875</v>
+        <v>5.175</v>
       </c>
       <c r="C255">
-        <v>8.470000000000001</v>
+        <v>5.49</v>
       </c>
       <c r="D255">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>3.91</v>
       </c>
       <c r="B256">
-        <v>6.82</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="C256">
-        <v>1.4</v>
+        <v>4.33</v>
       </c>
       <c r="D256">
-        <v>0.364</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>14.63</v>
       </c>
       <c r="B257">
-        <v>-7.635</v>
+        <v>5.455</v>
       </c>
       <c r="C257">
-        <v>3.58</v>
+        <v>8.58</v>
       </c>
       <c r="D257">
-        <v>0.391</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>21.03</v>
       </c>
       <c r="B258">
-        <v>5.205</v>
+        <v>5.45</v>
       </c>
       <c r="C258">
-        <v>2.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D258">
-        <v>0.359</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>7.37</v>
       </c>
       <c r="B259">
-        <v>4.984999999999999</v>
+        <v>5.165</v>
       </c>
       <c r="C259">
-        <v>4.18</v>
+        <v>7.95</v>
       </c>
       <c r="D259">
-        <v>0.325</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>5.1</v>
       </c>
       <c r="B260">
-        <v>6.205</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C260">
-        <v>3.91</v>
+        <v>8.92</v>
       </c>
       <c r="D260">
-        <v>0.344</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>4.65</v>
       </c>
       <c r="B261">
-        <v>5.405</v>
+        <v>5.75</v>
       </c>
       <c r="C261">
-        <v>4.35</v>
+        <v>7.75</v>
       </c>
       <c r="D261">
-        <v>0.34</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>6.06</v>
       </c>
       <c r="B262">
-        <v>3.395</v>
+        <v>5.755</v>
       </c>
       <c r="C262">
-        <v>6.41</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D262">
-        <v>0.342</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>6.86</v>
       </c>
       <c r="B263">
-        <v>6.215</v>
+        <v>5.65</v>
       </c>
       <c r="C263">
-        <v>5.11</v>
+        <v>7.72</v>
       </c>
       <c r="D263">
-        <v>0.304</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>7.59</v>
       </c>
       <c r="B264">
-        <v>5.83</v>
+        <v>5.875</v>
       </c>
       <c r="C264">
-        <v>6.61</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D264">
-        <v>0.372</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>13.69</v>
       </c>
       <c r="B265">
-        <v>20.375</v>
+        <v>5.225</v>
       </c>
       <c r="C265">
-        <v>3.37</v>
+        <v>7.55</v>
       </c>
       <c r="D265">
-        <v>0.317</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>8.869999999999999</v>
       </c>
       <c r="B266">
-        <v>6.775</v>
+        <v>5.3</v>
       </c>
       <c r="C266">
-        <v>4.94</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D266">
-        <v>0.388</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>11.32</v>
       </c>
       <c r="B267">
-        <v>6.66</v>
+        <v>-2.085</v>
       </c>
       <c r="C267">
-        <v>3.19</v>
+        <v>7.99</v>
       </c>
       <c r="D267">
-        <v>0.392</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>15.83</v>
       </c>
       <c r="B268">
-        <v>6.234999999999999</v>
+        <v>-4.6</v>
       </c>
       <c r="C268">
-        <v>3.7</v>
+        <v>10.64</v>
       </c>
       <c r="D268">
-        <v>0.417</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>11.22</v>
       </c>
       <c r="B269">
-        <v>6.345000000000001</v>
+        <v>4.335</v>
       </c>
       <c r="C269">
-        <v>3.01</v>
+        <v>9.01</v>
       </c>
       <c r="D269">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>17.85</v>
       </c>
       <c r="B270">
-        <v>6.37</v>
+        <v>4.84</v>
       </c>
       <c r="C270">
-        <v>6.95</v>
+        <v>8.98</v>
       </c>
       <c r="D270">
-        <v>0.326</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>6.62</v>
       </c>
       <c r="B271">
-        <v>8.23</v>
+        <v>5.244999999999999</v>
       </c>
       <c r="C271">
-        <v>4.63</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D271">
-        <v>0.336</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>22.66</v>
       </c>
       <c r="B272">
-        <v>3.54</v>
+        <v>4.83</v>
       </c>
       <c r="C272">
-        <v>6.45</v>
+        <v>8.09</v>
       </c>
       <c r="D272">
-        <v>0.391</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>27.43</v>
       </c>
       <c r="B273">
-        <v>-5.925</v>
+        <v>4.71</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>7.97</v>
       </c>
       <c r="D273">
-        <v>0.398</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>15.32</v>
       </c>
       <c r="B274">
-        <v>3.745</v>
+        <v>5.9</v>
       </c>
       <c r="C274">
-        <v>5.48</v>
+        <v>1.37</v>
       </c>
       <c r="D274">
-        <v>0.319</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>8.83</v>
       </c>
       <c r="B275">
-        <v>5.279999999999999</v>
+        <v>6.145</v>
       </c>
       <c r="C275">
-        <v>5.57</v>
+        <v>1.99</v>
       </c>
       <c r="D275">
-        <v>0.317</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>6.42</v>
       </c>
       <c r="B276">
-        <v>4.905</v>
+        <v>6.375</v>
       </c>
       <c r="C276">
-        <v>5.38</v>
+        <v>2.12</v>
       </c>
       <c r="D276">
-        <v>0.306</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>7.08</v>
       </c>
       <c r="B277">
-        <v>2.915</v>
+        <v>6.285</v>
       </c>
       <c r="C277">
-        <v>5.36</v>
+        <v>1.89</v>
       </c>
       <c r="D277">
-        <v>0.334</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>7.6</v>
       </c>
       <c r="B278">
-        <v>4.765000000000001</v>
+        <v>6.085</v>
       </c>
       <c r="C278">
-        <v>3.52</v>
+        <v>1.28</v>
       </c>
       <c r="D278">
-        <v>0.321</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>12.71</v>
       </c>
       <c r="B279">
-        <v>5.73</v>
+        <v>5.075</v>
       </c>
       <c r="C279">
-        <v>4.02</v>
+        <v>1.48</v>
       </c>
       <c r="D279">
-        <v>0.331</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>15.23</v>
       </c>
       <c r="B280">
-        <v>5.025</v>
+        <v>5.77</v>
       </c>
       <c r="C280">
-        <v>2.41</v>
+        <v>0.88</v>
       </c>
       <c r="D280">
-        <v>0.34</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>12.62</v>
       </c>
       <c r="B281">
-        <v>5.385</v>
+        <v>6.82</v>
       </c>
       <c r="C281">
-        <v>3.95</v>
+        <v>1.4</v>
       </c>
       <c r="D281">
-        <v>0.329</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>4.62</v>
       </c>
       <c r="B282">
-        <v>3.135</v>
+        <v>5.83</v>
       </c>
       <c r="C282">
-        <v>3.32</v>
+        <v>1.22</v>
       </c>
       <c r="D282">
-        <v>0.269</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>5.9</v>
       </c>
       <c r="B283">
-        <v>4.69</v>
+        <v>5.375</v>
       </c>
       <c r="C283">
-        <v>7.02</v>
+        <v>1.57</v>
       </c>
       <c r="D283">
-        <v>0.341</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>3.47</v>
       </c>
       <c r="B284">
-        <v>5.775</v>
+        <v>-6.145</v>
       </c>
       <c r="C284">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="D284">
-        <v>0.394</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>6.91</v>
       </c>
       <c r="B285">
-        <v>5.49</v>
+        <v>-12.315</v>
       </c>
       <c r="C285">
-        <v>7.78</v>
+        <v>5.63</v>
       </c>
       <c r="D285">
-        <v>0.402</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>10.8</v>
       </c>
       <c r="B286">
-        <v>5.31</v>
+        <v>-3.5</v>
       </c>
       <c r="C286">
-        <v>4.19</v>
+        <v>5.42</v>
       </c>
       <c r="D286">
-        <v>0.361</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>11.7</v>
       </c>
       <c r="B287">
-        <v>7.14</v>
+        <v>-1.165</v>
       </c>
       <c r="C287">
-        <v>2.89</v>
+        <v>5.37</v>
       </c>
       <c r="D287">
-        <v>0.423</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>10.37</v>
       </c>
       <c r="B288">
-        <v>5.699999999999999</v>
+        <v>2.285</v>
       </c>
       <c r="C288">
-        <v>3.77</v>
+        <v>4.84</v>
       </c>
       <c r="D288">
-        <v>0.37</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>5.09</v>
       </c>
       <c r="B289">
-        <v>5.225</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C289">
-        <v>7.55</v>
+        <v>4.8</v>
       </c>
       <c r="D289">
-        <v>0.365</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>3.79</v>
       </c>
       <c r="B290">
-        <v>5.83</v>
+        <v>5.825</v>
       </c>
       <c r="C290">
-        <v>1.22</v>
+        <v>3.73</v>
       </c>
       <c r="D290">
-        <v>0.366</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>14.56</v>
       </c>
       <c r="B291">
-        <v>1.89</v>
+        <v>20.885</v>
       </c>
       <c r="C291">
-        <v>3.15</v>
+        <v>4.98</v>
       </c>
       <c r="D291">
-        <v>0.379</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>21.09</v>
       </c>
       <c r="B292">
-        <v>5.765000000000001</v>
+        <v>23.065</v>
       </c>
       <c r="C292">
-        <v>2.98</v>
+        <v>5.69</v>
       </c>
       <c r="D292">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>7.49</v>
       </c>
       <c r="B293">
-        <v>5.154999999999999</v>
+        <v>8.344999999999999</v>
       </c>
       <c r="C293">
-        <v>4.06</v>
+        <v>3.66</v>
       </c>
       <c r="D293">
-        <v>0.327</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>4.98</v>
       </c>
       <c r="B294">
-        <v>6.685</v>
+        <v>3.49</v>
       </c>
       <c r="C294">
-        <v>3.21</v>
+        <v>3.94</v>
       </c>
       <c r="D294">
-        <v>0.336</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>4.55</v>
       </c>
       <c r="B295">
-        <v>4.185</v>
+        <v>-2.43</v>
       </c>
       <c r="C295">
-        <v>3.41</v>
+        <v>3.86</v>
       </c>
       <c r="D295">
-        <v>0.334</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>5.94</v>
       </c>
       <c r="B296">
-        <v>4.945</v>
+        <v>2.41</v>
       </c>
       <c r="C296">
-        <v>6.65</v>
+        <v>3.32</v>
       </c>
       <c r="D296">
-        <v>0.33</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>6.63</v>
       </c>
       <c r="B297">
-        <v>7.525</v>
+        <v>-0.635</v>
       </c>
       <c r="C297">
-        <v>5.84</v>
+        <v>3.28</v>
       </c>
       <c r="D297">
-        <v>0.295</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>7.66</v>
       </c>
       <c r="B298">
-        <v>6.029999999999999</v>
+        <v>-7.635</v>
       </c>
       <c r="C298">
-        <v>5.17</v>
+        <v>3.58</v>
       </c>
       <c r="D298">
-        <v>0.367</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>13.48</v>
       </c>
       <c r="B299">
-        <v>7.135</v>
+        <v>1.89</v>
       </c>
       <c r="C299">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="D299">
-        <v>0.327</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>8.69</v>
       </c>
       <c r="B300">
-        <v>6.97</v>
+        <v>5.885</v>
       </c>
       <c r="C300">
-        <v>5.1</v>
+        <v>3.28</v>
       </c>
       <c r="D300">
-        <v>0.389</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>11.24</v>
       </c>
       <c r="B301">
-        <v>6.35</v>
+        <v>0.87</v>
       </c>
       <c r="C301">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="D301">
-        <v>0.399</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>15.52</v>
       </c>
       <c r="B302">
-        <v>6.725</v>
+        <v>-1.975</v>
       </c>
       <c r="C302">
-        <v>3.25</v>
+        <v>4.22</v>
       </c>
       <c r="D302">
-        <v>0.407</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>11.02</v>
       </c>
       <c r="B303">
-        <v>5.58</v>
+        <v>1.795</v>
       </c>
       <c r="C303">
-        <v>1.29</v>
+        <v>3.97</v>
       </c>
       <c r="D303">
-        <v>0.365</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>17.69</v>
       </c>
       <c r="B304">
-        <v>5.95</v>
+        <v>2.79</v>
       </c>
       <c r="C304">
-        <v>6.61</v>
+        <v>3.01</v>
       </c>
       <c r="D304">
-        <v>0.324</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4675,13 +4675,13 @@
         <v>6.77</v>
       </c>
       <c r="B305">
-        <v>7.53</v>
+        <v>6.86</v>
       </c>
       <c r="C305">
-        <v>4.96</v>
+        <v>3.92</v>
       </c>
       <c r="D305">
-        <v>0.312</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4689,13 +4689,13 @@
         <v>22.17</v>
       </c>
       <c r="B306">
-        <v>-0.375</v>
+        <v>7.07</v>
       </c>
       <c r="C306">
-        <v>5.81</v>
+        <v>2.89</v>
       </c>
       <c r="D306">
-        <v>0.386</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4703,13 +4703,13 @@
         <v>27.53</v>
       </c>
       <c r="B307">
-        <v>-21.3</v>
+        <v>1.005</v>
       </c>
       <c r="C307">
-        <v>3.22</v>
+        <v>3.73</v>
       </c>
       <c r="D307">
-        <v>0.394</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4717,13 +4717,13 @@
         <v>15.01</v>
       </c>
       <c r="B308">
-        <v>4.51</v>
+        <v>4.805</v>
       </c>
       <c r="C308">
-        <v>6.17</v>
+        <v>3.12</v>
       </c>
       <c r="D308">
-        <v>0.321</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4731,13 +4731,13 @@
         <v>8.630000000000001</v>
       </c>
       <c r="B309">
-        <v>5.16</v>
+        <v>5.025</v>
       </c>
       <c r="C309">
-        <v>5.39</v>
+        <v>3.83</v>
       </c>
       <c r="D309">
-        <v>0.315</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4745,13 +4745,13 @@
         <v>6.29</v>
       </c>
       <c r="B310">
-        <v>5.105</v>
+        <v>5.125</v>
       </c>
       <c r="C310">
-        <v>5.38</v>
+        <v>3.59</v>
       </c>
       <c r="D310">
-        <v>0.307</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4759,13 +4759,13 @@
         <v>6.9</v>
       </c>
       <c r="B311">
-        <v>2.71</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="C311">
-        <v>5.76</v>
+        <v>3.25</v>
       </c>
       <c r="D311">
-        <v>0.331</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4773,13 +4773,13 @@
         <v>7.51</v>
       </c>
       <c r="B312">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="C312">
-        <v>4.06</v>
+        <v>3.21</v>
       </c>
       <c r="D312">
-        <v>0.324</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4787,13 +4787,13 @@
         <v>12.56</v>
       </c>
       <c r="B313">
-        <v>5.655</v>
+        <v>5.105</v>
       </c>
       <c r="C313">
-        <v>4.53</v>
+        <v>3.27</v>
       </c>
       <c r="D313">
-        <v>0.339</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4801,13 +4801,13 @@
         <v>14.91</v>
       </c>
       <c r="B314">
-        <v>4.855</v>
+        <v>5.005</v>
       </c>
       <c r="C314">
-        <v>3.26</v>
+        <v>2.82</v>
       </c>
       <c r="D314">
-        <v>0.329</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4815,13 +4815,13 @@
         <v>12.3</v>
       </c>
       <c r="B315">
-        <v>5.135</v>
+        <v>5.205</v>
       </c>
       <c r="C315">
-        <v>4.03</v>
+        <v>2.85</v>
       </c>
       <c r="D315">
-        <v>0.331</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4829,13 +4829,13 @@
         <v>4.5</v>
       </c>
       <c r="B316">
-        <v>3.5</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C316">
-        <v>3.58</v>
+        <v>2.98</v>
       </c>
       <c r="D316">
-        <v>0.262</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4843,13 +4843,13 @@
         <v>5.8</v>
       </c>
       <c r="B317">
-        <v>4.96</v>
+        <v>4.755</v>
       </c>
       <c r="C317">
-        <v>7.5</v>
+        <v>3.14</v>
       </c>
       <c r="D317">
-        <v>0.337</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4857,13 +4857,13 @@
         <v>3.42</v>
       </c>
       <c r="B318">
-        <v>5.875</v>
+        <v>0.505</v>
       </c>
       <c r="C318">
-        <v>6.54</v>
+        <v>2.64</v>
       </c>
       <c r="D318">
-        <v>0.391</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4871,13 +4871,13 @@
         <v>6.82</v>
       </c>
       <c r="B319">
-        <v>4.57</v>
+        <v>-2.015</v>
       </c>
       <c r="C319">
-        <v>8.039999999999999</v>
+        <v>4.28</v>
       </c>
       <c r="D319">
-        <v>0.398</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4885,13 +4885,13 @@
         <v>10.58</v>
       </c>
       <c r="B320">
-        <v>5.395</v>
+        <v>2.275</v>
       </c>
       <c r="C320">
-        <v>4.44</v>
+        <v>3.38</v>
       </c>
       <c r="D320">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4899,13 +4899,13 @@
         <v>11.44</v>
       </c>
       <c r="B321">
-        <v>6.075</v>
+        <v>2.73</v>
       </c>
       <c r="C321">
-        <v>3.18</v>
+        <v>3.77</v>
       </c>
       <c r="D321">
-        <v>0.428</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4913,13 +4913,13 @@
         <v>10.2</v>
       </c>
       <c r="B322">
-        <v>5.37</v>
+        <v>2.59</v>
       </c>
       <c r="C322">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="D322">
-        <v>0.364</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4927,13 +4927,13 @@
         <v>4.94</v>
       </c>
       <c r="B323">
-        <v>5.3</v>
+        <v>3.48</v>
       </c>
       <c r="C323">
-        <v>8.109999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="D323">
-        <v>0.361</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4941,13 +4941,13 @@
         <v>3.61</v>
       </c>
       <c r="B324">
-        <v>5.375</v>
+        <v>3.96</v>
       </c>
       <c r="C324">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="D324">
-        <v>0.37</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4955,13 +4955,13 @@
         <v>13.88</v>
       </c>
       <c r="B325">
-        <v>5.885</v>
+        <v>5.205</v>
       </c>
       <c r="C325">
-        <v>3.28</v>
+        <v>4.78</v>
       </c>
       <c r="D325">
-        <v>0.374</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4969,13 +4969,13 @@
         <v>20.62</v>
       </c>
       <c r="B326">
-        <v>4.755</v>
+        <v>4.59</v>
       </c>
       <c r="C326">
-        <v>3.14</v>
+        <v>5.15</v>
       </c>
       <c r="D326">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4983,13 +4983,13 @@
         <v>7.28</v>
       </c>
       <c r="B327">
-        <v>5.035</v>
+        <v>5.369999999999999</v>
       </c>
       <c r="C327">
-        <v>4.35</v>
+        <v>4.58</v>
       </c>
       <c r="D327">
-        <v>0.318</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4997,13 +4997,13 @@
         <v>4.81</v>
       </c>
       <c r="B328">
-        <v>5.565</v>
+        <v>5.045</v>
       </c>
       <c r="C328">
-        <v>4.04</v>
+        <v>4.23</v>
       </c>
       <c r="D328">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5011,13 +5011,13 @@
         <v>4.47</v>
       </c>
       <c r="B329">
-        <v>3.995</v>
+        <v>4.805</v>
       </c>
       <c r="C329">
-        <v>4.18</v>
+        <v>4.22</v>
       </c>
       <c r="D329">
-        <v>0.334</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5025,13 +5025,13 @@
         <v>5.91</v>
       </c>
       <c r="B330">
-        <v>4.49</v>
+        <v>5.505</v>
       </c>
       <c r="C330">
-        <v>5.94</v>
+        <v>4.36</v>
       </c>
       <c r="D330">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5039,13 +5039,13 @@
         <v>6.49</v>
       </c>
       <c r="B331">
-        <v>6.295</v>
+        <v>5.17</v>
       </c>
       <c r="C331">
-        <v>4.49</v>
+        <v>4.09</v>
       </c>
       <c r="D331">
-        <v>0.292</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5053,13 +5053,13 @@
         <v>7.51</v>
       </c>
       <c r="B332">
-        <v>5.32</v>
+        <v>4.984999999999999</v>
       </c>
       <c r="C332">
-        <v>6.01</v>
+        <v>4.18</v>
       </c>
       <c r="D332">
-        <v>0.376</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5067,13 +5067,13 @@
         <v>13.18</v>
       </c>
       <c r="B333">
-        <v>10.455</v>
+        <v>5.154999999999999</v>
       </c>
       <c r="C333">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="D333">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5081,13 +5081,13 @@
         <v>8.56</v>
       </c>
       <c r="B334">
-        <v>6.825</v>
+        <v>5.035</v>
       </c>
       <c r="C334">
-        <v>4.62</v>
+        <v>4.35</v>
       </c>
       <c r="D334">
-        <v>0.391</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5095,13 +5095,13 @@
         <v>11.04</v>
       </c>
       <c r="B335">
-        <v>6.645</v>
+        <v>-0.3400000000000001</v>
       </c>
       <c r="C335">
-        <v>3.52</v>
+        <v>4.47</v>
       </c>
       <c r="D335">
-        <v>0.393</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5109,13 +5109,13 @@
         <v>15.31</v>
       </c>
       <c r="B336">
-        <v>6.09</v>
+        <v>-3.265</v>
       </c>
       <c r="C336">
-        <v>3.76</v>
+        <v>5.81</v>
       </c>
       <c r="D336">
-        <v>0.41</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5123,13 +5123,13 @@
         <v>10.95</v>
       </c>
       <c r="B337">
-        <v>5.545</v>
+        <v>5.36</v>
       </c>
       <c r="C337">
-        <v>2.98</v>
+        <v>5.73</v>
       </c>
       <c r="D337">
-        <v>0.365</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5137,13 +5137,13 @@
         <v>17.65</v>
       </c>
       <c r="B338">
-        <v>4.895</v>
+        <v>4.484999999999999</v>
       </c>
       <c r="C338">
-        <v>6.69</v>
+        <v>5.82</v>
       </c>
       <c r="D338">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5151,13 +5151,13 @@
         <v>6.91</v>
       </c>
       <c r="B339">
-        <v>5.03</v>
+        <v>4.365</v>
       </c>
       <c r="C339">
-        <v>4.81</v>
+        <v>4.86</v>
       </c>
       <c r="D339">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5165,13 +5165,13 @@
         <v>21.51</v>
       </c>
       <c r="B340">
-        <v>5.615</v>
+        <v>5.77</v>
       </c>
       <c r="C340">
-        <v>6.43</v>
+        <v>5.11</v>
       </c>
       <c r="D340">
-        <v>0.381</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>26.55</v>
       </c>
       <c r="B341">
-        <v>-9.434999999999999</v>
+        <v>4.325</v>
       </c>
       <c r="C341">
-        <v>3.51</v>
+        <v>4.52</v>
       </c>
       <c r="D341">
-        <v>0.391</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5193,13 +5193,13 @@
         <v>14.99</v>
       </c>
       <c r="B342">
-        <v>0.9199999999999999</v>
+        <v>7.305</v>
       </c>
       <c r="C342">
-        <v>5.4</v>
+        <v>3.14</v>
       </c>
       <c r="D342">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5207,13 +5207,13 @@
         <v>8.75</v>
       </c>
       <c r="B343">
-        <v>0.74</v>
+        <v>6.720000000000001</v>
       </c>
       <c r="C343">
-        <v>4.71</v>
+        <v>4.54</v>
       </c>
       <c r="D343">
-        <v>0.316</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5221,13 +5221,13 @@
         <v>6.28</v>
       </c>
       <c r="B344">
-        <v>-0.5399999999999998</v>
+        <v>5.415</v>
       </c>
       <c r="C344">
-        <v>5.25</v>
+        <v>3.67</v>
       </c>
       <c r="D344">
-        <v>0.305</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5235,13 +5235,13 @@
         <v>6.82</v>
       </c>
       <c r="B345">
-        <v>-0.6199999999999999</v>
+        <v>7.26</v>
       </c>
       <c r="C345">
-        <v>4.92</v>
+        <v>4.82</v>
       </c>
       <c r="D345">
-        <v>0.329</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5249,13 +5249,13 @@
         <v>7.58</v>
       </c>
       <c r="B346">
-        <v>0.005000000000000004</v>
+        <v>7.805</v>
       </c>
       <c r="C346">
-        <v>4.26</v>
+        <v>3.13</v>
       </c>
       <c r="D346">
-        <v>0.32</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5263,13 +5263,13 @@
         <v>12.66</v>
       </c>
       <c r="B347">
-        <v>1.215</v>
+        <v>5.71</v>
       </c>
       <c r="C347">
-        <v>3.9</v>
+        <v>4.23</v>
       </c>
       <c r="D347">
-        <v>0.339</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5277,13 +5277,13 @@
         <v>15.03</v>
       </c>
       <c r="B348">
-        <v>1.455</v>
+        <v>4.995</v>
       </c>
       <c r="C348">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="D348">
-        <v>0.334</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5291,13 +5291,13 @@
         <v>12.34</v>
       </c>
       <c r="B349">
-        <v>-0.9350000000000001</v>
+        <v>6.205</v>
       </c>
       <c r="C349">
-        <v>4.26</v>
+        <v>3.91</v>
       </c>
       <c r="D349">
-        <v>0.327</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5305,13 +5305,13 @@
         <v>4.53</v>
       </c>
       <c r="B350">
-        <v>-1.78</v>
+        <v>6.685</v>
       </c>
       <c r="C350">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="D350">
-        <v>0.262</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5319,13 +5319,13 @@
         <v>5.92</v>
       </c>
       <c r="B351">
-        <v>-2.395</v>
+        <v>5.565</v>
       </c>
       <c r="C351">
-        <v>5.98</v>
+        <v>4.04</v>
       </c>
       <c r="D351">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5333,13 +5333,13 @@
         <v>4.53</v>
       </c>
       <c r="B352">
-        <v>-1.66</v>
+        <v>-0.155</v>
       </c>
       <c r="C352">
-        <v>5.15</v>
+        <v>3.33</v>
       </c>
       <c r="D352">
-        <v>0.399</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5347,13 +5347,13 @@
         <v>7.88</v>
       </c>
       <c r="B353">
-        <v>-1.665</v>
+        <v>-2.635</v>
       </c>
       <c r="C353">
-        <v>7.71</v>
+        <v>4.58</v>
       </c>
       <c r="D353">
-        <v>0.403</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5361,13 +5361,13 @@
         <v>11.41</v>
       </c>
       <c r="B354">
-        <v>-1.68</v>
+        <v>1.475</v>
       </c>
       <c r="C354">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="D354">
-        <v>0.362</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5375,13 +5375,13 @@
         <v>12.28</v>
       </c>
       <c r="B355">
-        <v>-3.57</v>
+        <v>5.79</v>
       </c>
       <c r="C355">
-        <v>3.38</v>
+        <v>4.53</v>
       </c>
       <c r="D355">
-        <v>0.434</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5389,13 +5389,13 @@
         <v>11.09</v>
       </c>
       <c r="B356">
-        <v>-1.49</v>
+        <v>6.775</v>
       </c>
       <c r="C356">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D356">
-        <v>0.366</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5403,13 +5403,13 @@
         <v>5.92</v>
       </c>
       <c r="B357">
-        <v>-2.085</v>
+        <v>6.16</v>
       </c>
       <c r="C357">
-        <v>7.99</v>
+        <v>4.26</v>
       </c>
       <c r="D357">
-        <v>0.363</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5417,13 +5417,13 @@
         <v>3.78</v>
       </c>
       <c r="B358">
-        <v>-6.145</v>
+        <v>3.09</v>
       </c>
       <c r="C358">
-        <v>1.25</v>
+        <v>3.84</v>
       </c>
       <c r="D358">
-        <v>0.369</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5431,13 +5431,13 @@
         <v>13.97</v>
       </c>
       <c r="B359">
-        <v>0.87</v>
+        <v>3.635</v>
       </c>
       <c r="C359">
-        <v>3.04</v>
+        <v>4.83</v>
       </c>
       <c r="D359">
-        <v>0.376</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5445,13 +5445,13 @@
         <v>20.9</v>
       </c>
       <c r="B360">
-        <v>0.505</v>
+        <v>4.015</v>
       </c>
       <c r="C360">
-        <v>2.64</v>
+        <v>4.92</v>
       </c>
       <c r="D360">
-        <v>0.354</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5459,13 +5459,13 @@
         <v>7.17</v>
       </c>
       <c r="B361">
-        <v>-0.3400000000000001</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="C361">
-        <v>4.47</v>
+        <v>3.63</v>
       </c>
       <c r="D361">
-        <v>0.317</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5473,13 +5473,13 @@
         <v>4.82</v>
       </c>
       <c r="B362">
-        <v>-0.155</v>
+        <v>4.295</v>
       </c>
       <c r="C362">
-        <v>3.33</v>
+        <v>5.45</v>
       </c>
       <c r="D362">
-        <v>0.329</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5487,13 +5487,13 @@
         <v>4.38</v>
       </c>
       <c r="B363">
-        <v>0.615</v>
+        <v>5.1</v>
       </c>
       <c r="C363">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="D363">
-        <v>0.332</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5501,13 +5501,13 @@
         <v>6.1</v>
       </c>
       <c r="B364">
-        <v>-2.07</v>
+        <v>5.455</v>
       </c>
       <c r="C364">
-        <v>6.72</v>
+        <v>4.77</v>
       </c>
       <c r="D364">
-        <v>0.328</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5515,13 +5515,13 @@
         <v>6.8</v>
       </c>
       <c r="B365">
-        <v>1.015</v>
+        <v>4.755</v>
       </c>
       <c r="C365">
-        <v>5.71</v>
+        <v>3.72</v>
       </c>
       <c r="D365">
-        <v>0.292</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5529,13 +5529,13 @@
         <v>7.62</v>
       </c>
       <c r="B366">
-        <v>0.2650000000000001</v>
+        <v>5.405</v>
       </c>
       <c r="C366">
-        <v>5.34</v>
+        <v>4.35</v>
       </c>
       <c r="D366">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5543,13 +5543,13 @@
         <v>12.92</v>
       </c>
       <c r="B367">
-        <v>6.185</v>
+        <v>4.185</v>
       </c>
       <c r="C367">
-        <v>2.93</v>
+        <v>3.41</v>
       </c>
       <c r="D367">
-        <v>0.326</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5557,13 +5557,13 @@
         <v>8.720000000000001</v>
       </c>
       <c r="B368">
-        <v>-0.4200000000000002</v>
+        <v>3.995</v>
       </c>
       <c r="C368">
-        <v>5.7</v>
+        <v>4.18</v>
       </c>
       <c r="D368">
-        <v>0.389</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5571,13 +5571,13 @@
         <v>11</v>
       </c>
       <c r="B369">
-        <v>0.9700000000000002</v>
+        <v>0.615</v>
       </c>
       <c r="C369">
-        <v>3.1</v>
+        <v>3.67</v>
       </c>
       <c r="D369">
-        <v>0.389</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5585,13 +5585,13 @@
         <v>15.22</v>
       </c>
       <c r="B370">
-        <v>1.89</v>
+        <v>-3.95</v>
       </c>
       <c r="C370">
-        <v>3.29</v>
+        <v>4.74</v>
       </c>
       <c r="D370">
-        <v>0.408</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5599,13 +5599,13 @@
         <v>10.87</v>
       </c>
       <c r="B371">
-        <v>2.015</v>
+        <v>1.725</v>
       </c>
       <c r="C371">
-        <v>2.39</v>
+        <v>4.33</v>
       </c>
       <c r="D371">
-        <v>0.364</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5613,13 +5613,13 @@
         <v>17.44</v>
       </c>
       <c r="B372">
-        <v>1.305</v>
+        <v>5.2</v>
       </c>
       <c r="C372">
-        <v>6.71</v>
+        <v>4.95</v>
       </c>
       <c r="D372">
-        <v>0.318</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5627,13 +5627,13 @@
         <v>6.78</v>
       </c>
       <c r="B373">
-        <v>1.93</v>
+        <v>4.675</v>
       </c>
       <c r="C373">
-        <v>4.09</v>
+        <v>4.2</v>
       </c>
       <c r="D373">
-        <v>0.308</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5641,13 +5641,13 @@
         <v>21.37</v>
       </c>
       <c r="B374">
-        <v>3.035</v>
+        <v>5.484999999999999</v>
       </c>
       <c r="C374">
-        <v>6.78</v>
+        <v>4.74</v>
       </c>
       <c r="D374">
-        <v>0.382</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5655,13 +5655,13 @@
         <v>26.64</v>
       </c>
       <c r="B375">
-        <v>2.725</v>
+        <v>5.065</v>
       </c>
       <c r="C375">
-        <v>3.42</v>
+        <v>3.95</v>
       </c>
       <c r="D375">
-        <v>0.392</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5669,13 +5669,13 @@
         <v>15.43</v>
       </c>
       <c r="B376">
-        <v>-1.54</v>
+        <v>-0.645</v>
       </c>
       <c r="C376">
-        <v>6.59</v>
+        <v>7.17</v>
       </c>
       <c r="D376">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5683,13 +5683,13 @@
         <v>9.140000000000001</v>
       </c>
       <c r="B377">
-        <v>-2.77</v>
+        <v>-1.75</v>
       </c>
       <c r="C377">
-        <v>6.91</v>
+        <v>7.5</v>
       </c>
       <c r="D377">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5697,13 +5697,13 @@
         <v>6.56</v>
       </c>
       <c r="B378">
-        <v>-2.575</v>
+        <v>-0.615</v>
       </c>
       <c r="C378">
-        <v>6.88</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D378">
-        <v>0.301</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5711,13 +5711,13 @@
         <v>7.04</v>
       </c>
       <c r="B379">
-        <v>-1.61</v>
+        <v>-0.15</v>
       </c>
       <c r="C379">
-        <v>6.32</v>
+        <v>7.95</v>
       </c>
       <c r="D379">
-        <v>0.321</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5725,13 +5725,13 @@
         <v>7.97</v>
       </c>
       <c r="B380">
-        <v>-0.98</v>
+        <v>3.725</v>
       </c>
       <c r="C380">
-        <v>5.13</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D380">
-        <v>0.316</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5739,13 +5739,13 @@
         <v>12.98</v>
       </c>
       <c r="B381">
-        <v>-1.32</v>
+        <v>2.555</v>
       </c>
       <c r="C381">
-        <v>5.51</v>
+        <v>6.91</v>
       </c>
       <c r="D381">
-        <v>0.338</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5753,13 +5753,13 @@
         <v>15.3</v>
       </c>
       <c r="B382">
-        <v>-1.425</v>
+        <v>1.87</v>
       </c>
       <c r="C382">
-        <v>4.07</v>
+        <v>6.79</v>
       </c>
       <c r="D382">
-        <v>0.323</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5767,13 +5767,13 @@
         <v>12.76</v>
       </c>
       <c r="B383">
-        <v>-2.315</v>
+        <v>3.395</v>
       </c>
       <c r="C383">
-        <v>4.67</v>
+        <v>6.41</v>
       </c>
       <c r="D383">
-        <v>0.32</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5781,13 +5781,13 @@
         <v>4.89</v>
       </c>
       <c r="B384">
-        <v>-2.72</v>
+        <v>4.945</v>
       </c>
       <c r="C384">
-        <v>5.25</v>
+        <v>6.65</v>
       </c>
       <c r="D384">
-        <v>0.257</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5795,13 +5795,13 @@
         <v>6.13</v>
       </c>
       <c r="B385">
-        <v>-5.135</v>
+        <v>4.49</v>
       </c>
       <c r="C385">
-        <v>10.34</v>
+        <v>5.94</v>
       </c>
       <c r="D385">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5809,13 +5809,13 @@
         <v>4.69</v>
       </c>
       <c r="B386">
-        <v>-3.055</v>
+        <v>-2.07</v>
       </c>
       <c r="C386">
-        <v>10.95</v>
+        <v>6.72</v>
       </c>
       <c r="D386">
-        <v>0.4</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5823,13 +5823,13 @@
         <v>8.43</v>
       </c>
       <c r="B387">
-        <v>-3.27</v>
+        <v>-3.73</v>
       </c>
       <c r="C387">
-        <v>10.46</v>
+        <v>6.87</v>
       </c>
       <c r="D387">
-        <v>0.398</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5837,13 +5837,13 @@
         <v>11.84</v>
       </c>
       <c r="B388">
-        <v>-3.53</v>
+        <v>1.26</v>
       </c>
       <c r="C388">
-        <v>6.48</v>
+        <v>6.81</v>
       </c>
       <c r="D388">
-        <v>0.359</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5851,13 +5851,13 @@
         <v>12.8</v>
       </c>
       <c r="B389">
-        <v>-1.815</v>
+        <v>4</v>
       </c>
       <c r="C389">
-        <v>4.57</v>
+        <v>6.83</v>
       </c>
       <c r="D389">
-        <v>0.437</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5865,13 +5865,13 @@
         <v>11.46</v>
       </c>
       <c r="B390">
-        <v>-3.065</v>
+        <v>3.01</v>
       </c>
       <c r="C390">
-        <v>5.84</v>
+        <v>6.77</v>
       </c>
       <c r="D390">
-        <v>0.364</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5879,13 +5879,13 @@
         <v>6.63</v>
       </c>
       <c r="B391">
-        <v>-4.6</v>
+        <v>5.904999999999999</v>
       </c>
       <c r="C391">
-        <v>10.64</v>
+        <v>5.71</v>
       </c>
       <c r="D391">
-        <v>0.365</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5893,13 +5893,13 @@
         <v>4.45</v>
       </c>
       <c r="B392">
-        <v>-12.315</v>
+        <v>6.94</v>
       </c>
       <c r="C392">
-        <v>5.63</v>
+        <v>6.37</v>
       </c>
       <c r="D392">
-        <v>0.369</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5907,13 +5907,13 @@
         <v>14.23</v>
       </c>
       <c r="B393">
-        <v>-1.975</v>
+        <v>4.515</v>
       </c>
       <c r="C393">
-        <v>4.22</v>
+        <v>5.79</v>
       </c>
       <c r="D393">
-        <v>0.386</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5921,13 +5921,13 @@
         <v>21.21</v>
       </c>
       <c r="B394">
-        <v>-2.015</v>
+        <v>2.35</v>
       </c>
       <c r="C394">
-        <v>4.28</v>
+        <v>5.68</v>
       </c>
       <c r="D394">
-        <v>0.356</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5935,13 +5935,13 @@
         <v>7.24</v>
       </c>
       <c r="B395">
-        <v>-3.265</v>
+        <v>2.795</v>
       </c>
       <c r="C395">
-        <v>5.81</v>
+        <v>3.92</v>
       </c>
       <c r="D395">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5949,13 +5949,13 @@
         <v>5.26</v>
       </c>
       <c r="B396">
-        <v>-2.635</v>
+        <v>4.275</v>
       </c>
       <c r="C396">
-        <v>4.58</v>
+        <v>5.23</v>
       </c>
       <c r="D396">
-        <v>0.32</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5963,13 +5963,13 @@
         <v>4.83</v>
       </c>
       <c r="B397">
-        <v>-3.95</v>
+        <v>6.77</v>
       </c>
       <c r="C397">
-        <v>4.74</v>
+        <v>5.17</v>
       </c>
       <c r="D397">
-        <v>0.351</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5977,13 +5977,13 @@
         <v>6.64</v>
       </c>
       <c r="B398">
-        <v>-3.73</v>
+        <v>6.83</v>
       </c>
       <c r="C398">
-        <v>6.87</v>
+        <v>5.54</v>
       </c>
       <c r="D398">
-        <v>0.335</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5991,13 +5991,13 @@
         <v>7.41</v>
       </c>
       <c r="B399">
-        <v>-3.055</v>
+        <v>4.460000000000001</v>
       </c>
       <c r="C399">
-        <v>4.97</v>
+        <v>4.7</v>
       </c>
       <c r="D399">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6005,13 +6005,13 @@
         <v>7.78</v>
       </c>
       <c r="B400">
-        <v>-2.015</v>
+        <v>6.215</v>
       </c>
       <c r="C400">
-        <v>7.37</v>
+        <v>5.11</v>
       </c>
       <c r="D400">
-        <v>0.368</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6019,13 +6019,13 @@
         <v>13.06</v>
       </c>
       <c r="B401">
-        <v>3.645</v>
+        <v>7.525</v>
       </c>
       <c r="C401">
-        <v>3.77</v>
+        <v>5.84</v>
       </c>
       <c r="D401">
-        <v>0.321</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6033,13 +6033,13 @@
         <v>8.99</v>
       </c>
       <c r="B402">
-        <v>-0.875</v>
+        <v>6.295</v>
       </c>
       <c r="C402">
-        <v>6.31</v>
+        <v>4.49</v>
       </c>
       <c r="D402">
-        <v>0.382</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6047,13 +6047,13 @@
         <v>11.69</v>
       </c>
       <c r="B403">
-        <v>-2.02</v>
+        <v>1.015</v>
       </c>
       <c r="C403">
-        <v>4.58</v>
+        <v>5.71</v>
       </c>
       <c r="D403">
-        <v>0.388</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6061,13 +6061,13 @@
         <v>15.59</v>
       </c>
       <c r="B404">
-        <v>-1.83</v>
+        <v>-3.055</v>
       </c>
       <c r="C404">
-        <v>4.28</v>
+        <v>4.97</v>
       </c>
       <c r="D404">
-        <v>0.406</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6075,13 +6075,13 @@
         <v>11.5</v>
       </c>
       <c r="B405">
-        <v>-6.220000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="C405">
-        <v>3.32</v>
+        <v>4.67</v>
       </c>
       <c r="D405">
-        <v>0.356</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6089,13 +6089,13 @@
         <v>17.99</v>
       </c>
       <c r="B406">
-        <v>-3.01</v>
+        <v>6.175</v>
       </c>
       <c r="C406">
-        <v>7.57</v>
+        <v>4.58</v>
       </c>
       <c r="D406">
-        <v>0.326</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6103,13 +6103,13 @@
         <v>6.97</v>
       </c>
       <c r="B407">
-        <v>8.715</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C407">
-        <v>5.15</v>
+        <v>4.62</v>
       </c>
       <c r="D407">
-        <v>0.29</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6117,13 +6117,13 @@
         <v>21.7</v>
       </c>
       <c r="B408">
-        <v>-4.18</v>
+        <v>5.75</v>
       </c>
       <c r="C408">
-        <v>6.8</v>
+        <v>4.33</v>
       </c>
       <c r="D408">
-        <v>0.376</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6131,13 +6131,13 @@
         <v>26.8</v>
       </c>
       <c r="B409">
-        <v>2.205</v>
+        <v>5.21</v>
       </c>
       <c r="C409">
-        <v>4.28</v>
+        <v>4.1</v>
       </c>
       <c r="D409">
-        <v>0.395</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6145,13 +6145,13 @@
         <v>15.33</v>
       </c>
       <c r="B410">
-        <v>0.35</v>
+        <v>6.345000000000001</v>
       </c>
       <c r="C410">
-        <v>6.3</v>
+        <v>8.69</v>
       </c>
       <c r="D410">
-        <v>0.324</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6159,13 +6159,13 @@
         <v>9.01</v>
       </c>
       <c r="B411">
-        <v>1.55</v>
+        <v>5.95</v>
       </c>
       <c r="C411">
-        <v>6.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D411">
-        <v>0.314</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6173,13 +6173,13 @@
         <v>6.63</v>
       </c>
       <c r="B412">
-        <v>2.8</v>
+        <v>6.055</v>
       </c>
       <c r="C412">
-        <v>6.67</v>
+        <v>7.82</v>
       </c>
       <c r="D412">
-        <v>0.306</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6187,13 +6187,13 @@
         <v>7.12</v>
       </c>
       <c r="B413">
-        <v>2.785</v>
+        <v>6.245</v>
       </c>
       <c r="C413">
-        <v>4.96</v>
+        <v>6.18</v>
       </c>
       <c r="D413">
-        <v>0.326</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6201,13 +6201,13 @@
         <v>8.09</v>
       </c>
       <c r="B414">
-        <v>2.57</v>
+        <v>6.105</v>
       </c>
       <c r="C414">
-        <v>4.76</v>
+        <v>6.12</v>
       </c>
       <c r="D414">
-        <v>0.321</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6215,13 +6215,13 @@
         <v>12.84</v>
       </c>
       <c r="B415">
-        <v>2.655</v>
+        <v>6.505000000000001</v>
       </c>
       <c r="C415">
-        <v>5.17</v>
+        <v>7.18</v>
       </c>
       <c r="D415">
-        <v>0.341</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6229,13 +6229,13 @@
         <v>15.22</v>
       </c>
       <c r="B416">
-        <v>2.44</v>
+        <v>6.19</v>
       </c>
       <c r="C416">
-        <v>3.72</v>
+        <v>5.86</v>
       </c>
       <c r="D416">
-        <v>0.326</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6243,13 +6243,13 @@
         <v>12.62</v>
       </c>
       <c r="B417">
-        <v>1.565</v>
+        <v>5.83</v>
       </c>
       <c r="C417">
-        <v>4.54</v>
+        <v>6.61</v>
       </c>
       <c r="D417">
-        <v>0.323</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6257,13 +6257,13 @@
         <v>4.9</v>
       </c>
       <c r="B418">
-        <v>3.91</v>
+        <v>6.029999999999999</v>
       </c>
       <c r="C418">
-        <v>5.04</v>
+        <v>5.17</v>
       </c>
       <c r="D418">
-        <v>0.256</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6271,13 +6271,13 @@
         <v>6.12</v>
       </c>
       <c r="B419">
-        <v>2.855</v>
+        <v>5.32</v>
       </c>
       <c r="C419">
-        <v>10.12</v>
+        <v>6.01</v>
       </c>
       <c r="D419">
-        <v>0.343</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6285,13 +6285,13 @@
         <v>4.72</v>
       </c>
       <c r="B420">
-        <v>4.49</v>
+        <v>0.2650000000000001</v>
       </c>
       <c r="C420">
-        <v>8.51</v>
+        <v>5.34</v>
       </c>
       <c r="D420">
-        <v>0.409</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6299,13 +6299,13 @@
         <v>8.4</v>
       </c>
       <c r="B421">
-        <v>2.7</v>
+        <v>-2.015</v>
       </c>
       <c r="C421">
-        <v>8.92</v>
+        <v>7.37</v>
       </c>
       <c r="D421">
-        <v>0.412</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6313,13 +6313,13 @@
         <v>11.79</v>
       </c>
       <c r="B422">
-        <v>2.68</v>
+        <v>5.185</v>
       </c>
       <c r="C422">
-        <v>5.96</v>
+        <v>7.28</v>
       </c>
       <c r="D422">
-        <v>0.372</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6327,13 +6327,13 @@
         <v>12.8</v>
       </c>
       <c r="B423">
-        <v>8.875</v>
+        <v>3.26</v>
       </c>
       <c r="C423">
-        <v>4.28</v>
+        <v>7.06</v>
       </c>
       <c r="D423">
-        <v>0.441</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6341,13 +6341,13 @@
         <v>11.4</v>
       </c>
       <c r="B424">
-        <v>3.31</v>
+        <v>4.91</v>
       </c>
       <c r="C424">
-        <v>5.17</v>
+        <v>6.51</v>
       </c>
       <c r="D424">
-        <v>0.374</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6355,13 +6355,13 @@
         <v>6.66</v>
       </c>
       <c r="B425">
-        <v>4.335</v>
+        <v>5.91</v>
       </c>
       <c r="C425">
-        <v>9.01</v>
+        <v>6.61</v>
       </c>
       <c r="D425">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6369,13 +6369,13 @@
         <v>4.53</v>
       </c>
       <c r="B426">
-        <v>-3.5</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C426">
-        <v>5.42</v>
+        <v>6.19</v>
       </c>
       <c r="D426">
-        <v>0.378</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6383,13 +6383,13 @@
         <v>14.14</v>
       </c>
       <c r="B427">
-        <v>1.795</v>
+        <v>15.67</v>
       </c>
       <c r="C427">
-        <v>3.97</v>
+        <v>2.99</v>
       </c>
       <c r="D427">
-        <v>0.381</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6397,13 +6397,13 @@
         <v>20.99</v>
       </c>
       <c r="B428">
-        <v>2.275</v>
+        <v>15.365</v>
       </c>
       <c r="C428">
-        <v>3.38</v>
+        <v>4.1</v>
       </c>
       <c r="D428">
-        <v>0.346</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6411,13 +6411,13 @@
         <v>7.15</v>
       </c>
       <c r="B429">
-        <v>5.36</v>
+        <v>14.535</v>
       </c>
       <c r="C429">
-        <v>5.73</v>
+        <v>3.46</v>
       </c>
       <c r="D429">
-        <v>0.313</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6425,13 +6425,13 @@
         <v>5.16</v>
       </c>
       <c r="B430">
-        <v>1.475</v>
+        <v>5.795</v>
       </c>
       <c r="C430">
-        <v>4.25</v>
+        <v>3.29</v>
       </c>
       <c r="D430">
-        <v>0.323</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6439,13 +6439,13 @@
         <v>4.83</v>
       </c>
       <c r="B431">
-        <v>1.725</v>
+        <v>5.25</v>
       </c>
       <c r="C431">
-        <v>4.33</v>
+        <v>2.97</v>
       </c>
       <c r="D431">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6453,13 +6453,13 @@
         <v>6.54</v>
       </c>
       <c r="B432">
-        <v>1.26</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="C432">
-        <v>6.81</v>
+        <v>3.81</v>
       </c>
       <c r="D432">
-        <v>0.334</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6467,13 +6467,13 @@
         <v>7.36</v>
       </c>
       <c r="B433">
-        <v>1.9</v>
+        <v>20.89</v>
       </c>
       <c r="C433">
-        <v>4.67</v>
+        <v>3.12</v>
       </c>
       <c r="D433">
-        <v>0.292</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6481,13 +6481,13 @@
         <v>7.77</v>
       </c>
       <c r="B434">
-        <v>5.185</v>
+        <v>20.375</v>
       </c>
       <c r="C434">
-        <v>7.28</v>
+        <v>3.37</v>
       </c>
       <c r="D434">
-        <v>0.365</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6495,13 +6495,13 @@
         <v>13</v>
       </c>
       <c r="B435">
-        <v>12</v>
+        <v>7.135</v>
       </c>
       <c r="C435">
-        <v>3.73</v>
+        <v>3.46</v>
       </c>
       <c r="D435">
-        <v>0.316</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6509,13 +6509,13 @@
         <v>8.779999999999999</v>
       </c>
       <c r="B436">
-        <v>3.745</v>
+        <v>10.455</v>
       </c>
       <c r="C436">
-        <v>5.79</v>
+        <v>3.11</v>
       </c>
       <c r="D436">
-        <v>0.382</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6523,13 +6523,13 @@
         <v>11.66</v>
       </c>
       <c r="B437">
-        <v>2.165</v>
+        <v>6.185</v>
       </c>
       <c r="C437">
-        <v>4.22</v>
+        <v>2.93</v>
       </c>
       <c r="D437">
-        <v>0.39</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6537,13 +6537,13 @@
         <v>15.61</v>
       </c>
       <c r="B438">
-        <v>0.7450000000000001</v>
+        <v>3.645</v>
       </c>
       <c r="C438">
-        <v>3.41</v>
+        <v>3.77</v>
       </c>
       <c r="D438">
-        <v>0.408</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6551,13 +6551,13 @@
         <v>11.29</v>
       </c>
       <c r="B439">
-        <v>2.015</v>
+        <v>12</v>
       </c>
       <c r="C439">
-        <v>3.28</v>
+        <v>3.73</v>
       </c>
       <c r="D439">
-        <v>0.356</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6565,13 +6565,13 @@
         <v>17.87</v>
       </c>
       <c r="B440">
-        <v>1.855</v>
+        <v>11.36</v>
       </c>
       <c r="C440">
-        <v>6.73</v>
+        <v>3.75</v>
       </c>
       <c r="D440">
-        <v>0.314</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6579,13 +6579,13 @@
         <v>6.89</v>
       </c>
       <c r="B441">
-        <v>16.155</v>
+        <v>11.095</v>
       </c>
       <c r="C441">
-        <v>5.06</v>
+        <v>3.67</v>
       </c>
       <c r="D441">
-        <v>0.3</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6593,13 +6593,13 @@
         <v>21.84</v>
       </c>
       <c r="B442">
-        <v>-0.595</v>
+        <v>19.18</v>
       </c>
       <c r="C442">
-        <v>6.18</v>
+        <v>3</v>
       </c>
       <c r="D442">
-        <v>0.38</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6607,13 +6607,13 @@
         <v>26.86</v>
       </c>
       <c r="B443">
-        <v>14.085</v>
+        <v>12.54</v>
       </c>
       <c r="C443">
-        <v>3.77</v>
+        <v>3.49</v>
       </c>
       <c r="D443">
-        <v>0.397</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6621,13 +6621,13 @@
         <v>15.53</v>
       </c>
       <c r="B444">
-        <v>5.225</v>
+        <v>6.91</v>
       </c>
       <c r="C444">
-        <v>6.3</v>
+        <v>5.81</v>
       </c>
       <c r="D444">
-        <v>0.323</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6635,13 +6635,13 @@
         <v>8.49</v>
       </c>
       <c r="B445">
-        <v>3.74</v>
+        <v>7.425</v>
       </c>
       <c r="C445">
-        <v>6.33</v>
+        <v>5.95</v>
       </c>
       <c r="D445">
-        <v>0.313</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6649,13 +6649,13 @@
         <v>6.04</v>
       </c>
       <c r="B446">
-        <v>3.84</v>
+        <v>7.625</v>
       </c>
       <c r="C446">
-        <v>6.52</v>
+        <v>5.11</v>
       </c>
       <c r="D446">
-        <v>0.3</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6663,13 +6663,13 @@
         <v>7</v>
       </c>
       <c r="B447">
-        <v>3.97</v>
+        <v>7.22</v>
       </c>
       <c r="C447">
-        <v>4.42</v>
+        <v>4.8</v>
       </c>
       <c r="D447">
-        <v>0.327</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6677,13 +6677,13 @@
         <v>7.67</v>
       </c>
       <c r="B448">
-        <v>4.84</v>
+        <v>7.245</v>
       </c>
       <c r="C448">
-        <v>5.09</v>
+        <v>4.77</v>
       </c>
       <c r="D448">
-        <v>0.315</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6691,13 +6691,13 @@
         <v>12.79</v>
       </c>
       <c r="B449">
-        <v>4.52</v>
+        <v>7.195</v>
       </c>
       <c r="C449">
-        <v>4.98</v>
+        <v>5.61</v>
       </c>
       <c r="D449">
-        <v>0.34</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6705,13 +6705,13 @@
         <v>14.43</v>
       </c>
       <c r="B450">
-        <v>4.17</v>
+        <v>7.32</v>
       </c>
       <c r="C450">
-        <v>3.65</v>
+        <v>5.04</v>
       </c>
       <c r="D450">
-        <v>0.321</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6719,13 +6719,13 @@
         <v>11.67</v>
       </c>
       <c r="B451">
-        <v>4.029999999999999</v>
+        <v>6.775</v>
       </c>
       <c r="C451">
-        <v>4.69</v>
+        <v>4.94</v>
       </c>
       <c r="D451">
-        <v>0.314</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6733,13 +6733,13 @@
         <v>4.67</v>
       </c>
       <c r="B452">
-        <v>6.205</v>
+        <v>6.97</v>
       </c>
       <c r="C452">
-        <v>5.03</v>
+        <v>5.1</v>
       </c>
       <c r="D452">
-        <v>0.247</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6747,13 +6747,13 @@
         <v>5.75</v>
       </c>
       <c r="B453">
-        <v>4.12</v>
+        <v>6.825</v>
       </c>
       <c r="C453">
-        <v>9.91</v>
+        <v>4.62</v>
       </c>
       <c r="D453">
-        <v>0.339</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6761,13 +6761,13 @@
         <v>4.67</v>
       </c>
       <c r="B454">
-        <v>3.02</v>
+        <v>-0.4200000000000002</v>
       </c>
       <c r="C454">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="D454">
-        <v>0.411</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6775,13 +6775,13 @@
         <v>7.97</v>
       </c>
       <c r="B455">
-        <v>4.859999999999999</v>
+        <v>-0.875</v>
       </c>
       <c r="C455">
-        <v>9.82</v>
+        <v>6.31</v>
       </c>
       <c r="D455">
-        <v>0.406</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6789,13 +6789,13 @@
         <v>11.25</v>
       </c>
       <c r="B456">
-        <v>4.06</v>
+        <v>3.745</v>
       </c>
       <c r="C456">
-        <v>5.95</v>
+        <v>5.79</v>
       </c>
       <c r="D456">
-        <v>0.368</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6803,13 +6803,13 @@
         <v>11.91</v>
       </c>
       <c r="B457">
-        <v>2.6</v>
+        <v>5.565</v>
       </c>
       <c r="C457">
-        <v>4.56</v>
+        <v>5.72</v>
       </c>
       <c r="D457">
-        <v>0.436</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6817,13 +6817,13 @@
         <v>10.59</v>
       </c>
       <c r="B458">
-        <v>3.905</v>
+        <v>4.755</v>
       </c>
       <c r="C458">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="D458">
-        <v>0.364</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6831,13 +6831,13 @@
         <v>6.5</v>
       </c>
       <c r="B459">
-        <v>4.84</v>
+        <v>5.395</v>
       </c>
       <c r="C459">
-        <v>8.98</v>
+        <v>4.51</v>
       </c>
       <c r="D459">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6845,13 +6845,13 @@
         <v>4.72</v>
       </c>
       <c r="B460">
-        <v>-1.165</v>
+        <v>5.145</v>
       </c>
       <c r="C460">
-        <v>5.37</v>
+        <v>5.26</v>
       </c>
       <c r="D460">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6859,13 +6859,13 @@
         <v>13.83</v>
       </c>
       <c r="B461">
-        <v>2.79</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C461">
-        <v>3.01</v>
+        <v>3.62</v>
       </c>
       <c r="D461">
-        <v>0.384</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6873,13 +6873,13 @@
         <v>20.44</v>
       </c>
       <c r="B462">
-        <v>2.73</v>
+        <v>7.25</v>
       </c>
       <c r="C462">
-        <v>3.77</v>
+        <v>5.55</v>
       </c>
       <c r="D462">
-        <v>0.339</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6887,13 +6887,13 @@
         <v>6.84</v>
       </c>
       <c r="B463">
-        <v>4.484999999999999</v>
+        <v>6.154999999999999</v>
       </c>
       <c r="C463">
-        <v>5.82</v>
+        <v>3.78</v>
       </c>
       <c r="D463">
-        <v>0.315</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6901,13 +6901,13 @@
         <v>5.16</v>
       </c>
       <c r="B464">
-        <v>5.79</v>
+        <v>6.81</v>
       </c>
       <c r="C464">
-        <v>4.53</v>
+        <v>2.72</v>
       </c>
       <c r="D464">
-        <v>0.32</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6915,13 +6915,13 @@
         <v>4.56</v>
       </c>
       <c r="B465">
-        <v>5.2</v>
+        <v>7.29</v>
       </c>
       <c r="C465">
-        <v>4.95</v>
+        <v>3.14</v>
       </c>
       <c r="D465">
-        <v>0.325</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6929,13 +6929,13 @@
         <v>6.27</v>
       </c>
       <c r="B466">
-        <v>4</v>
+        <v>6.295</v>
       </c>
       <c r="C466">
-        <v>6.83</v>
+        <v>3.3</v>
       </c>
       <c r="D466">
-        <v>0.331</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6943,13 +6943,13 @@
         <v>6.83</v>
       </c>
       <c r="B467">
-        <v>6.175</v>
+        <v>6.115</v>
       </c>
       <c r="C467">
-        <v>4.58</v>
+        <v>2.77</v>
       </c>
       <c r="D467">
-        <v>0.285</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6957,13 +6957,13 @@
         <v>7.36</v>
       </c>
       <c r="B468">
-        <v>3.26</v>
+        <v>6.66</v>
       </c>
       <c r="C468">
-        <v>7.06</v>
+        <v>3.19</v>
       </c>
       <c r="D468">
-        <v>0.359</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6971,13 +6971,13 @@
         <v>12.18</v>
       </c>
       <c r="B469">
-        <v>11.36</v>
+        <v>6.35</v>
       </c>
       <c r="C469">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="D469">
-        <v>0.326</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6985,13 +6985,13 @@
         <v>8.529999999999999</v>
       </c>
       <c r="B470">
-        <v>5.565</v>
+        <v>6.645</v>
       </c>
       <c r="C470">
-        <v>5.72</v>
+        <v>3.52</v>
       </c>
       <c r="D470">
-        <v>0.377</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6999,13 +6999,13 @@
         <v>11.74</v>
       </c>
       <c r="B471">
-        <v>5.915</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="C471">
-        <v>3.92</v>
+        <v>3.1</v>
       </c>
       <c r="D471">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7013,13 +7013,13 @@
         <v>15.41</v>
       </c>
       <c r="B472">
-        <v>4.12</v>
+        <v>-2.02</v>
       </c>
       <c r="C472">
-        <v>3.01</v>
+        <v>4.58</v>
       </c>
       <c r="D472">
-        <v>0.409</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7027,13 +7027,13 @@
         <v>11.85</v>
       </c>
       <c r="B473">
-        <v>3.14</v>
+        <v>2.165</v>
       </c>
       <c r="C473">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="D473">
-        <v>0.366</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7041,13 +7041,13 @@
         <v>16.3</v>
       </c>
       <c r="B474">
-        <v>5.435</v>
+        <v>5.915</v>
       </c>
       <c r="C474">
-        <v>6.93</v>
+        <v>3.92</v>
       </c>
       <c r="D474">
-        <v>0.316</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7055,13 +7055,13 @@
         <v>6.38</v>
       </c>
       <c r="B475">
-        <v>17.255</v>
+        <v>5.575</v>
       </c>
       <c r="C475">
-        <v>4.71</v>
+        <v>3.86</v>
       </c>
       <c r="D475">
-        <v>0.278</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7069,13 +7069,13 @@
         <v>21.82</v>
       </c>
       <c r="B476">
-        <v>-0.47</v>
+        <v>5.48</v>
       </c>
       <c r="C476">
-        <v>5.84</v>
+        <v>3.36</v>
       </c>
       <c r="D476">
-        <v>0.374</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7083,13 +7083,13 @@
         <v>27.38</v>
       </c>
       <c r="B477">
-        <v>16.115</v>
+        <v>5.665</v>
       </c>
       <c r="C477">
-        <v>3.33</v>
+        <v>3.66</v>
       </c>
       <c r="D477">
-        <v>0.396</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7097,13 +7097,13 @@
         <v>14.64</v>
       </c>
       <c r="B478">
-        <v>4.35</v>
+        <v>5.7</v>
       </c>
       <c r="C478">
-        <v>5.97</v>
+        <v>3.06</v>
       </c>
       <c r="D478">
-        <v>0.311</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7111,13 +7111,13 @@
         <v>8.42</v>
       </c>
       <c r="B479">
-        <v>4.325</v>
+        <v>6.755000000000001</v>
       </c>
       <c r="C479">
-        <v>5.47</v>
+        <v>4.65</v>
       </c>
       <c r="D479">
-        <v>0.312</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7125,13 +7125,13 @@
         <v>5.92</v>
       </c>
       <c r="B480">
-        <v>4.365</v>
+        <v>6.02</v>
       </c>
       <c r="C480">
-        <v>6.17</v>
+        <v>3.88</v>
       </c>
       <c r="D480">
-        <v>0.3</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7139,13 +7139,13 @@
         <v>6.78</v>
       </c>
       <c r="B481">
-        <v>4.78</v>
+        <v>7</v>
       </c>
       <c r="C481">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="D481">
-        <v>0.326</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7153,13 +7153,13 @@
         <v>7.62</v>
       </c>
       <c r="B482">
-        <v>5.02</v>
+        <v>6.99</v>
       </c>
       <c r="C482">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="D482">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7167,13 +7167,13 @@
         <v>11.9</v>
       </c>
       <c r="B483">
-        <v>5.19</v>
+        <v>6.51</v>
       </c>
       <c r="C483">
-        <v>4.74</v>
+        <v>4.28</v>
       </c>
       <c r="D483">
-        <v>0.339</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7181,13 +7181,13 @@
         <v>14.62</v>
       </c>
       <c r="B484">
-        <v>3.965</v>
+        <v>6.775</v>
       </c>
       <c r="C484">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="D484">
-        <v>0.315</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7195,13 +7195,13 @@
         <v>11.57</v>
       </c>
       <c r="B485">
-        <v>4.045</v>
+        <v>6.234999999999999</v>
       </c>
       <c r="C485">
-        <v>4.31</v>
+        <v>3.7</v>
       </c>
       <c r="D485">
-        <v>0.314</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7209,13 +7209,13 @@
         <v>4.45</v>
       </c>
       <c r="B486">
-        <v>4.279999999999999</v>
+        <v>6.725</v>
       </c>
       <c r="C486">
-        <v>4.18</v>
+        <v>3.25</v>
       </c>
       <c r="D486">
-        <v>0.236</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7223,13 +7223,13 @@
         <v>6.24</v>
       </c>
       <c r="B487">
-        <v>3.92</v>
+        <v>6.09</v>
       </c>
       <c r="C487">
-        <v>8.02</v>
+        <v>3.76</v>
       </c>
       <c r="D487">
-        <v>0.342</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7237,13 +7237,13 @@
         <v>4.69</v>
       </c>
       <c r="B488">
-        <v>5.115</v>
+        <v>1.89</v>
       </c>
       <c r="C488">
-        <v>8</v>
+        <v>3.29</v>
       </c>
       <c r="D488">
-        <v>0.423</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7251,13 +7251,13 @@
         <v>8.06</v>
       </c>
       <c r="B489">
-        <v>5.595000000000001</v>
+        <v>-1.83</v>
       </c>
       <c r="C489">
-        <v>8.35</v>
+        <v>4.28</v>
       </c>
       <c r="D489">
-        <v>0.417</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7265,13 +7265,13 @@
         <v>10.93</v>
       </c>
       <c r="B490">
-        <v>5.37</v>
+        <v>0.7450000000000001</v>
       </c>
       <c r="C490">
-        <v>5.75</v>
+        <v>3.41</v>
       </c>
       <c r="D490">
-        <v>0.374</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7279,13 +7279,13 @@
         <v>11.34</v>
       </c>
       <c r="B491">
-        <v>4.44</v>
+        <v>4.12</v>
       </c>
       <c r="C491">
-        <v>3.73</v>
+        <v>3.01</v>
       </c>
       <c r="D491">
-        <v>0.439</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7293,13 +7293,13 @@
         <v>10.38</v>
       </c>
       <c r="B492">
-        <v>5.505</v>
+        <v>4.035</v>
       </c>
       <c r="C492">
-        <v>4.81</v>
+        <v>3.25</v>
       </c>
       <c r="D492">
-        <v>0.371</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7307,13 +7307,13 @@
         <v>6.16</v>
       </c>
       <c r="B493">
-        <v>5.244999999999999</v>
+        <v>4.04</v>
       </c>
       <c r="C493">
-        <v>8.529999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="D493">
-        <v>0.363</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7321,13 +7321,13 @@
         <v>4.57</v>
       </c>
       <c r="B494">
-        <v>2.285</v>
+        <v>4.235</v>
       </c>
       <c r="C494">
-        <v>4.84</v>
+        <v>3.07</v>
       </c>
       <c r="D494">
-        <v>0.363</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7335,13 +7335,13 @@
         <v>13.68</v>
       </c>
       <c r="B495">
-        <v>6.86</v>
+        <v>7.065</v>
       </c>
       <c r="C495">
-        <v>3.92</v>
+        <v>1.81</v>
       </c>
       <c r="D495">
-        <v>0.373</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7349,13 +7349,13 @@
         <v>20.05</v>
       </c>
       <c r="B496">
-        <v>2.59</v>
+        <v>7.495</v>
       </c>
       <c r="C496">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="D496">
-        <v>0.334</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7363,13 +7363,13 @@
         <v>6.73</v>
       </c>
       <c r="B497">
-        <v>4.365</v>
+        <v>5.32</v>
       </c>
       <c r="C497">
-        <v>4.86</v>
+        <v>2.72</v>
       </c>
       <c r="D497">
-        <v>0.314</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7377,13 +7377,13 @@
         <v>5.28</v>
       </c>
       <c r="B498">
-        <v>6.775</v>
+        <v>6.65</v>
       </c>
       <c r="C498">
-        <v>4.2</v>
+        <v>3.33</v>
       </c>
       <c r="D498">
-        <v>0.319</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7391,13 +7391,13 @@
         <v>4.49</v>
       </c>
       <c r="B499">
-        <v>4.675</v>
+        <v>6.185</v>
       </c>
       <c r="C499">
-        <v>4.2</v>
+        <v>2.98</v>
       </c>
       <c r="D499">
-        <v>0.317</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7405,13 +7405,13 @@
         <v>6.31</v>
       </c>
       <c r="B500">
-        <v>3.01</v>
+        <v>6.615</v>
       </c>
       <c r="C500">
-        <v>6.77</v>
+        <v>3.21</v>
       </c>
       <c r="D500">
-        <v>0.327</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7419,13 +7419,13 @@
         <v>6.77</v>
       </c>
       <c r="B501">
-        <v>4.859999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="C501">
-        <v>4.62</v>
+        <v>2.33</v>
       </c>
       <c r="D501">
-        <v>0.272</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7433,13 +7433,13 @@
         <v>7.28</v>
       </c>
       <c r="B502">
-        <v>4.91</v>
+        <v>6.345000000000001</v>
       </c>
       <c r="C502">
-        <v>6.51</v>
+        <v>3.01</v>
       </c>
       <c r="D502">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7447,13 +7447,13 @@
         <v>12.33</v>
       </c>
       <c r="B503">
-        <v>11.095</v>
+        <v>5.58</v>
       </c>
       <c r="C503">
-        <v>3.67</v>
+        <v>1.29</v>
       </c>
       <c r="D503">
-        <v>0.308</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7461,13 +7461,13 @@
         <v>8.630000000000001</v>
       </c>
       <c r="B504">
-        <v>4.755</v>
+        <v>5.545</v>
       </c>
       <c r="C504">
-        <v>5.75</v>
+        <v>2.98</v>
       </c>
       <c r="D504">
-        <v>0.377</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7475,13 +7475,13 @@
         <v>11.17</v>
       </c>
       <c r="B505">
-        <v>5.575</v>
+        <v>2.015</v>
       </c>
       <c r="C505">
-        <v>3.86</v>
+        <v>2.39</v>
       </c>
       <c r="D505">
-        <v>0.387</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7489,13 +7489,13 @@
         <v>15.42</v>
       </c>
       <c r="B506">
-        <v>4.035</v>
+        <v>-6.220000000000001</v>
       </c>
       <c r="C506">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="D506">
-        <v>0.418</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7503,13 +7503,13 @@
         <v>11.75</v>
       </c>
       <c r="B507">
-        <v>1.515</v>
+        <v>2.015</v>
       </c>
       <c r="C507">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="D507">
-        <v>0.362</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7517,13 +7517,13 @@
         <v>15.97</v>
       </c>
       <c r="B508">
-        <v>4.675</v>
+        <v>3.14</v>
       </c>
       <c r="C508">
-        <v>6.44</v>
+        <v>3.13</v>
       </c>
       <c r="D508">
-        <v>0.301</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7531,13 +7531,13 @@
         <v>6.23</v>
       </c>
       <c r="B509">
-        <v>25.86</v>
+        <v>1.515</v>
       </c>
       <c r="C509">
-        <v>4.98</v>
+        <v>3.11</v>
       </c>
       <c r="D509">
-        <v>0.279</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7545,13 +7545,13 @@
         <v>21.33</v>
       </c>
       <c r="B510">
-        <v>2.525</v>
+        <v>3.08</v>
       </c>
       <c r="C510">
-        <v>5.78</v>
+        <v>2.34</v>
       </c>
       <c r="D510">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7559,13 +7559,13 @@
         <v>26.56</v>
       </c>
       <c r="B511">
-        <v>14.155</v>
+        <v>4.775</v>
       </c>
       <c r="C511">
-        <v>3.6</v>
+        <v>3.04</v>
       </c>
       <c r="D511">
-        <v>0.406</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7573,13 +7573,13 @@
         <v>14.75</v>
       </c>
       <c r="B512">
-        <v>4.055</v>
+        <v>4.835</v>
       </c>
       <c r="C512">
-        <v>6.17</v>
+        <v>6.72</v>
       </c>
       <c r="D512">
-        <v>0.291</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7587,13 +7587,13 @@
         <v>8.33</v>
       </c>
       <c r="B513">
-        <v>5.115</v>
+        <v>6.09</v>
       </c>
       <c r="C513">
-        <v>6.16</v>
+        <v>9.93</v>
       </c>
       <c r="D513">
-        <v>0.326</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7601,13 +7601,13 @@
         <v>6.04</v>
       </c>
       <c r="B514">
-        <v>4.355</v>
+        <v>5.835</v>
       </c>
       <c r="C514">
-        <v>6.28</v>
+        <v>6.98</v>
       </c>
       <c r="D514">
-        <v>0.292</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7615,13 +7615,13 @@
         <v>6.84</v>
       </c>
       <c r="B515">
-        <v>4.34</v>
+        <v>5.635</v>
       </c>
       <c r="C515">
-        <v>4.37</v>
+        <v>7.05</v>
       </c>
       <c r="D515">
-        <v>0.323</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7629,13 +7629,13 @@
         <v>7.7</v>
       </c>
       <c r="B516">
-        <v>5.215</v>
+        <v>6.21</v>
       </c>
       <c r="C516">
-        <v>4.59</v>
+        <v>7.77</v>
       </c>
       <c r="D516">
-        <v>0.335</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7643,13 +7643,13 @@
         <v>11.95</v>
       </c>
       <c r="B517">
-        <v>5.26</v>
+        <v>5.465</v>
       </c>
       <c r="C517">
-        <v>4.63</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D517">
-        <v>0.33</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7657,13 +7657,13 @@
         <v>14.34</v>
       </c>
       <c r="B518">
-        <v>4.63</v>
+        <v>5.425</v>
       </c>
       <c r="C518">
-        <v>3.59</v>
+        <v>7.07</v>
       </c>
       <c r="D518">
-        <v>0.315</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7671,13 +7671,13 @@
         <v>11.44</v>
       </c>
       <c r="B519">
-        <v>4.495</v>
+        <v>6.37</v>
       </c>
       <c r="C519">
-        <v>4.52</v>
+        <v>6.95</v>
       </c>
       <c r="D519">
-        <v>0.313</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7685,13 +7685,13 @@
         <v>4.61</v>
       </c>
       <c r="B520">
-        <v>4.495</v>
+        <v>5.95</v>
       </c>
       <c r="C520">
-        <v>4.77</v>
+        <v>6.61</v>
       </c>
       <c r="D520">
-        <v>0.255</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7699,13 +7699,13 @@
         <v>6.03</v>
       </c>
       <c r="B521">
-        <v>6.215</v>
+        <v>4.895</v>
       </c>
       <c r="C521">
-        <v>8.23</v>
+        <v>6.69</v>
       </c>
       <c r="D521">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7713,13 +7713,13 @@
         <v>4.61</v>
       </c>
       <c r="B522">
-        <v>5.395</v>
+        <v>1.305</v>
       </c>
       <c r="C522">
-        <v>7.18</v>
+        <v>6.71</v>
       </c>
       <c r="D522">
-        <v>0.412</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7727,13 +7727,13 @@
         <v>7.98</v>
       </c>
       <c r="B523">
-        <v>5.32</v>
+        <v>-3.01</v>
       </c>
       <c r="C523">
-        <v>8.31</v>
+        <v>7.57</v>
       </c>
       <c r="D523">
-        <v>0.412</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7741,13 +7741,13 @@
         <v>10.98</v>
       </c>
       <c r="B524">
-        <v>5.25</v>
+        <v>1.855</v>
       </c>
       <c r="C524">
-        <v>5.57</v>
+        <v>6.73</v>
       </c>
       <c r="D524">
-        <v>0.366</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7755,13 +7755,13 @@
         <v>11.49</v>
       </c>
       <c r="B525">
-        <v>5.865</v>
+        <v>5.435</v>
       </c>
       <c r="C525">
-        <v>4.06</v>
+        <v>6.93</v>
       </c>
       <c r="D525">
-        <v>0.459</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7769,13 +7769,13 @@
         <v>10.49</v>
       </c>
       <c r="B526">
-        <v>5.175</v>
+        <v>4.675</v>
       </c>
       <c r="C526">
-        <v>5.49</v>
+        <v>6.44</v>
       </c>
       <c r="D526">
-        <v>0.365</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7783,13 +7783,13 @@
         <v>6.24</v>
       </c>
       <c r="B527">
-        <v>4.83</v>
+        <v>5.92</v>
       </c>
       <c r="C527">
-        <v>8.09</v>
+        <v>6.88</v>
       </c>
       <c r="D527">
-        <v>0.377</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7797,13 +7797,13 @@
         <v>4.53</v>
       </c>
       <c r="B528">
-        <v>7.359999999999999</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="C528">
-        <v>4.8</v>
+        <v>6.08</v>
       </c>
       <c r="D528">
-        <v>0.362</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7811,13 +7811,13 @@
         <v>13.82</v>
       </c>
       <c r="B529">
-        <v>7.07</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C529">
-        <v>2.89</v>
+        <v>5.56</v>
       </c>
       <c r="D529">
-        <v>0.374</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7825,13 +7825,13 @@
         <v>20.23</v>
       </c>
       <c r="B530">
-        <v>3.48</v>
+        <v>6.42</v>
       </c>
       <c r="C530">
-        <v>3.54</v>
+        <v>6.05</v>
       </c>
       <c r="D530">
-        <v>0.34</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7839,13 +7839,13 @@
         <v>6.81</v>
       </c>
       <c r="B531">
-        <v>5.77</v>
+        <v>5.45</v>
       </c>
       <c r="C531">
-        <v>5.11</v>
+        <v>3.43</v>
       </c>
       <c r="D531">
-        <v>0.311</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7853,10 +7853,10 @@
         <v>5.22</v>
       </c>
       <c r="B532">
-        <v>6.16</v>
+        <v>6.075</v>
       </c>
       <c r="C532">
-        <v>4.26</v>
+        <v>4.01</v>
       </c>
       <c r="D532">
         <v>0.309</v>
@@ -7867,13 +7867,13 @@
         <v>4.61</v>
       </c>
       <c r="B533">
-        <v>5.484999999999999</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="C533">
-        <v>4.74</v>
+        <v>4.82</v>
       </c>
       <c r="D533">
-        <v>0.309</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7881,13 +7881,13 @@
         <v>6.44</v>
       </c>
       <c r="B534">
-        <v>5.904999999999999</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="C534">
-        <v>5.71</v>
+        <v>5.33</v>
       </c>
       <c r="D534">
-        <v>0.317</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7895,13 +7895,13 @@
         <v>6.86</v>
       </c>
       <c r="B535">
-        <v>5.75</v>
+        <v>7.46</v>
       </c>
       <c r="C535">
-        <v>4.33</v>
+        <v>4.56</v>
       </c>
       <c r="D535">
-        <v>0.27</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7909,13 +7909,13 @@
         <v>7.34</v>
       </c>
       <c r="B536">
-        <v>5.91</v>
+        <v>8.23</v>
       </c>
       <c r="C536">
-        <v>6.61</v>
+        <v>4.63</v>
       </c>
       <c r="D536">
-        <v>0.359</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7923,13 +7923,13 @@
         <v>12.3</v>
       </c>
       <c r="B537">
-        <v>19.18</v>
+        <v>7.53</v>
       </c>
       <c r="C537">
-        <v>3</v>
+        <v>4.96</v>
       </c>
       <c r="D537">
-        <v>0.305</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7937,13 +7937,13 @@
         <v>8.66</v>
       </c>
       <c r="B538">
-        <v>5.395</v>
+        <v>5.03</v>
       </c>
       <c r="C538">
-        <v>4.51</v>
+        <v>4.81</v>
       </c>
       <c r="D538">
-        <v>0.365</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7951,13 +7951,13 @@
         <v>11.27</v>
       </c>
       <c r="B539">
-        <v>5.48</v>
+        <v>1.93</v>
       </c>
       <c r="C539">
-        <v>3.36</v>
+        <v>4.09</v>
       </c>
       <c r="D539">
-        <v>0.366</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7965,13 +7965,13 @@
         <v>15.51</v>
       </c>
       <c r="B540">
-        <v>4.04</v>
+        <v>8.715</v>
       </c>
       <c r="C540">
-        <v>2.58</v>
+        <v>5.15</v>
       </c>
       <c r="D540">
-        <v>0.423</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7979,13 +7979,13 @@
         <v>11.92</v>
       </c>
       <c r="B541">
-        <v>3.08</v>
+        <v>16.155</v>
       </c>
       <c r="C541">
-        <v>2.34</v>
+        <v>5.06</v>
       </c>
       <c r="D541">
-        <v>0.371</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7993,13 +7993,13 @@
         <v>16.23</v>
       </c>
       <c r="B542">
-        <v>5.92</v>
+        <v>17.255</v>
       </c>
       <c r="C542">
-        <v>6.88</v>
+        <v>4.71</v>
       </c>
       <c r="D542">
-        <v>0.306</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8007,13 +8007,13 @@
         <v>6.37</v>
       </c>
       <c r="B543">
-        <v>20.52</v>
+        <v>25.86</v>
       </c>
       <c r="C543">
-        <v>3.98</v>
+        <v>4.98</v>
       </c>
       <c r="D543">
-        <v>0.309</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8021,13 +8021,13 @@
         <v>21.43</v>
       </c>
       <c r="B544">
-        <v>1.665</v>
+        <v>20.52</v>
       </c>
       <c r="C544">
-        <v>5.37</v>
+        <v>3.98</v>
       </c>
       <c r="D544">
-        <v>0.384</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8035,13 +8035,13 @@
         <v>26.8</v>
       </c>
       <c r="B545">
-        <v>4.415</v>
+        <v>19.46</v>
       </c>
       <c r="C545">
-        <v>2.83</v>
+        <v>4.6</v>
       </c>
       <c r="D545">
-        <v>0.393</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8049,13 +8049,13 @@
         <v>14.45</v>
       </c>
       <c r="B546">
-        <v>4.505</v>
+        <v>2.635</v>
       </c>
       <c r="C546">
-        <v>5.75</v>
+        <v>4.61</v>
       </c>
       <c r="D546">
-        <v>0.296</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8063,13 +8063,13 @@
         <v>8.15</v>
       </c>
       <c r="B547">
-        <v>5.03</v>
+        <v>5.845000000000001</v>
       </c>
       <c r="C547">
-        <v>5.24</v>
+        <v>8.08</v>
       </c>
       <c r="D547">
-        <v>0.309</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8077,13 +8077,13 @@
         <v>5.95</v>
       </c>
       <c r="B548">
-        <v>4.965</v>
+        <v>4.67</v>
       </c>
       <c r="C548">
-        <v>5.9</v>
+        <v>5.73</v>
       </c>
       <c r="D548">
-        <v>0.28</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8091,13 +8091,13 @@
         <v>6.68</v>
       </c>
       <c r="B549">
-        <v>4.41</v>
+        <v>4.365</v>
       </c>
       <c r="C549">
-        <v>4.25</v>
+        <v>7.46</v>
       </c>
       <c r="D549">
-        <v>0.324</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8105,13 +8105,13 @@
         <v>7.58</v>
       </c>
       <c r="B550">
-        <v>4.9</v>
+        <v>2.83</v>
       </c>
       <c r="C550">
-        <v>4.5</v>
+        <v>7.52</v>
       </c>
       <c r="D550">
-        <v>0.343</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8119,13 +8119,13 @@
         <v>11.78</v>
       </c>
       <c r="B551">
-        <v>5.154999999999999</v>
+        <v>5.095</v>
       </c>
       <c r="C551">
-        <v>4.53</v>
+        <v>6.49</v>
       </c>
       <c r="D551">
-        <v>0.338</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8133,13 +8133,13 @@
         <v>14.04</v>
       </c>
       <c r="B552">
-        <v>4.14</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C552">
-        <v>3.21</v>
+        <v>6.27</v>
       </c>
       <c r="D552">
-        <v>0.333</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8147,13 +8147,13 @@
         <v>11.11</v>
       </c>
       <c r="B553">
-        <v>4.470000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="C553">
-        <v>4.18</v>
+        <v>6.45</v>
       </c>
       <c r="D553">
-        <v>0.324</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8161,13 +8161,13 @@
         <v>4.52</v>
       </c>
       <c r="B554">
-        <v>4.765000000000001</v>
+        <v>-0.375</v>
       </c>
       <c r="C554">
-        <v>3.89</v>
+        <v>5.81</v>
       </c>
       <c r="D554">
-        <v>0.245</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8175,13 +8175,13 @@
         <v>5.69</v>
       </c>
       <c r="B555">
-        <v>5.775</v>
+        <v>5.615</v>
       </c>
       <c r="C555">
-        <v>7.61</v>
+        <v>6.43</v>
       </c>
       <c r="D555">
-        <v>0.34</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8189,13 +8189,13 @@
         <v>4.44</v>
       </c>
       <c r="B556">
-        <v>5.035</v>
+        <v>3.035</v>
       </c>
       <c r="C556">
-        <v>7.57</v>
+        <v>6.78</v>
       </c>
       <c r="D556">
-        <v>0.431</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8203,13 +8203,13 @@
         <v>7.62</v>
       </c>
       <c r="B557">
-        <v>5.13</v>
+        <v>-4.18</v>
       </c>
       <c r="C557">
-        <v>7.89</v>
+        <v>6.8</v>
       </c>
       <c r="D557">
-        <v>0.425</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8217,13 +8217,13 @@
         <v>10.77</v>
       </c>
       <c r="B558">
-        <v>5.135</v>
+        <v>-0.595</v>
       </c>
       <c r="C558">
-        <v>5.24</v>
+        <v>6.18</v>
       </c>
       <c r="D558">
-        <v>0.369</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8231,13 +8231,13 @@
         <v>11.04</v>
       </c>
       <c r="B559">
-        <v>5.24</v>
+        <v>-0.47</v>
       </c>
       <c r="C559">
-        <v>3.58</v>
+        <v>5.84</v>
       </c>
       <c r="D559">
-        <v>0.449</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8245,13 +8245,13 @@
         <v>10.35</v>
       </c>
       <c r="B560">
-        <v>5.109999999999999</v>
+        <v>2.525</v>
       </c>
       <c r="C560">
-        <v>4.33</v>
+        <v>5.78</v>
       </c>
       <c r="D560">
-        <v>0.387</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8259,13 +8259,13 @@
         <v>6.17</v>
       </c>
       <c r="B561">
-        <v>4.71</v>
+        <v>1.665</v>
       </c>
       <c r="C561">
-        <v>7.97</v>
+        <v>5.37</v>
       </c>
       <c r="D561">
-        <v>0.368</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8273,13 +8273,13 @@
         <v>4.25</v>
       </c>
       <c r="B562">
-        <v>5.825</v>
+        <v>3.02</v>
       </c>
       <c r="C562">
-        <v>3.73</v>
+        <v>5.53</v>
       </c>
       <c r="D562">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8287,13 +8287,13 @@
         <v>13.85</v>
       </c>
       <c r="B563">
-        <v>1.005</v>
+        <v>7.47</v>
       </c>
       <c r="C563">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="D563">
-        <v>0.375</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8301,13 +8301,13 @@
         <v>19.96</v>
       </c>
       <c r="B564">
-        <v>3.96</v>
+        <v>7.295</v>
       </c>
       <c r="C564">
-        <v>3.1</v>
+        <v>3.99</v>
       </c>
       <c r="D564">
-        <v>0.325</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8315,13 +8315,13 @@
         <v>6.71</v>
       </c>
       <c r="B565">
-        <v>4.325</v>
+        <v>-3.08</v>
       </c>
       <c r="C565">
-        <v>4.52</v>
+        <v>2.97</v>
       </c>
       <c r="D565">
-        <v>0.321</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8329,13 +8329,13 @@
         <v>5.11</v>
       </c>
       <c r="B566">
-        <v>3.09</v>
+        <v>20.93</v>
       </c>
       <c r="C566">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="D566">
-        <v>0.317</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8343,13 +8343,13 @@
         <v>4.29</v>
       </c>
       <c r="B567">
-        <v>5.065</v>
+        <v>5.035</v>
       </c>
       <c r="C567">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="D567">
-        <v>0.313</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8357,13 +8357,13 @@
         <v>6.11</v>
       </c>
       <c r="B568">
-        <v>6.94</v>
+        <v>4.28</v>
       </c>
       <c r="C568">
-        <v>6.37</v>
+        <v>3.62</v>
       </c>
       <c r="D568">
-        <v>0.322</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8371,13 +8371,13 @@
         <v>6.45</v>
       </c>
       <c r="B569">
-        <v>5.21</v>
+        <v>25.25</v>
       </c>
       <c r="C569">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="D569">
-        <v>0.277</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8385,13 +8385,13 @@
         <v>7.38</v>
       </c>
       <c r="B570">
-        <v>5.765000000000001</v>
+        <v>-5.925</v>
       </c>
       <c r="C570">
-        <v>6.19</v>
+        <v>3</v>
       </c>
       <c r="D570">
-        <v>0.37</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8399,13 +8399,13 @@
         <v>12.41</v>
       </c>
       <c r="B571">
-        <v>12.54</v>
+        <v>-21.3</v>
       </c>
       <c r="C571">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="D571">
-        <v>0.304</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8413,13 +8413,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B572">
-        <v>5.145</v>
+        <v>-9.434999999999999</v>
       </c>
       <c r="C572">
-        <v>5.26</v>
+        <v>3.51</v>
       </c>
       <c r="D572">
-        <v>0.377</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -8427,13 +8427,13 @@
         <v>11.43</v>
       </c>
       <c r="B573">
-        <v>5.665</v>
+        <v>2.725</v>
       </c>
       <c r="C573">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="D573">
-        <v>0.371</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8441,13 +8441,13 @@
         <v>15.15</v>
       </c>
       <c r="B574">
-        <v>4.235</v>
+        <v>2.205</v>
       </c>
       <c r="C574">
-        <v>3.07</v>
+        <v>4.28</v>
       </c>
       <c r="D574">
-        <v>0.417</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8455,13 +8455,13 @@
         <v>11.49</v>
       </c>
       <c r="B575">
-        <v>4.775</v>
+        <v>14.085</v>
       </c>
       <c r="C575">
-        <v>3.04</v>
+        <v>3.77</v>
       </c>
       <c r="D575">
-        <v>0.351</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8469,13 +8469,13 @@
         <v>16.42</v>
       </c>
       <c r="B576">
-        <v>5.779999999999999</v>
+        <v>16.115</v>
       </c>
       <c r="C576">
-        <v>6.08</v>
+        <v>3.33</v>
       </c>
       <c r="D576">
-        <v>0.288</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8483,13 +8483,13 @@
         <v>6.46</v>
       </c>
       <c r="B577">
-        <v>19.46</v>
+        <v>14.155</v>
       </c>
       <c r="C577">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D577">
-        <v>0.3</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8497,13 +8497,13 @@
         <v>20.49</v>
       </c>
       <c r="B578">
-        <v>3.02</v>
+        <v>4.415</v>
       </c>
       <c r="C578">
-        <v>5.53</v>
+        <v>2.83</v>
       </c>
       <c r="D578">
-        <v>0.37</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8572,13 +8572,13 @@
         <v>10.81475778546713</v>
       </c>
       <c r="C3">
-        <v>4.499152249134949</v>
+        <v>4.499152249134948</v>
       </c>
       <c r="D3">
         <v>5.055051903114187</v>
       </c>
       <c r="E3">
-        <v>0.3530968858131489</v>
+        <v>0.3530968858131488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8592,7 +8592,7 @@
         <v>4.086966928357401</v>
       </c>
       <c r="D4">
-        <v>1.805692735157488</v>
+        <v>1.805692735157489</v>
       </c>
       <c r="E4">
         <v>0.03976605273878312</v>

--- a/pooled_data.xlsx
+++ b/pooled_data.xlsx
@@ -447,13 +447,13 @@
         <v>10.53</v>
       </c>
       <c r="B3">
-        <v>0.505</v>
+        <v>4.99</v>
       </c>
       <c r="C3">
-        <v>9.93</v>
+        <v>6.39</v>
       </c>
       <c r="D3">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,13 +461,13 @@
         <v>7.31</v>
       </c>
       <c r="B4">
-        <v>3.235</v>
+        <v>5.625</v>
       </c>
       <c r="C4">
-        <v>8.130000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="D4">
-        <v>0.333</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,13 +475,13 @@
         <v>8.42</v>
       </c>
       <c r="B5">
-        <v>3.355</v>
+        <v>-1.035</v>
       </c>
       <c r="C5">
-        <v>7.57</v>
+        <v>6.72</v>
       </c>
       <c r="D5">
-        <v>0.341</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,13 +489,13 @@
         <v>8.859999999999999</v>
       </c>
       <c r="B6">
-        <v>4.2</v>
+        <v>4.555</v>
       </c>
       <c r="C6">
-        <v>7.39</v>
+        <v>2.73</v>
       </c>
       <c r="D6">
-        <v>0.329</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,13 +503,13 @@
         <v>14.25</v>
       </c>
       <c r="B7">
-        <v>4.17</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="C7">
-        <v>6.57</v>
+        <v>5.03</v>
       </c>
       <c r="D7">
-        <v>0.329</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -517,13 +517,13 @@
         <v>17.88</v>
       </c>
       <c r="B8">
-        <v>4.45</v>
+        <v>5.255</v>
       </c>
       <c r="C8">
-        <v>6.54</v>
+        <v>3.21</v>
       </c>
       <c r="D8">
-        <v>0.325</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,13 +531,13 @@
         <v>14.35</v>
       </c>
       <c r="B9">
-        <v>4.744999999999999</v>
+        <v>4.984999999999999</v>
       </c>
       <c r="C9">
-        <v>6.34</v>
+        <v>3.44</v>
       </c>
       <c r="D9">
-        <v>0.318</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -545,13 +545,13 @@
         <v>5.4</v>
       </c>
       <c r="B10">
-        <v>3.745</v>
+        <v>4.035</v>
       </c>
       <c r="C10">
-        <v>5.48</v>
+        <v>3.35</v>
       </c>
       <c r="D10">
-        <v>0.319</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -559,13 +559,13 @@
         <v>6.24</v>
       </c>
       <c r="B11">
-        <v>4.51</v>
+        <v>7.09</v>
       </c>
       <c r="C11">
-        <v>6.17</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D11">
-        <v>0.321</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -573,13 +573,13 @@
         <v>3.93</v>
       </c>
       <c r="B12">
-        <v>0.9199999999999999</v>
+        <v>5.470000000000001</v>
       </c>
       <c r="C12">
-        <v>5.4</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D12">
-        <v>0.323</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -587,13 +587,13 @@
         <v>9.529999999999999</v>
       </c>
       <c r="B13">
-        <v>-1.54</v>
+        <v>4.945</v>
       </c>
       <c r="C13">
-        <v>6.59</v>
+        <v>8.4</v>
       </c>
       <c r="D13">
-        <v>0.319</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -601,13 +601,13 @@
         <v>13.58</v>
       </c>
       <c r="B14">
-        <v>0.35</v>
+        <v>5.42</v>
       </c>
       <c r="C14">
-        <v>6.3</v>
+        <v>5.31</v>
       </c>
       <c r="D14">
-        <v>0.324</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -615,13 +615,13 @@
         <v>14.91</v>
       </c>
       <c r="B15">
-        <v>5.225</v>
+        <v>4.435</v>
       </c>
       <c r="C15">
-        <v>6.3</v>
+        <v>4.07</v>
       </c>
       <c r="D15">
-        <v>0.323</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -629,13 +629,13 @@
         <v>12.34</v>
       </c>
       <c r="B16">
-        <v>4.35</v>
+        <v>5.305</v>
       </c>
       <c r="C16">
-        <v>5.97</v>
+        <v>4.31</v>
       </c>
       <c r="D16">
-        <v>0.311</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -643,13 +643,13 @@
         <v>5.9</v>
       </c>
       <c r="B17">
-        <v>4.055</v>
+        <v>5.455</v>
       </c>
       <c r="C17">
-        <v>6.17</v>
+        <v>8.58</v>
       </c>
       <c r="D17">
-        <v>0.291</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -657,13 +657,13 @@
         <v>4.74</v>
       </c>
       <c r="B18">
-        <v>4.505</v>
+        <v>5.9</v>
       </c>
       <c r="C18">
-        <v>5.75</v>
+        <v>1.37</v>
       </c>
       <c r="D18">
-        <v>0.296</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -671,13 +671,13 @@
         <v>17.1</v>
       </c>
       <c r="B19">
-        <v>4.99</v>
+        <v>20.885</v>
       </c>
       <c r="C19">
-        <v>6.39</v>
+        <v>4.98</v>
       </c>
       <c r="D19">
-        <v>0.336</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -685,13 +685,13 @@
         <v>22.61</v>
       </c>
       <c r="B20">
-        <v>5.2</v>
+        <v>4.805</v>
       </c>
       <c r="C20">
-        <v>6.71</v>
+        <v>3.12</v>
       </c>
       <c r="D20">
-        <v>0.326</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -699,13 +699,13 @@
         <v>8.029999999999999</v>
       </c>
       <c r="B21">
-        <v>5.075</v>
+        <v>5.205</v>
       </c>
       <c r="C21">
-        <v>6.49</v>
+        <v>4.78</v>
       </c>
       <c r="D21">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -713,13 +713,13 @@
         <v>5.94</v>
       </c>
       <c r="B22">
-        <v>5.265000000000001</v>
+        <v>7.305</v>
       </c>
       <c r="C22">
-        <v>5.84</v>
+        <v>3.14</v>
       </c>
       <c r="D22">
-        <v>0.312</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -727,13 +727,13 @@
         <v>4.99</v>
       </c>
       <c r="B23">
-        <v>4.835</v>
+        <v>3.635</v>
       </c>
       <c r="C23">
-        <v>6.41</v>
+        <v>4.83</v>
       </c>
       <c r="D23">
-        <v>0.315</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -741,13 +741,13 @@
         <v>6.23</v>
       </c>
       <c r="B24">
-        <v>5.4</v>
+        <v>-0.645</v>
       </c>
       <c r="C24">
-        <v>5.6</v>
+        <v>7.17</v>
       </c>
       <c r="D24">
-        <v>0.335</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -755,13 +755,13 @@
         <v>6.24</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4.515</v>
       </c>
       <c r="C25">
-        <v>5.61</v>
+        <v>5.79</v>
       </c>
       <c r="D25">
-        <v>0.318</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -769,13 +769,13 @@
         <v>8.65</v>
       </c>
       <c r="B26">
-        <v>5.34</v>
+        <v>6.345000000000001</v>
       </c>
       <c r="C26">
-        <v>5.55</v>
+        <v>8.69</v>
       </c>
       <c r="D26">
-        <v>0.311</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -783,13 +783,13 @@
         <v>14.66</v>
       </c>
       <c r="B27">
-        <v>5.279999999999999</v>
+        <v>15.67</v>
       </c>
       <c r="C27">
-        <v>5.57</v>
+        <v>2.99</v>
       </c>
       <c r="D27">
-        <v>0.317</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -797,13 +797,13 @@
         <v>9.390000000000001</v>
       </c>
       <c r="B28">
-        <v>5.16</v>
+        <v>6.91</v>
       </c>
       <c r="C28">
-        <v>5.39</v>
+        <v>5.81</v>
       </c>
       <c r="D28">
-        <v>0.315</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -811,13 +811,13 @@
         <v>12.9</v>
       </c>
       <c r="B29">
-        <v>0.74</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C29">
-        <v>4.71</v>
+        <v>3.62</v>
       </c>
       <c r="D29">
-        <v>0.316</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -825,13 +825,13 @@
         <v>18.32</v>
       </c>
       <c r="B30">
-        <v>-2.77</v>
+        <v>5.7</v>
       </c>
       <c r="C30">
-        <v>6.91</v>
+        <v>3.06</v>
       </c>
       <c r="D30">
-        <v>0.314</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -839,13 +839,13 @@
         <v>12.4</v>
       </c>
       <c r="B31">
-        <v>1.55</v>
+        <v>7.065</v>
       </c>
       <c r="C31">
-        <v>6.01</v>
+        <v>1.81</v>
       </c>
       <c r="D31">
-        <v>0.314</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -853,13 +853,13 @@
         <v>19.51</v>
       </c>
       <c r="B32">
-        <v>3.74</v>
+        <v>4.835</v>
       </c>
       <c r="C32">
-        <v>6.33</v>
+        <v>6.72</v>
       </c>
       <c r="D32">
-        <v>0.313</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -867,13 +867,13 @@
         <v>6.84</v>
       </c>
       <c r="B33">
-        <v>4.325</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C33">
-        <v>5.47</v>
+        <v>5.56</v>
       </c>
       <c r="D33">
-        <v>0.312</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -881,13 +881,13 @@
         <v>25.82</v>
       </c>
       <c r="B34">
-        <v>5.115</v>
+        <v>2.635</v>
       </c>
       <c r="C34">
-        <v>6.16</v>
+        <v>4.61</v>
       </c>
       <c r="D34">
-        <v>0.326</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -895,13 +895,13 @@
         <v>28.17</v>
       </c>
       <c r="B35">
-        <v>5.03</v>
+        <v>7.47</v>
       </c>
       <c r="C35">
-        <v>5.24</v>
+        <v>3.72</v>
       </c>
       <c r="D35">
-        <v>0.309</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -909,13 +909,13 @@
         <v>17.11</v>
       </c>
       <c r="B36">
-        <v>5.625</v>
+        <v>0.505</v>
       </c>
       <c r="C36">
-        <v>5.99</v>
+        <v>9.93</v>
       </c>
       <c r="D36">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -923,13 +923,13 @@
         <v>10.79</v>
       </c>
       <c r="B37">
-        <v>5.449999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C37">
-        <v>6.89</v>
+        <v>6.71</v>
       </c>
       <c r="D37">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -937,13 +937,13 @@
         <v>6.71</v>
       </c>
       <c r="B38">
-        <v>5.72</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="C38">
-        <v>5.81</v>
+        <v>6.89</v>
       </c>
       <c r="D38">
-        <v>0.331</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -951,13 +951,13 @@
         <v>8.82</v>
       </c>
       <c r="B39">
-        <v>4.84</v>
+        <v>1.505</v>
       </c>
       <c r="C39">
-        <v>5.09</v>
+        <v>7.83</v>
       </c>
       <c r="D39">
-        <v>0.312</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -965,13 +965,13 @@
         <v>9.119999999999999</v>
       </c>
       <c r="B40">
-        <v>5.185</v>
+        <v>3.875</v>
       </c>
       <c r="C40">
-        <v>5.8</v>
+        <v>4.34</v>
       </c>
       <c r="D40">
-        <v>0.318</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -979,13 +979,13 @@
         <v>13.77</v>
       </c>
       <c r="B41">
-        <v>5.415</v>
+        <v>4.2</v>
       </c>
       <c r="C41">
-        <v>5.58</v>
+        <v>6.07</v>
       </c>
       <c r="D41">
-        <v>0.312</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -993,13 +993,13 @@
         <v>17.16</v>
       </c>
       <c r="B42">
-        <v>4.9</v>
+        <v>5.02</v>
       </c>
       <c r="C42">
-        <v>5.68</v>
+        <v>4.91</v>
       </c>
       <c r="D42">
-        <v>0.321</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1007,13 +1007,13 @@
         <v>13.53</v>
       </c>
       <c r="B43">
-        <v>5.36</v>
+        <v>5.275</v>
       </c>
       <c r="C43">
-        <v>5.66</v>
+        <v>5.14</v>
       </c>
       <c r="D43">
-        <v>0.305</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1021,13 +1021,13 @@
         <v>4.83</v>
       </c>
       <c r="B44">
-        <v>4.905</v>
+        <v>4.125</v>
       </c>
       <c r="C44">
-        <v>5.38</v>
+        <v>6.29</v>
       </c>
       <c r="D44">
-        <v>0.306</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1035,13 +1035,13 @@
         <v>5.78</v>
       </c>
       <c r="B45">
-        <v>5.105</v>
+        <v>5.01</v>
       </c>
       <c r="C45">
-        <v>5.38</v>
+        <v>6.2</v>
       </c>
       <c r="D45">
-        <v>0.307</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1049,13 +1049,13 @@
         <v>3.61</v>
       </c>
       <c r="B46">
-        <v>-0.5399999999999998</v>
+        <v>6.335</v>
       </c>
       <c r="C46">
-        <v>5.25</v>
+        <v>7.23</v>
       </c>
       <c r="D46">
-        <v>0.305</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1063,13 +1063,13 @@
         <v>9.57</v>
       </c>
       <c r="B47">
-        <v>-2.575</v>
+        <v>5.145</v>
       </c>
       <c r="C47">
-        <v>6.88</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D47">
-        <v>0.301</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1077,13 +1077,13 @@
         <v>13.32</v>
       </c>
       <c r="B48">
-        <v>2.8</v>
+        <v>5.52</v>
       </c>
       <c r="C48">
-        <v>6.67</v>
+        <v>4.99</v>
       </c>
       <c r="D48">
-        <v>0.306</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1091,13 +1091,13 @@
         <v>13.16</v>
       </c>
       <c r="B49">
-        <v>3.84</v>
+        <v>5.445</v>
       </c>
       <c r="C49">
-        <v>6.52</v>
+        <v>4.07</v>
       </c>
       <c r="D49">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1105,13 +1105,13 @@
         <v>12.28</v>
       </c>
       <c r="B50">
-        <v>4.365</v>
+        <v>5.57</v>
       </c>
       <c r="C50">
-        <v>6.17</v>
+        <v>4.47</v>
       </c>
       <c r="D50">
-        <v>0.3</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1119,13 +1119,13 @@
         <v>5.75</v>
       </c>
       <c r="B51">
-        <v>4.355</v>
+        <v>5.45</v>
       </c>
       <c r="C51">
-        <v>6.28</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D51">
-        <v>0.292</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1133,13 +1133,13 @@
         <v>5.25</v>
       </c>
       <c r="B52">
-        <v>4.965</v>
+        <v>6.145</v>
       </c>
       <c r="C52">
-        <v>5.9</v>
+        <v>1.99</v>
       </c>
       <c r="D52">
-        <v>0.28</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1147,13 +1147,13 @@
         <v>16.54</v>
       </c>
       <c r="B53">
-        <v>-1.035</v>
+        <v>23.065</v>
       </c>
       <c r="C53">
-        <v>6.72</v>
+        <v>5.69</v>
       </c>
       <c r="D53">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1161,13 +1161,13 @@
         <v>22.58</v>
       </c>
       <c r="B54">
-        <v>1.505</v>
+        <v>5.025</v>
       </c>
       <c r="C54">
-        <v>7.83</v>
+        <v>3.83</v>
       </c>
       <c r="D54">
-        <v>0.366</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>8.44</v>
       </c>
       <c r="B55">
-        <v>2.745</v>
+        <v>4.59</v>
       </c>
       <c r="C55">
-        <v>5.94</v>
+        <v>5.15</v>
       </c>
       <c r="D55">
-        <v>0.347</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>5.91</v>
       </c>
       <c r="B56">
-        <v>1.64</v>
+        <v>6.720000000000001</v>
       </c>
       <c r="C56">
-        <v>7.43</v>
+        <v>4.54</v>
       </c>
       <c r="D56">
-        <v>0.347</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>4.72</v>
       </c>
       <c r="B57">
-        <v>2.63</v>
+        <v>4.015</v>
       </c>
       <c r="C57">
-        <v>5.76</v>
+        <v>4.92</v>
       </c>
       <c r="D57">
-        <v>0.325</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>6.1</v>
       </c>
       <c r="B58">
-        <v>2.7</v>
+        <v>-1.75</v>
       </c>
       <c r="C58">
-        <v>6.22</v>
+        <v>7.5</v>
       </c>
       <c r="D58">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>6.32</v>
       </c>
       <c r="B59">
-        <v>2.665</v>
+        <v>2.35</v>
       </c>
       <c r="C59">
-        <v>5.55</v>
+        <v>5.68</v>
       </c>
       <c r="D59">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>8.98</v>
       </c>
       <c r="B60">
-        <v>2.065</v>
+        <v>5.95</v>
       </c>
       <c r="C60">
-        <v>5.98</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D60">
-        <v>0.347</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>14.07</v>
       </c>
       <c r="B61">
-        <v>2.915</v>
+        <v>15.365</v>
       </c>
       <c r="C61">
-        <v>5.36</v>
+        <v>4.1</v>
       </c>
       <c r="D61">
-        <v>0.334</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>10.12</v>
       </c>
       <c r="B62">
-        <v>2.71</v>
+        <v>7.425</v>
       </c>
       <c r="C62">
-        <v>5.76</v>
+        <v>5.95</v>
       </c>
       <c r="D62">
-        <v>0.331</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13.74</v>
       </c>
       <c r="B63">
-        <v>-0.6199999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="C63">
-        <v>4.92</v>
+        <v>5.55</v>
       </c>
       <c r="D63">
-        <v>0.329</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>18.16</v>
       </c>
       <c r="B64">
-        <v>-1.61</v>
+        <v>6.755000000000001</v>
       </c>
       <c r="C64">
-        <v>6.32</v>
+        <v>4.65</v>
       </c>
       <c r="D64">
-        <v>0.321</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>11.9</v>
       </c>
       <c r="B65">
-        <v>2.785</v>
+        <v>7.495</v>
       </c>
       <c r="C65">
-        <v>4.96</v>
+        <v>3.35</v>
       </c>
       <c r="D65">
-        <v>0.326</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>19.36</v>
       </c>
       <c r="B66">
-        <v>3.97</v>
+        <v>6.09</v>
       </c>
       <c r="C66">
-        <v>4.42</v>
+        <v>9.93</v>
       </c>
       <c r="D66">
-        <v>0.327</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>6.22</v>
       </c>
       <c r="B67">
-        <v>4.78</v>
+        <v>6.42</v>
       </c>
       <c r="C67">
-        <v>4.4</v>
+        <v>6.05</v>
       </c>
       <c r="D67">
-        <v>0.326</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>25.73</v>
       </c>
       <c r="B68">
-        <v>4.34</v>
+        <v>5.845000000000001</v>
       </c>
       <c r="C68">
-        <v>4.37</v>
+        <v>8.08</v>
       </c>
       <c r="D68">
-        <v>0.323</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>28.4</v>
       </c>
       <c r="B69">
-        <v>4.41</v>
+        <v>7.295</v>
       </c>
       <c r="C69">
-        <v>4.25</v>
+        <v>3.99</v>
       </c>
       <c r="D69">
-        <v>0.324</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>16.73</v>
       </c>
       <c r="B70">
-        <v>4.555</v>
+        <v>3.235</v>
       </c>
       <c r="C70">
-        <v>2.73</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D70">
-        <v>0.361</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>10.35</v>
       </c>
       <c r="B71">
-        <v>3.875</v>
+        <v>5.075</v>
       </c>
       <c r="C71">
-        <v>4.34</v>
+        <v>6.49</v>
       </c>
       <c r="D71">
-        <v>0.344</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>7.09</v>
       </c>
       <c r="B72">
-        <v>3.605</v>
+        <v>5.72</v>
       </c>
       <c r="C72">
-        <v>4.66</v>
+        <v>5.81</v>
       </c>
       <c r="D72">
-        <v>0.349</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>7.98</v>
       </c>
       <c r="B73">
-        <v>5.12</v>
+        <v>2.745</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>5.94</v>
       </c>
       <c r="D73">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>8.41</v>
       </c>
       <c r="B74">
-        <v>4.215</v>
+        <v>3.605</v>
       </c>
       <c r="C74">
-        <v>3.67</v>
+        <v>4.66</v>
       </c>
       <c r="D74">
-        <v>0.335</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>13.54</v>
       </c>
       <c r="B75">
-        <v>4.96</v>
+        <v>5.005</v>
       </c>
       <c r="C75">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="D75">
-        <v>0.334</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>17.32</v>
       </c>
       <c r="B76">
-        <v>4.7</v>
+        <v>5.215</v>
       </c>
       <c r="C76">
-        <v>3.56</v>
+        <v>3.84</v>
       </c>
       <c r="D76">
-        <v>0.334</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>14.29</v>
       </c>
       <c r="B77">
-        <v>4.675000000000001</v>
+        <v>5.145</v>
       </c>
       <c r="C77">
-        <v>3.73</v>
+        <v>4.54</v>
       </c>
       <c r="D77">
-        <v>0.335</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>5.22</v>
       </c>
       <c r="B78">
-        <v>4.765000000000001</v>
+        <v>3.63</v>
       </c>
       <c r="C78">
-        <v>3.52</v>
+        <v>6.17</v>
       </c>
       <c r="D78">
-        <v>0.321</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>5.98</v>
       </c>
       <c r="B79">
-        <v>3.95</v>
+        <v>4.655</v>
       </c>
       <c r="C79">
-        <v>4.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D79">
-        <v>0.324</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>3.75</v>
       </c>
       <c r="B80">
-        <v>0.005000000000000004</v>
+        <v>5.915</v>
       </c>
       <c r="C80">
-        <v>4.26</v>
+        <v>5.77</v>
       </c>
       <c r="D80">
-        <v>0.32</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="B81">
-        <v>-0.98</v>
+        <v>5.5</v>
       </c>
       <c r="C81">
-        <v>5.13</v>
+        <v>8.57</v>
       </c>
       <c r="D81">
-        <v>0.316</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>13.27</v>
       </c>
       <c r="B82">
-        <v>2.57</v>
+        <v>5.375</v>
       </c>
       <c r="C82">
-        <v>4.76</v>
+        <v>4.2</v>
       </c>
       <c r="D82">
-        <v>0.321</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>13.34</v>
       </c>
       <c r="B83">
-        <v>4.84</v>
+        <v>5.24</v>
       </c>
       <c r="C83">
-        <v>5.09</v>
+        <v>2.81</v>
       </c>
       <c r="D83">
-        <v>0.315</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>12.05</v>
       </c>
       <c r="B84">
-        <v>5.02</v>
+        <v>5.695</v>
       </c>
       <c r="C84">
-        <v>4.7</v>
+        <v>4.14</v>
       </c>
       <c r="D84">
-        <v>0.32</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>5.42</v>
       </c>
       <c r="B85">
-        <v>5.215</v>
+        <v>5.165</v>
       </c>
       <c r="C85">
-        <v>4.59</v>
+        <v>7.95</v>
       </c>
       <c r="D85">
-        <v>0.335</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>4.25</v>
       </c>
       <c r="B86">
-        <v>4.9</v>
+        <v>6.375</v>
       </c>
       <c r="C86">
-        <v>4.5</v>
+        <v>2.12</v>
       </c>
       <c r="D86">
-        <v>0.343</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>16.48</v>
       </c>
       <c r="B87">
-        <v>4.640000000000001</v>
+        <v>8.344999999999999</v>
       </c>
       <c r="C87">
-        <v>5.03</v>
+        <v>3.66</v>
       </c>
       <c r="D87">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>22.19</v>
       </c>
       <c r="B88">
-        <v>4.2</v>
+        <v>5.125</v>
       </c>
       <c r="C88">
-        <v>6.07</v>
+        <v>3.59</v>
       </c>
       <c r="D88">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>7.87</v>
       </c>
       <c r="B89">
-        <v>5.005</v>
+        <v>5.369999999999999</v>
       </c>
       <c r="C89">
-        <v>3.94</v>
+        <v>4.58</v>
       </c>
       <c r="D89">
-        <v>0.348</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>5.66</v>
       </c>
       <c r="B90">
-        <v>5.08</v>
+        <v>5.415</v>
       </c>
       <c r="C90">
-        <v>4.31</v>
+        <v>3.67</v>
       </c>
       <c r="D90">
-        <v>0.362</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>4.85</v>
       </c>
       <c r="B91">
-        <v>5.25</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.63</v>
       </c>
       <c r="D91">
-        <v>0.361</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>6.11</v>
       </c>
       <c r="B92">
-        <v>5.77</v>
+        <v>-0.615</v>
       </c>
       <c r="C92">
-        <v>4.39</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D92">
-        <v>0.365</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>6.23</v>
       </c>
       <c r="B93">
-        <v>5.949999999999999</v>
+        <v>2.795</v>
       </c>
       <c r="C93">
-        <v>4.08</v>
+        <v>3.92</v>
       </c>
       <c r="D93">
-        <v>0.358</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>8.34</v>
       </c>
       <c r="B94">
-        <v>6.065</v>
+        <v>6.055</v>
       </c>
       <c r="C94">
-        <v>4.27</v>
+        <v>7.82</v>
       </c>
       <c r="D94">
-        <v>0.341</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>14.45</v>
       </c>
       <c r="B95">
-        <v>5.73</v>
+        <v>14.535</v>
       </c>
       <c r="C95">
-        <v>4.02</v>
+        <v>3.46</v>
       </c>
       <c r="D95">
-        <v>0.331</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>9.4</v>
       </c>
       <c r="B96">
-        <v>5.655</v>
+        <v>7.625</v>
       </c>
       <c r="C96">
-        <v>4.53</v>
+        <v>5.11</v>
       </c>
       <c r="D96">
-        <v>0.339</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>12.88</v>
       </c>
       <c r="B97">
-        <v>1.215</v>
+        <v>6.154999999999999</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="D97">
-        <v>0.339</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>17.72</v>
       </c>
       <c r="B98">
-        <v>-1.32</v>
+        <v>6.02</v>
       </c>
       <c r="C98">
-        <v>5.51</v>
+        <v>3.88</v>
       </c>
       <c r="D98">
-        <v>0.338</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>11.74</v>
       </c>
       <c r="B99">
-        <v>2.655</v>
+        <v>5.32</v>
       </c>
       <c r="C99">
-        <v>5.17</v>
+        <v>2.72</v>
       </c>
       <c r="D99">
-        <v>0.341</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>19.18</v>
       </c>
       <c r="B100">
-        <v>4.52</v>
+        <v>5.835</v>
       </c>
       <c r="C100">
-        <v>4.98</v>
+        <v>6.98</v>
       </c>
       <c r="D100">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>6.33</v>
       </c>
       <c r="B101">
-        <v>5.19</v>
+        <v>5.45</v>
       </c>
       <c r="C101">
-        <v>4.74</v>
+        <v>3.43</v>
       </c>
       <c r="D101">
-        <v>0.339</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>25.43</v>
       </c>
       <c r="B102">
-        <v>5.26</v>
+        <v>4.67</v>
       </c>
       <c r="C102">
-        <v>4.63</v>
+        <v>5.73</v>
       </c>
       <c r="D102">
-        <v>0.33</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>28.54</v>
       </c>
       <c r="B103">
-        <v>5.154999999999999</v>
+        <v>-3.08</v>
       </c>
       <c r="C103">
-        <v>4.53</v>
+        <v>2.97</v>
       </c>
       <c r="D103">
-        <v>0.338</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>16.43</v>
       </c>
       <c r="B104">
-        <v>5.255</v>
+        <v>3.355</v>
       </c>
       <c r="C104">
-        <v>3.21</v>
+        <v>7.57</v>
       </c>
       <c r="D104">
-        <v>0.376</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>10.27</v>
       </c>
       <c r="B105">
-        <v>5.02</v>
+        <v>5.265000000000001</v>
       </c>
       <c r="C105">
-        <v>4.91</v>
+        <v>5.84</v>
       </c>
       <c r="D105">
-        <v>0.371</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>7.14</v>
       </c>
       <c r="B106">
-        <v>5.215</v>
+        <v>4.84</v>
       </c>
       <c r="C106">
-        <v>3.84</v>
+        <v>5.09</v>
       </c>
       <c r="D106">
-        <v>0.357</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>7.67</v>
       </c>
       <c r="B107">
-        <v>5.345</v>
+        <v>1.64</v>
       </c>
       <c r="C107">
-        <v>3.3</v>
+        <v>7.43</v>
       </c>
       <c r="D107">
-        <v>0.354</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>8.369999999999999</v>
       </c>
       <c r="B108">
-        <v>5.23</v>
+        <v>5.12</v>
       </c>
       <c r="C108">
-        <v>2.81</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>13.39</v>
       </c>
       <c r="B109">
-        <v>4.74</v>
+        <v>5.08</v>
       </c>
       <c r="C109">
-        <v>3.74</v>
+        <v>4.31</v>
       </c>
       <c r="D109">
-        <v>0.349</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>17.03</v>
       </c>
       <c r="B110">
-        <v>5.105</v>
+        <v>5.345</v>
       </c>
       <c r="C110">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="D110">
-        <v>0.362</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>13.86</v>
       </c>
       <c r="B111">
-        <v>4.84</v>
+        <v>5.13</v>
       </c>
       <c r="C111">
-        <v>3.35</v>
+        <v>4.62</v>
       </c>
       <c r="D111">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>5.04</v>
       </c>
       <c r="B112">
-        <v>5.025</v>
+        <v>4.555</v>
       </c>
       <c r="C112">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
       <c r="D112">
-        <v>0.34</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>5.84</v>
       </c>
       <c r="B113">
-        <v>4.855</v>
+        <v>5.29</v>
       </c>
       <c r="C113">
-        <v>3.26</v>
+        <v>7.69</v>
       </c>
       <c r="D113">
-        <v>0.329</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>3.75</v>
       </c>
       <c r="B114">
-        <v>1.455</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="C114">
-        <v>3.08</v>
+        <v>6.12</v>
       </c>
       <c r="D114">
-        <v>0.334</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>8.77</v>
       </c>
       <c r="B115">
-        <v>-1.425</v>
+        <v>5.82</v>
       </c>
       <c r="C115">
-        <v>4.07</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D115">
-        <v>0.323</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>13.19</v>
       </c>
       <c r="B116">
-        <v>2.44</v>
+        <v>5.125</v>
       </c>
       <c r="C116">
-        <v>3.72</v>
+        <v>4.63</v>
       </c>
       <c r="D116">
-        <v>0.326</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>13.1</v>
       </c>
       <c r="B117">
-        <v>4.17</v>
+        <v>4.86</v>
       </c>
       <c r="C117">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="D117">
-        <v>0.321</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>11.85</v>
       </c>
       <c r="B118">
-        <v>3.965</v>
+        <v>5.455</v>
       </c>
       <c r="C118">
-        <v>3.39</v>
+        <v>4.21</v>
       </c>
       <c r="D118">
-        <v>0.315</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>5.36</v>
       </c>
       <c r="B119">
-        <v>4.63</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C119">
-        <v>3.59</v>
+        <v>8.92</v>
       </c>
       <c r="D119">
-        <v>0.315</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>4.15</v>
       </c>
       <c r="B120">
-        <v>4.14</v>
+        <v>6.285</v>
       </c>
       <c r="C120">
-        <v>3.21</v>
+        <v>1.89</v>
       </c>
       <c r="D120">
-        <v>0.333</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>16.02</v>
       </c>
       <c r="B121">
-        <v>4.984999999999999</v>
+        <v>3.49</v>
       </c>
       <c r="C121">
-        <v>3.44</v>
+        <v>3.94</v>
       </c>
       <c r="D121">
-        <v>0.376</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>22.01</v>
       </c>
       <c r="B122">
-        <v>5.275</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="C122">
-        <v>5.14</v>
+        <v>3.25</v>
       </c>
       <c r="D122">
-        <v>0.352</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>5.145</v>
+        <v>5.045</v>
       </c>
       <c r="C123">
-        <v>4.54</v>
+        <v>4.23</v>
       </c>
       <c r="D123">
-        <v>0.364</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>5.36</v>
       </c>
       <c r="B124">
-        <v>5.13</v>
+        <v>7.26</v>
       </c>
       <c r="C124">
-        <v>4.62</v>
+        <v>4.82</v>
       </c>
       <c r="D124">
-        <v>0.358</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>4.52</v>
       </c>
       <c r="B125">
-        <v>5.075</v>
+        <v>4.295</v>
       </c>
       <c r="C125">
-        <v>4.43</v>
+        <v>5.45</v>
       </c>
       <c r="D125">
-        <v>0.334</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="B126">
-        <v>5.255</v>
+        <v>-0.15</v>
       </c>
       <c r="C126">
-        <v>4.33</v>
+        <v>7.95</v>
       </c>
       <c r="D126">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>6.99</v>
       </c>
       <c r="B127">
-        <v>5.215</v>
+        <v>4.275</v>
       </c>
       <c r="C127">
-        <v>4.32</v>
+        <v>5.23</v>
       </c>
       <c r="D127">
-        <v>0.346</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B128">
-        <v>5.25</v>
+        <v>6.245</v>
       </c>
       <c r="C128">
-        <v>4.04</v>
+        <v>6.18</v>
       </c>
       <c r="D128">
-        <v>0.326</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>14.09</v>
       </c>
       <c r="B129">
-        <v>5.385</v>
+        <v>5.795</v>
       </c>
       <c r="C129">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="D129">
-        <v>0.329</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>9.24</v>
       </c>
       <c r="B130">
-        <v>5.135</v>
+        <v>7.22</v>
       </c>
       <c r="C130">
-        <v>4.03</v>
+        <v>4.8</v>
       </c>
       <c r="D130">
-        <v>0.331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>12.77</v>
       </c>
       <c r="B131">
-        <v>-0.9350000000000001</v>
+        <v>6.81</v>
       </c>
       <c r="C131">
-        <v>4.26</v>
+        <v>2.72</v>
       </c>
       <c r="D131">
-        <v>0.327</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>17.63</v>
       </c>
       <c r="B132">
-        <v>-2.315</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>4.67</v>
+        <v>2.76</v>
       </c>
       <c r="D132">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>11.19</v>
       </c>
       <c r="B133">
-        <v>1.565</v>
+        <v>6.65</v>
       </c>
       <c r="C133">
-        <v>4.54</v>
+        <v>3.33</v>
       </c>
       <c r="D133">
-        <v>0.323</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>19.26</v>
       </c>
       <c r="B134">
-        <v>4.029999999999999</v>
+        <v>5.635</v>
       </c>
       <c r="C134">
-        <v>4.69</v>
+        <v>7.05</v>
       </c>
       <c r="D134">
-        <v>0.314</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>6.41</v>
       </c>
       <c r="B135">
-        <v>4.045</v>
+        <v>6.075</v>
       </c>
       <c r="C135">
-        <v>4.31</v>
+        <v>4.01</v>
       </c>
       <c r="D135">
-        <v>0.314</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>24.88</v>
       </c>
       <c r="B136">
-        <v>4.495</v>
+        <v>4.365</v>
       </c>
       <c r="C136">
-        <v>4.52</v>
+        <v>7.46</v>
       </c>
       <c r="D136">
-        <v>0.313</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>28.4</v>
       </c>
       <c r="B137">
-        <v>4.470000000000001</v>
+        <v>20.93</v>
       </c>
       <c r="C137">
-        <v>4.18</v>
+        <v>3.35</v>
       </c>
       <c r="D137">
-        <v>0.324</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>16.89</v>
       </c>
       <c r="B138">
-        <v>4.035</v>
+        <v>4.2</v>
       </c>
       <c r="C138">
-        <v>3.35</v>
+        <v>7.39</v>
       </c>
       <c r="D138">
-        <v>0.283</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>10.22</v>
       </c>
       <c r="B139">
-        <v>4.125</v>
+        <v>4.835</v>
       </c>
       <c r="C139">
-        <v>6.29</v>
+        <v>6.41</v>
       </c>
       <c r="D139">
-        <v>0.275</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>6.87</v>
       </c>
       <c r="B140">
-        <v>3.63</v>
+        <v>5.185</v>
       </c>
       <c r="C140">
-        <v>6.17</v>
+        <v>5.8</v>
       </c>
       <c r="D140">
-        <v>0.275</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>7.78</v>
       </c>
       <c r="B141">
-        <v>4.555</v>
+        <v>2.63</v>
       </c>
       <c r="C141">
-        <v>2.6</v>
+        <v>5.76</v>
       </c>
       <c r="D141">
-        <v>0.288</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>8.19</v>
       </c>
       <c r="B142">
-        <v>5.76</v>
+        <v>4.215</v>
       </c>
       <c r="C142">
-        <v>4.46</v>
+        <v>3.67</v>
       </c>
       <c r="D142">
-        <v>0.282</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>13.19</v>
       </c>
       <c r="B143">
-        <v>3.235</v>
+        <v>5.25</v>
       </c>
       <c r="C143">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="D143">
-        <v>0.276</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>16.45</v>
       </c>
       <c r="B144">
-        <v>3.495</v>
+        <v>5.23</v>
       </c>
       <c r="C144">
-        <v>3.59</v>
+        <v>2.81</v>
       </c>
       <c r="D144">
-        <v>0.281</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>13.69</v>
       </c>
       <c r="B145">
-        <v>5.39</v>
+        <v>5.075</v>
       </c>
       <c r="C145">
-        <v>3.61</v>
+        <v>4.43</v>
       </c>
       <c r="D145">
-        <v>0.272</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>5.2</v>
       </c>
       <c r="B146">
-        <v>3.135</v>
+        <v>5.76</v>
       </c>
       <c r="C146">
-        <v>3.32</v>
+        <v>4.46</v>
       </c>
       <c r="D146">
-        <v>0.269</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>6.06</v>
       </c>
       <c r="B147">
-        <v>3.5</v>
+        <v>1.495</v>
       </c>
       <c r="C147">
-        <v>3.58</v>
+        <v>6.44</v>
       </c>
       <c r="D147">
-        <v>0.262</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>3.77</v>
       </c>
       <c r="B148">
-        <v>-1.78</v>
+        <v>6.275</v>
       </c>
       <c r="C148">
-        <v>3.35</v>
+        <v>5.36</v>
       </c>
       <c r="D148">
-        <v>0.262</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>8.710000000000001</v>
       </c>
       <c r="B149">
-        <v>-2.72</v>
+        <v>5.380000000000001</v>
       </c>
       <c r="C149">
-        <v>5.25</v>
+        <v>8.49</v>
       </c>
       <c r="D149">
-        <v>0.257</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>13.01</v>
       </c>
       <c r="B150">
-        <v>3.91</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C150">
-        <v>5.04</v>
+        <v>4.15</v>
       </c>
       <c r="D150">
-        <v>0.256</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>13.02</v>
       </c>
       <c r="B151">
-        <v>6.205</v>
+        <v>5.185</v>
       </c>
       <c r="C151">
-        <v>5.03</v>
+        <v>2.84</v>
       </c>
       <c r="D151">
-        <v>0.247</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>11.77</v>
       </c>
       <c r="B152">
-        <v>4.279999999999999</v>
+        <v>5.21</v>
       </c>
       <c r="C152">
-        <v>4.18</v>
+        <v>4.1</v>
       </c>
       <c r="D152">
-        <v>0.236</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>5.45</v>
       </c>
       <c r="B153">
-        <v>4.495</v>
+        <v>5.75</v>
       </c>
       <c r="C153">
-        <v>4.77</v>
+        <v>7.75</v>
       </c>
       <c r="D153">
-        <v>0.255</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>4.25</v>
       </c>
       <c r="B154">
-        <v>4.765000000000001</v>
+        <v>6.085</v>
       </c>
       <c r="C154">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="D154">
-        <v>0.245</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>16.07</v>
       </c>
       <c r="B155">
-        <v>7.09</v>
+        <v>-2.43</v>
       </c>
       <c r="C155">
-        <v>9.050000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="D155">
-        <v>0.364</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>21.85</v>
       </c>
       <c r="B156">
-        <v>5.01</v>
+        <v>5.1</v>
       </c>
       <c r="C156">
-        <v>6.2</v>
+        <v>3.21</v>
       </c>
       <c r="D156">
-        <v>0.339</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>7.88</v>
       </c>
       <c r="B157">
-        <v>4.655</v>
+        <v>4.805</v>
       </c>
       <c r="C157">
-        <v>9.029999999999999</v>
+        <v>4.22</v>
       </c>
       <c r="D157">
-        <v>0.354</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>5.37</v>
       </c>
       <c r="B158">
-        <v>5.29</v>
+        <v>7.805</v>
       </c>
       <c r="C158">
-        <v>7.69</v>
+        <v>3.13</v>
       </c>
       <c r="D158">
-        <v>0.352</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>4.73</v>
       </c>
       <c r="B159">
-        <v>1.495</v>
+        <v>5.1</v>
       </c>
       <c r="C159">
-        <v>6.44</v>
+        <v>3.53</v>
       </c>
       <c r="D159">
-        <v>0.334</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>6.19</v>
       </c>
       <c r="B160">
-        <v>2.46</v>
+        <v>3.725</v>
       </c>
       <c r="C160">
-        <v>7.16</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D160">
-        <v>0.359</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>7.22</v>
       </c>
       <c r="B161">
-        <v>4.415</v>
+        <v>6.77</v>
       </c>
       <c r="C161">
-        <v>7.3</v>
+        <v>5.17</v>
       </c>
       <c r="D161">
-        <v>0.33</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>8.1</v>
       </c>
       <c r="B162">
-        <v>4.505</v>
+        <v>6.105</v>
       </c>
       <c r="C162">
-        <v>8.039999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="D162">
-        <v>0.339</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>14.14</v>
       </c>
       <c r="B163">
-        <v>4.69</v>
+        <v>5.25</v>
       </c>
       <c r="C163">
-        <v>7.02</v>
+        <v>2.97</v>
       </c>
       <c r="D163">
-        <v>0.341</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>9.380000000000001</v>
       </c>
       <c r="B164">
-        <v>4.96</v>
+        <v>7.245</v>
       </c>
       <c r="C164">
-        <v>7.5</v>
+        <v>4.77</v>
       </c>
       <c r="D164">
-        <v>0.337</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>12.81</v>
       </c>
       <c r="B165">
-        <v>-2.395</v>
+        <v>7.29</v>
       </c>
       <c r="C165">
-        <v>5.98</v>
+        <v>3.14</v>
       </c>
       <c r="D165">
-        <v>0.339</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>17.65</v>
       </c>
       <c r="B166">
-        <v>-5.135</v>
+        <v>6.99</v>
       </c>
       <c r="C166">
-        <v>10.34</v>
+        <v>3.65</v>
       </c>
       <c r="D166">
-        <v>0.334</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>11.3</v>
       </c>
       <c r="B167">
-        <v>2.855</v>
+        <v>6.185</v>
       </c>
       <c r="C167">
-        <v>10.12</v>
+        <v>2.98</v>
       </c>
       <c r="D167">
-        <v>0.343</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>18.45</v>
       </c>
       <c r="B168">
-        <v>4.12</v>
+        <v>6.21</v>
       </c>
       <c r="C168">
-        <v>9.91</v>
+        <v>7.77</v>
       </c>
       <c r="D168">
-        <v>0.339</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>6.35</v>
       </c>
       <c r="B169">
-        <v>3.92</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="C169">
-        <v>8.02</v>
+        <v>4.82</v>
       </c>
       <c r="D169">
-        <v>0.342</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>25.1</v>
       </c>
       <c r="B170">
-        <v>6.215</v>
+        <v>2.83</v>
       </c>
       <c r="C170">
-        <v>8.23</v>
+        <v>7.52</v>
       </c>
       <c r="D170">
-        <v>0.325</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>27.62</v>
       </c>
       <c r="B171">
-        <v>5.775</v>
+        <v>5.035</v>
       </c>
       <c r="C171">
-        <v>7.61</v>
+        <v>3.96</v>
       </c>
       <c r="D171">
-        <v>0.34</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>15.92</v>
       </c>
       <c r="B172">
-        <v>5.470000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="C172">
-        <v>8.359999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="D172">
-        <v>0.431</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>9.279999999999999</v>
       </c>
       <c r="B173">
-        <v>6.335</v>
+        <v>5.4</v>
       </c>
       <c r="C173">
-        <v>7.23</v>
+        <v>5.6</v>
       </c>
       <c r="D173">
-        <v>0.421</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>6.75</v>
       </c>
       <c r="B174">
-        <v>5.915</v>
+        <v>5.415</v>
       </c>
       <c r="C174">
-        <v>5.77</v>
+        <v>5.58</v>
       </c>
       <c r="D174">
-        <v>0.411</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>7.41</v>
       </c>
       <c r="B175">
-        <v>5.824999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="C175">
-        <v>6.12</v>
+        <v>6.22</v>
       </c>
       <c r="D175">
-        <v>0.397</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>7.9</v>
       </c>
       <c r="B176">
-        <v>6.275</v>
+        <v>4.96</v>
       </c>
       <c r="C176">
-        <v>5.36</v>
+        <v>3.87</v>
       </c>
       <c r="D176">
-        <v>0.413</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>13.1</v>
       </c>
       <c r="B177">
-        <v>6.125</v>
+        <v>5.77</v>
       </c>
       <c r="C177">
-        <v>7.14</v>
+        <v>4.39</v>
       </c>
       <c r="D177">
-        <v>0.409</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>15.59</v>
       </c>
       <c r="B178">
-        <v>5.895</v>
+        <v>4.74</v>
       </c>
       <c r="C178">
-        <v>5.73</v>
+        <v>3.74</v>
       </c>
       <c r="D178">
-        <v>0.394</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>13.04</v>
       </c>
       <c r="B179">
-        <v>6.305</v>
+        <v>5.255</v>
       </c>
       <c r="C179">
-        <v>6.65</v>
+        <v>4.33</v>
       </c>
       <c r="D179">
-        <v>0.39</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>5.3</v>
       </c>
       <c r="B180">
-        <v>5.775</v>
+        <v>3.235</v>
       </c>
       <c r="C180">
-        <v>5.5</v>
+        <v>3.78</v>
       </c>
       <c r="D180">
-        <v>0.394</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>6.13</v>
       </c>
       <c r="B181">
-        <v>5.875</v>
+        <v>2.46</v>
       </c>
       <c r="C181">
-        <v>6.54</v>
+        <v>7.16</v>
       </c>
       <c r="D181">
-        <v>0.391</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>3.78</v>
       </c>
       <c r="B182">
-        <v>-1.66</v>
+        <v>6.125</v>
       </c>
       <c r="C182">
-        <v>5.15</v>
+        <v>7.14</v>
       </c>
       <c r="D182">
-        <v>0.399</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>7.83</v>
       </c>
       <c r="B183">
-        <v>-3.055</v>
+        <v>5.285</v>
       </c>
       <c r="C183">
-        <v>10.95</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D183">
-        <v>0.4</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>12.23</v>
       </c>
       <c r="B184">
-        <v>4.49</v>
+        <v>5.295</v>
       </c>
       <c r="C184">
-        <v>8.51</v>
+        <v>4.57</v>
       </c>
       <c r="D184">
-        <v>0.409</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>12.36</v>
       </c>
       <c r="B185">
+        <v>5.335</v>
+      </c>
+      <c r="C185">
         <v>3.02</v>
       </c>
-      <c r="C185">
-        <v>8.5</v>
-      </c>
       <c r="D185">
-        <v>0.411</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>11.2</v>
       </c>
       <c r="B186">
-        <v>5.115</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D186">
-        <v>0.423</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>5.59</v>
       </c>
       <c r="B187">
-        <v>5.395</v>
+        <v>5.755</v>
       </c>
       <c r="C187">
-        <v>7.18</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D187">
-        <v>0.412</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>4.14</v>
       </c>
       <c r="B188">
-        <v>5.035</v>
+        <v>5.075</v>
       </c>
       <c r="C188">
-        <v>7.57</v>
+        <v>1.48</v>
       </c>
       <c r="D188">
-        <v>0.431</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>15.05</v>
       </c>
       <c r="B189">
-        <v>4.945</v>
+        <v>2.41</v>
       </c>
       <c r="C189">
-        <v>8.4</v>
+        <v>3.32</v>
       </c>
       <c r="D189">
-        <v>0.415</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>21.38</v>
       </c>
       <c r="B190">
-        <v>5.145</v>
+        <v>5.105</v>
       </c>
       <c r="C190">
-        <v>8.720000000000001</v>
+        <v>3.27</v>
       </c>
       <c r="D190">
-        <v>0.426</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>7.86</v>
       </c>
       <c r="B191">
-        <v>5.5</v>
+        <v>5.505</v>
       </c>
       <c r="C191">
-        <v>8.57</v>
+        <v>4.36</v>
       </c>
       <c r="D191">
-        <v>0.413</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>5.26</v>
       </c>
       <c r="B192">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="C192">
-        <v>8.890000000000001</v>
+        <v>4.23</v>
       </c>
       <c r="D192">
-        <v>0.402</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>4.7</v>
       </c>
       <c r="B193">
-        <v>5.380000000000001</v>
+        <v>5.455</v>
       </c>
       <c r="C193">
-        <v>8.49</v>
+        <v>4.77</v>
       </c>
       <c r="D193">
-        <v>0.403</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>6.08</v>
       </c>
       <c r="B194">
-        <v>5.285</v>
+        <v>2.555</v>
       </c>
       <c r="C194">
-        <v>8.220000000000001</v>
+        <v>6.91</v>
       </c>
       <c r="D194">
-        <v>0.393</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>6.96</v>
       </c>
       <c r="B195">
-        <v>5.765000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="C195">
-        <v>8.220000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="D195">
-        <v>0.407</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>7.9</v>
       </c>
       <c r="B196">
-        <v>5.55</v>
+        <v>6.505000000000001</v>
       </c>
       <c r="C196">
-        <v>8.23</v>
+        <v>7.18</v>
       </c>
       <c r="D196">
-        <v>0.405</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>14.22</v>
       </c>
       <c r="B197">
-        <v>5.49</v>
+        <v>8.899999999999999</v>
       </c>
       <c r="C197">
-        <v>7.78</v>
+        <v>3.81</v>
       </c>
       <c r="D197">
-        <v>0.402</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>9.48</v>
       </c>
       <c r="B198">
-        <v>4.57</v>
+        <v>7.195</v>
       </c>
       <c r="C198">
-        <v>8.039999999999999</v>
+        <v>5.61</v>
       </c>
       <c r="D198">
-        <v>0.398</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>11.97</v>
       </c>
       <c r="B199">
-        <v>-1.665</v>
+        <v>6.295</v>
       </c>
       <c r="C199">
-        <v>7.71</v>
+        <v>3.3</v>
       </c>
       <c r="D199">
-        <v>0.403</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>17.14</v>
       </c>
       <c r="B200">
-        <v>-3.27</v>
+        <v>6.51</v>
       </c>
       <c r="C200">
-        <v>10.46</v>
+        <v>4.28</v>
       </c>
       <c r="D200">
-        <v>0.398</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>11.18</v>
       </c>
       <c r="B201">
-        <v>2.7</v>
+        <v>6.615</v>
       </c>
       <c r="C201">
-        <v>8.92</v>
+        <v>3.21</v>
       </c>
       <c r="D201">
-        <v>0.412</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>18.29</v>
       </c>
       <c r="B202">
-        <v>4.859999999999999</v>
+        <v>5.465</v>
       </c>
       <c r="C202">
-        <v>9.82</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D202">
-        <v>0.406</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>6.44</v>
       </c>
       <c r="B203">
-        <v>5.595000000000001</v>
+        <v>8.030000000000001</v>
       </c>
       <c r="C203">
-        <v>8.35</v>
+        <v>5.33</v>
       </c>
       <c r="D203">
-        <v>0.417</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>23.12</v>
       </c>
       <c r="B204">
-        <v>5.32</v>
+        <v>5.095</v>
       </c>
       <c r="C204">
-        <v>8.31</v>
+        <v>6.49</v>
       </c>
       <c r="D204">
-        <v>0.412</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>27.76</v>
       </c>
       <c r="B205">
-        <v>5.13</v>
+        <v>4.28</v>
       </c>
       <c r="C205">
-        <v>7.89</v>
+        <v>3.62</v>
       </c>
       <c r="D205">
-        <v>0.425</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>15.97</v>
       </c>
       <c r="B206">
-        <v>5.42</v>
+        <v>4.45</v>
       </c>
       <c r="C206">
-        <v>5.31</v>
+        <v>6.54</v>
       </c>
       <c r="D206">
-        <v>0.382</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>9.220000000000001</v>
       </c>
       <c r="B207">
-        <v>5.52</v>
+        <v>5</v>
       </c>
       <c r="C207">
-        <v>4.99</v>
+        <v>5.61</v>
       </c>
       <c r="D207">
-        <v>0.382</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>6.65</v>
       </c>
       <c r="B208">
-        <v>5.375</v>
+        <v>4.9</v>
       </c>
       <c r="C208">
-        <v>4.2</v>
+        <v>5.68</v>
       </c>
       <c r="D208">
-        <v>0.366</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>7.39</v>
       </c>
       <c r="B209">
-        <v>5.125</v>
+        <v>2.665</v>
       </c>
       <c r="C209">
-        <v>4.63</v>
+        <v>5.55</v>
       </c>
       <c r="D209">
-        <v>0.357</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>7.92</v>
       </c>
       <c r="B210">
-        <v>5.220000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="C210">
-        <v>4.15</v>
+        <v>3.56</v>
       </c>
       <c r="D210">
-        <v>0.365</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>12.8</v>
       </c>
       <c r="B211">
-        <v>5.295</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="C211">
-        <v>4.57</v>
+        <v>4.08</v>
       </c>
       <c r="D211">
-        <v>0.365</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>15.43</v>
       </c>
       <c r="B212">
-        <v>5.37</v>
+        <v>5.105</v>
       </c>
       <c r="C212">
-        <v>4.19</v>
+        <v>2.63</v>
       </c>
       <c r="D212">
-        <v>0.378</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>13.14</v>
       </c>
       <c r="B213">
-        <v>5.225</v>
+        <v>5.215</v>
       </c>
       <c r="C213">
-        <v>4.47</v>
+        <v>4.32</v>
       </c>
       <c r="D213">
-        <v>0.357</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>5.25</v>
       </c>
       <c r="B214">
-        <v>5.31</v>
+        <v>3.495</v>
       </c>
       <c r="C214">
-        <v>4.19</v>
+        <v>3.59</v>
       </c>
       <c r="D214">
-        <v>0.361</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>6.2</v>
       </c>
       <c r="B215">
-        <v>5.395</v>
+        <v>4.415</v>
       </c>
       <c r="C215">
-        <v>4.44</v>
+        <v>7.3</v>
       </c>
       <c r="D215">
-        <v>0.358</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>3.57</v>
       </c>
       <c r="B216">
-        <v>-1.68</v>
+        <v>5.895</v>
       </c>
       <c r="C216">
-        <v>4.2</v>
+        <v>5.73</v>
       </c>
       <c r="D216">
-        <v>0.362</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>7.45</v>
       </c>
       <c r="B217">
-        <v>-3.53</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C217">
-        <v>6.48</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D217">
-        <v>0.359</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>11.32</v>
       </c>
       <c r="B218">
-        <v>2.68</v>
+        <v>5.37</v>
       </c>
       <c r="C218">
-        <v>5.96</v>
+        <v>4.19</v>
       </c>
       <c r="D218">
-        <v>0.372</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>12.13</v>
       </c>
       <c r="B219">
-        <v>4.06</v>
+        <v>5.665</v>
       </c>
       <c r="C219">
-        <v>5.95</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>0.368</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>10.98</v>
       </c>
       <c r="B220">
-        <v>5.37</v>
+        <v>5.484999999999999</v>
       </c>
       <c r="C220">
-        <v>5.75</v>
+        <v>3.77</v>
       </c>
       <c r="D220">
-        <v>0.374</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>5.24</v>
       </c>
       <c r="B221">
-        <v>5.25</v>
+        <v>5.65</v>
       </c>
       <c r="C221">
-        <v>5.57</v>
+        <v>7.72</v>
       </c>
       <c r="D221">
-        <v>0.366</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>4.01</v>
       </c>
       <c r="B222">
-        <v>5.135</v>
+        <v>5.77</v>
       </c>
       <c r="C222">
-        <v>5.24</v>
+        <v>0.88</v>
       </c>
       <c r="D222">
-        <v>0.369</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>14.75</v>
       </c>
       <c r="B223">
-        <v>4.435</v>
+        <v>-0.635</v>
       </c>
       <c r="C223">
-        <v>4.07</v>
+        <v>3.28</v>
       </c>
       <c r="D223">
-        <v>0.433</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>21.35</v>
       </c>
       <c r="B224">
-        <v>5.445</v>
+        <v>5.005</v>
       </c>
       <c r="C224">
-        <v>4.07</v>
+        <v>2.82</v>
       </c>
       <c r="D224">
-        <v>0.42</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>7.77</v>
       </c>
       <c r="B225">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="C225">
-        <v>2.81</v>
+        <v>4.09</v>
       </c>
       <c r="D225">
-        <v>0.42</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>5.17</v>
       </c>
       <c r="B226">
-        <v>4.86</v>
+        <v>4.995</v>
       </c>
       <c r="C226">
-        <v>2.72</v>
+        <v>3.14</v>
       </c>
       <c r="D226">
-        <v>0.425</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>4.54</v>
       </c>
       <c r="B227">
-        <v>5.185</v>
+        <v>4.755</v>
       </c>
       <c r="C227">
-        <v>2.84</v>
+        <v>3.72</v>
       </c>
       <c r="D227">
-        <v>0.432</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>6.03</v>
       </c>
       <c r="B228">
-        <v>5.335</v>
+        <v>1.87</v>
       </c>
       <c r="C228">
-        <v>3.02</v>
+        <v>6.79</v>
       </c>
       <c r="D228">
-        <v>0.44</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>7.09</v>
       </c>
       <c r="B229">
-        <v>5.665</v>
+        <v>4.460000000000001</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="D229">
-        <v>0.441</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>7.8</v>
       </c>
       <c r="B230">
-        <v>6.715</v>
+        <v>6.19</v>
       </c>
       <c r="C230">
-        <v>3.37</v>
+        <v>5.86</v>
       </c>
       <c r="D230">
-        <v>0.422</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>14.01</v>
       </c>
       <c r="B231">
-        <v>7.14</v>
+        <v>20.89</v>
       </c>
       <c r="C231">
-        <v>2.89</v>
+        <v>3.12</v>
       </c>
       <c r="D231">
-        <v>0.423</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>9.06</v>
       </c>
       <c r="B232">
-        <v>6.075</v>
+        <v>7.32</v>
       </c>
       <c r="C232">
-        <v>3.18</v>
+        <v>5.04</v>
       </c>
       <c r="D232">
-        <v>0.428</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>11.63</v>
       </c>
       <c r="B233">
-        <v>-3.57</v>
+        <v>6.115</v>
       </c>
       <c r="C233">
-        <v>3.38</v>
+        <v>2.77</v>
       </c>
       <c r="D233">
-        <v>0.434</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>16.81</v>
       </c>
       <c r="B234">
-        <v>-1.815</v>
+        <v>6.775</v>
       </c>
       <c r="C234">
-        <v>4.57</v>
+        <v>3.38</v>
       </c>
       <c r="D234">
-        <v>0.437</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>11.25</v>
       </c>
       <c r="B235">
-        <v>8.875</v>
+        <v>6.18</v>
       </c>
       <c r="C235">
-        <v>4.28</v>
+        <v>2.33</v>
       </c>
       <c r="D235">
-        <v>0.441</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>18.12</v>
       </c>
       <c r="B236">
-        <v>2.6</v>
+        <v>5.425</v>
       </c>
       <c r="C236">
-        <v>4.56</v>
+        <v>7.07</v>
       </c>
       <c r="D236">
-        <v>0.436</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>6.64</v>
       </c>
       <c r="B237">
-        <v>4.44</v>
+        <v>7.46</v>
       </c>
       <c r="C237">
-        <v>3.73</v>
+        <v>4.56</v>
       </c>
       <c r="D237">
-        <v>0.439</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>23.01</v>
       </c>
       <c r="B238">
-        <v>5.865</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C238">
-        <v>4.06</v>
+        <v>6.27</v>
       </c>
       <c r="D238">
-        <v>0.459</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>27.74</v>
       </c>
       <c r="B239">
-        <v>5.24</v>
+        <v>25.25</v>
       </c>
       <c r="C239">
-        <v>3.58</v>
+        <v>2.75</v>
       </c>
       <c r="D239">
-        <v>0.449</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>15.68</v>
       </c>
       <c r="B240">
-        <v>5.305</v>
+        <v>4.744999999999999</v>
       </c>
       <c r="C240">
-        <v>4.31</v>
+        <v>6.34</v>
       </c>
       <c r="D240">
-        <v>0.415</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>8.94</v>
       </c>
       <c r="B241">
-        <v>5.57</v>
+        <v>5.34</v>
       </c>
       <c r="C241">
-        <v>4.47</v>
+        <v>5.55</v>
       </c>
       <c r="D241">
-        <v>0.403</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>6.55</v>
       </c>
       <c r="B242">
-        <v>5.695</v>
+        <v>5.36</v>
       </c>
       <c r="C242">
-        <v>4.14</v>
+        <v>5.66</v>
       </c>
       <c r="D242">
-        <v>0.402</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>7.21</v>
       </c>
       <c r="B243">
-        <v>5.455</v>
+        <v>2.065</v>
       </c>
       <c r="C243">
-        <v>4.21</v>
+        <v>5.98</v>
       </c>
       <c r="D243">
-        <v>0.402</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>7.85</v>
       </c>
       <c r="B244">
-        <v>5.21</v>
+        <v>4.675000000000001</v>
       </c>
       <c r="C244">
-        <v>4.1</v>
+        <v>3.73</v>
       </c>
       <c r="D244">
-        <v>0.396</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>12.82</v>
       </c>
       <c r="B245">
-        <v>5.699999999999999</v>
+        <v>6.065</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>4.27</v>
       </c>
       <c r="D245">
-        <v>0.415</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>15.41</v>
       </c>
       <c r="B246">
-        <v>5.484999999999999</v>
+        <v>4.84</v>
       </c>
       <c r="C246">
-        <v>3.77</v>
+        <v>3.35</v>
       </c>
       <c r="D246">
-        <v>0.379</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>13.01</v>
       </c>
       <c r="B247">
-        <v>5.46</v>
+        <v>5.25</v>
       </c>
       <c r="C247">
-        <v>3.91</v>
+        <v>4.04</v>
       </c>
       <c r="D247">
-        <v>0.371</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>4.77</v>
       </c>
       <c r="B248">
-        <v>5.699999999999999</v>
+        <v>5.39</v>
       </c>
       <c r="C248">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="D248">
-        <v>0.37</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>5.83</v>
       </c>
       <c r="B249">
-        <v>5.37</v>
+        <v>4.505</v>
       </c>
       <c r="C249">
-        <v>3.82</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D249">
-        <v>0.364</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>3.55</v>
       </c>
       <c r="B250">
-        <v>-1.49</v>
+        <v>6.305</v>
       </c>
       <c r="C250">
-        <v>3.6</v>
+        <v>6.65</v>
       </c>
       <c r="D250">
-        <v>0.366</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>7.25</v>
       </c>
       <c r="B251">
-        <v>-3.065</v>
+        <v>5.55</v>
       </c>
       <c r="C251">
-        <v>5.84</v>
+        <v>8.23</v>
       </c>
       <c r="D251">
-        <v>0.364</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>11.19</v>
       </c>
       <c r="B252">
-        <v>3.31</v>
+        <v>5.225</v>
       </c>
       <c r="C252">
-        <v>5.17</v>
+        <v>4.47</v>
       </c>
       <c r="D252">
-        <v>0.374</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>11.81</v>
       </c>
       <c r="B253">
-        <v>3.905</v>
+        <v>6.715</v>
       </c>
       <c r="C253">
-        <v>5.74</v>
+        <v>3.37</v>
       </c>
       <c r="D253">
-        <v>0.364</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3961,10 +3961,10 @@
         <v>10.85</v>
       </c>
       <c r="B254">
-        <v>5.505</v>
+        <v>5.46</v>
       </c>
       <c r="C254">
-        <v>4.81</v>
+        <v>3.91</v>
       </c>
       <c r="D254">
         <v>0.371</v>
@@ -3975,13 +3975,13 @@
         <v>5.25</v>
       </c>
       <c r="B255">
-        <v>5.175</v>
+        <v>5.875</v>
       </c>
       <c r="C255">
-        <v>5.49</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D255">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>3.91</v>
       </c>
       <c r="B256">
-        <v>5.109999999999999</v>
+        <v>6.82</v>
       </c>
       <c r="C256">
-        <v>4.33</v>
+        <v>1.4</v>
       </c>
       <c r="D256">
-        <v>0.387</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>14.63</v>
       </c>
       <c r="B257">
-        <v>5.455</v>
+        <v>-7.635</v>
       </c>
       <c r="C257">
-        <v>8.58</v>
+        <v>3.58</v>
       </c>
       <c r="D257">
-        <v>0.401</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>21.03</v>
       </c>
       <c r="B258">
-        <v>5.45</v>
+        <v>5.205</v>
       </c>
       <c r="C258">
-        <v>9.550000000000001</v>
+        <v>2.85</v>
       </c>
       <c r="D258">
-        <v>0.386</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>7.37</v>
       </c>
       <c r="B259">
-        <v>5.165</v>
+        <v>4.984999999999999</v>
       </c>
       <c r="C259">
-        <v>7.95</v>
+        <v>4.18</v>
       </c>
       <c r="D259">
-        <v>0.394</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>5.1</v>
       </c>
       <c r="B260">
-        <v>5.390000000000001</v>
+        <v>6.205</v>
       </c>
       <c r="C260">
-        <v>8.92</v>
+        <v>3.91</v>
       </c>
       <c r="D260">
-        <v>0.392</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>4.65</v>
       </c>
       <c r="B261">
-        <v>5.75</v>
+        <v>5.405</v>
       </c>
       <c r="C261">
-        <v>7.75</v>
+        <v>4.35</v>
       </c>
       <c r="D261">
-        <v>0.382</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>6.06</v>
       </c>
       <c r="B262">
-        <v>5.755</v>
+        <v>3.395</v>
       </c>
       <c r="C262">
-        <v>9.279999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="D262">
-        <v>0.379</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>6.86</v>
       </c>
       <c r="B263">
-        <v>5.65</v>
+        <v>6.215</v>
       </c>
       <c r="C263">
-        <v>7.72</v>
+        <v>5.11</v>
       </c>
       <c r="D263">
-        <v>0.385</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>7.59</v>
       </c>
       <c r="B264">
-        <v>5.875</v>
+        <v>5.83</v>
       </c>
       <c r="C264">
-        <v>8.470000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="D264">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>13.69</v>
       </c>
       <c r="B265">
-        <v>5.225</v>
+        <v>20.375</v>
       </c>
       <c r="C265">
-        <v>7.55</v>
+        <v>3.37</v>
       </c>
       <c r="D265">
-        <v>0.365</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>8.869999999999999</v>
       </c>
       <c r="B266">
-        <v>5.3</v>
+        <v>6.775</v>
       </c>
       <c r="C266">
-        <v>8.109999999999999</v>
+        <v>4.94</v>
       </c>
       <c r="D266">
-        <v>0.361</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>11.32</v>
       </c>
       <c r="B267">
-        <v>-2.085</v>
+        <v>6.66</v>
       </c>
       <c r="C267">
-        <v>7.99</v>
+        <v>3.19</v>
       </c>
       <c r="D267">
-        <v>0.363</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>15.83</v>
       </c>
       <c r="B268">
-        <v>-4.6</v>
+        <v>6.234999999999999</v>
       </c>
       <c r="C268">
-        <v>10.64</v>
+        <v>3.7</v>
       </c>
       <c r="D268">
-        <v>0.365</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>11.22</v>
       </c>
       <c r="B269">
-        <v>4.335</v>
+        <v>6.345000000000001</v>
       </c>
       <c r="C269">
-        <v>9.01</v>
+        <v>3.01</v>
       </c>
       <c r="D269">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>17.85</v>
       </c>
       <c r="B270">
-        <v>4.84</v>
+        <v>6.37</v>
       </c>
       <c r="C270">
-        <v>8.98</v>
+        <v>6.95</v>
       </c>
       <c r="D270">
-        <v>0.363</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>6.62</v>
       </c>
       <c r="B271">
-        <v>5.244999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C271">
-        <v>8.529999999999999</v>
+        <v>4.63</v>
       </c>
       <c r="D271">
-        <v>0.363</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>22.66</v>
       </c>
       <c r="B272">
-        <v>4.83</v>
+        <v>3.54</v>
       </c>
       <c r="C272">
-        <v>8.09</v>
+        <v>6.45</v>
       </c>
       <c r="D272">
-        <v>0.377</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>27.43</v>
       </c>
       <c r="B273">
-        <v>4.71</v>
+        <v>-5.925</v>
       </c>
       <c r="C273">
-        <v>7.97</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>0.368</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>15.32</v>
       </c>
       <c r="B274">
-        <v>5.9</v>
+        <v>3.745</v>
       </c>
       <c r="C274">
-        <v>1.37</v>
+        <v>5.48</v>
       </c>
       <c r="D274">
-        <v>0.377</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>8.83</v>
       </c>
       <c r="B275">
-        <v>6.145</v>
+        <v>5.279999999999999</v>
       </c>
       <c r="C275">
-        <v>1.99</v>
+        <v>5.57</v>
       </c>
       <c r="D275">
-        <v>0.399</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>6.42</v>
       </c>
       <c r="B276">
-        <v>6.375</v>
+        <v>4.905</v>
       </c>
       <c r="C276">
-        <v>2.12</v>
+        <v>5.38</v>
       </c>
       <c r="D276">
-        <v>0.366</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>7.08</v>
       </c>
       <c r="B277">
-        <v>6.285</v>
+        <v>2.915</v>
       </c>
       <c r="C277">
-        <v>1.89</v>
+        <v>5.36</v>
       </c>
       <c r="D277">
-        <v>0.374</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>7.6</v>
       </c>
       <c r="B278">
-        <v>6.085</v>
+        <v>4.765000000000001</v>
       </c>
       <c r="C278">
-        <v>1.28</v>
+        <v>3.52</v>
       </c>
       <c r="D278">
-        <v>0.384</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>12.71</v>
       </c>
       <c r="B279">
-        <v>5.075</v>
+        <v>5.73</v>
       </c>
       <c r="C279">
-        <v>1.48</v>
+        <v>4.02</v>
       </c>
       <c r="D279">
-        <v>0.379</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>15.23</v>
       </c>
       <c r="B280">
-        <v>5.77</v>
+        <v>5.025</v>
       </c>
       <c r="C280">
-        <v>0.88</v>
+        <v>2.41</v>
       </c>
       <c r="D280">
-        <v>0.377</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>12.62</v>
       </c>
       <c r="B281">
-        <v>6.82</v>
+        <v>5.385</v>
       </c>
       <c r="C281">
-        <v>1.4</v>
+        <v>3.95</v>
       </c>
       <c r="D281">
-        <v>0.364</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>4.62</v>
       </c>
       <c r="B282">
-        <v>5.83</v>
+        <v>3.135</v>
       </c>
       <c r="C282">
-        <v>1.22</v>
+        <v>3.32</v>
       </c>
       <c r="D282">
-        <v>0.366</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>5.9</v>
       </c>
       <c r="B283">
-        <v>5.375</v>
+        <v>4.69</v>
       </c>
       <c r="C283">
-        <v>1.57</v>
+        <v>7.02</v>
       </c>
       <c r="D283">
-        <v>0.37</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>3.47</v>
       </c>
       <c r="B284">
-        <v>-6.145</v>
+        <v>5.775</v>
       </c>
       <c r="C284">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="D284">
-        <v>0.369</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>6.91</v>
       </c>
       <c r="B285">
-        <v>-12.315</v>
+        <v>5.49</v>
       </c>
       <c r="C285">
-        <v>5.63</v>
+        <v>7.78</v>
       </c>
       <c r="D285">
-        <v>0.369</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>10.8</v>
       </c>
       <c r="B286">
-        <v>-3.5</v>
+        <v>5.31</v>
       </c>
       <c r="C286">
-        <v>5.42</v>
+        <v>4.19</v>
       </c>
       <c r="D286">
-        <v>0.378</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>11.7</v>
       </c>
       <c r="B287">
-        <v>-1.165</v>
+        <v>7.14</v>
       </c>
       <c r="C287">
-        <v>5.37</v>
+        <v>2.89</v>
       </c>
       <c r="D287">
-        <v>0.375</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>10.37</v>
       </c>
       <c r="B288">
-        <v>2.285</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="C288">
-        <v>4.84</v>
+        <v>3.77</v>
       </c>
       <c r="D288">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>5.09</v>
       </c>
       <c r="B289">
-        <v>7.359999999999999</v>
+        <v>5.225</v>
       </c>
       <c r="C289">
-        <v>4.8</v>
+        <v>7.55</v>
       </c>
       <c r="D289">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>3.79</v>
       </c>
       <c r="B290">
-        <v>5.825</v>
+        <v>5.83</v>
       </c>
       <c r="C290">
-        <v>3.73</v>
+        <v>1.22</v>
       </c>
       <c r="D290">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>14.56</v>
       </c>
       <c r="B291">
-        <v>20.885</v>
+        <v>1.89</v>
       </c>
       <c r="C291">
-        <v>4.98</v>
+        <v>3.15</v>
       </c>
       <c r="D291">
-        <v>0.368</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>21.09</v>
       </c>
       <c r="B292">
-        <v>23.065</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C292">
-        <v>5.69</v>
+        <v>2.98</v>
       </c>
       <c r="D292">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>7.49</v>
       </c>
       <c r="B293">
-        <v>8.344999999999999</v>
+        <v>5.154999999999999</v>
       </c>
       <c r="C293">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="D293">
-        <v>0.359</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>4.98</v>
       </c>
       <c r="B294">
-        <v>3.49</v>
+        <v>6.685</v>
       </c>
       <c r="C294">
-        <v>3.94</v>
+        <v>3.21</v>
       </c>
       <c r="D294">
-        <v>0.365</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>4.55</v>
       </c>
       <c r="B295">
-        <v>-2.43</v>
+        <v>4.185</v>
       </c>
       <c r="C295">
-        <v>3.86</v>
+        <v>3.41</v>
       </c>
       <c r="D295">
-        <v>0.371</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>5.94</v>
       </c>
       <c r="B296">
-        <v>2.41</v>
+        <v>4.945</v>
       </c>
       <c r="C296">
-        <v>3.32</v>
+        <v>6.65</v>
       </c>
       <c r="D296">
-        <v>0.378</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>6.63</v>
       </c>
       <c r="B297">
-        <v>-0.635</v>
+        <v>7.525</v>
       </c>
       <c r="C297">
-        <v>3.28</v>
+        <v>5.84</v>
       </c>
       <c r="D297">
-        <v>0.372</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>7.66</v>
       </c>
       <c r="B298">
-        <v>-7.635</v>
+        <v>6.029999999999999</v>
       </c>
       <c r="C298">
-        <v>3.58</v>
+        <v>5.17</v>
       </c>
       <c r="D298">
-        <v>0.391</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>13.48</v>
       </c>
       <c r="B299">
-        <v>1.89</v>
+        <v>7.135</v>
       </c>
       <c r="C299">
-        <v>3.15</v>
+        <v>3.46</v>
       </c>
       <c r="D299">
-        <v>0.379</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>8.69</v>
       </c>
       <c r="B300">
-        <v>5.885</v>
+        <v>6.97</v>
       </c>
       <c r="C300">
-        <v>3.28</v>
+        <v>5.1</v>
       </c>
       <c r="D300">
-        <v>0.374</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>11.24</v>
       </c>
       <c r="B301">
-        <v>0.87</v>
+        <v>6.35</v>
       </c>
       <c r="C301">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="D301">
-        <v>0.376</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>15.52</v>
       </c>
       <c r="B302">
-        <v>-1.975</v>
+        <v>6.725</v>
       </c>
       <c r="C302">
-        <v>4.22</v>
+        <v>3.25</v>
       </c>
       <c r="D302">
-        <v>0.386</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>11.02</v>
       </c>
       <c r="B303">
-        <v>1.795</v>
+        <v>5.58</v>
       </c>
       <c r="C303">
-        <v>3.97</v>
+        <v>1.29</v>
       </c>
       <c r="D303">
-        <v>0.381</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>17.69</v>
       </c>
       <c r="B304">
-        <v>2.79</v>
+        <v>5.95</v>
       </c>
       <c r="C304">
-        <v>3.01</v>
+        <v>6.61</v>
       </c>
       <c r="D304">
-        <v>0.384</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4675,13 +4675,13 @@
         <v>6.77</v>
       </c>
       <c r="B305">
-        <v>6.86</v>
+        <v>7.53</v>
       </c>
       <c r="C305">
-        <v>3.92</v>
+        <v>4.96</v>
       </c>
       <c r="D305">
-        <v>0.373</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4689,13 +4689,13 @@
         <v>22.17</v>
       </c>
       <c r="B306">
-        <v>7.07</v>
+        <v>-0.375</v>
       </c>
       <c r="C306">
-        <v>2.89</v>
+        <v>5.81</v>
       </c>
       <c r="D306">
-        <v>0.374</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4703,13 +4703,13 @@
         <v>27.53</v>
       </c>
       <c r="B307">
-        <v>1.005</v>
+        <v>-21.3</v>
       </c>
       <c r="C307">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="D307">
-        <v>0.375</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4717,13 +4717,13 @@
         <v>15.01</v>
       </c>
       <c r="B308">
-        <v>4.805</v>
+        <v>4.51</v>
       </c>
       <c r="C308">
-        <v>3.12</v>
+        <v>6.17</v>
       </c>
       <c r="D308">
-        <v>0.339</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4731,13 +4731,13 @@
         <v>8.630000000000001</v>
       </c>
       <c r="B309">
-        <v>5.025</v>
+        <v>5.16</v>
       </c>
       <c r="C309">
-        <v>3.83</v>
+        <v>5.39</v>
       </c>
       <c r="D309">
-        <v>0.348</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4745,13 +4745,13 @@
         <v>6.29</v>
       </c>
       <c r="B310">
-        <v>5.125</v>
+        <v>5.105</v>
       </c>
       <c r="C310">
-        <v>3.59</v>
+        <v>5.38</v>
       </c>
       <c r="D310">
-        <v>0.336</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4759,13 +4759,13 @@
         <v>6.9</v>
       </c>
       <c r="B311">
-        <v>5.109999999999999</v>
+        <v>2.71</v>
       </c>
       <c r="C311">
-        <v>3.25</v>
+        <v>5.76</v>
       </c>
       <c r="D311">
-        <v>0.362</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4773,13 +4773,13 @@
         <v>7.51</v>
       </c>
       <c r="B312">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="C312">
-        <v>3.21</v>
+        <v>4.06</v>
       </c>
       <c r="D312">
-        <v>0.359</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4787,13 +4787,13 @@
         <v>12.56</v>
       </c>
       <c r="B313">
-        <v>5.105</v>
+        <v>5.655</v>
       </c>
       <c r="C313">
-        <v>3.27</v>
+        <v>4.53</v>
       </c>
       <c r="D313">
-        <v>0.359</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4801,13 +4801,13 @@
         <v>14.91</v>
       </c>
       <c r="B314">
-        <v>5.005</v>
+        <v>4.855</v>
       </c>
       <c r="C314">
-        <v>2.82</v>
+        <v>3.26</v>
       </c>
       <c r="D314">
-        <v>0.351</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4815,13 +4815,13 @@
         <v>12.3</v>
       </c>
       <c r="B315">
-        <v>5.205</v>
+        <v>5.135</v>
       </c>
       <c r="C315">
-        <v>2.85</v>
+        <v>4.03</v>
       </c>
       <c r="D315">
-        <v>0.359</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4829,13 +4829,13 @@
         <v>4.5</v>
       </c>
       <c r="B316">
-        <v>5.765000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C316">
-        <v>2.98</v>
+        <v>3.58</v>
       </c>
       <c r="D316">
-        <v>0.356</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4843,13 +4843,13 @@
         <v>5.8</v>
       </c>
       <c r="B317">
-        <v>4.755</v>
+        <v>4.96</v>
       </c>
       <c r="C317">
-        <v>3.14</v>
+        <v>7.5</v>
       </c>
       <c r="D317">
-        <v>0.355</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4857,13 +4857,13 @@
         <v>3.42</v>
       </c>
       <c r="B318">
-        <v>0.505</v>
+        <v>5.875</v>
       </c>
       <c r="C318">
-        <v>2.64</v>
+        <v>6.54</v>
       </c>
       <c r="D318">
-        <v>0.354</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4871,13 +4871,13 @@
         <v>6.82</v>
       </c>
       <c r="B319">
-        <v>-2.015</v>
+        <v>4.57</v>
       </c>
       <c r="C319">
-        <v>4.28</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D319">
-        <v>0.356</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4885,13 +4885,13 @@
         <v>10.58</v>
       </c>
       <c r="B320">
-        <v>2.275</v>
+        <v>5.395</v>
       </c>
       <c r="C320">
-        <v>3.38</v>
+        <v>4.44</v>
       </c>
       <c r="D320">
-        <v>0.346</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4899,13 +4899,13 @@
         <v>11.44</v>
       </c>
       <c r="B321">
-        <v>2.73</v>
+        <v>6.075</v>
       </c>
       <c r="C321">
-        <v>3.77</v>
+        <v>3.18</v>
       </c>
       <c r="D321">
-        <v>0.339</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4913,13 +4913,13 @@
         <v>10.2</v>
       </c>
       <c r="B322">
-        <v>2.59</v>
+        <v>5.37</v>
       </c>
       <c r="C322">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="D322">
-        <v>0.334</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4927,13 +4927,13 @@
         <v>4.94</v>
       </c>
       <c r="B323">
-        <v>3.48</v>
+        <v>5.3</v>
       </c>
       <c r="C323">
-        <v>3.54</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D323">
-        <v>0.34</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4941,13 +4941,13 @@
         <v>3.61</v>
       </c>
       <c r="B324">
-        <v>3.96</v>
+        <v>5.375</v>
       </c>
       <c r="C324">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="D324">
-        <v>0.325</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4955,13 +4955,13 @@
         <v>13.88</v>
       </c>
       <c r="B325">
-        <v>5.205</v>
+        <v>5.885</v>
       </c>
       <c r="C325">
-        <v>4.78</v>
+        <v>3.28</v>
       </c>
       <c r="D325">
-        <v>0.334</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4969,13 +4969,13 @@
         <v>20.62</v>
       </c>
       <c r="B326">
-        <v>4.59</v>
+        <v>4.755</v>
       </c>
       <c r="C326">
-        <v>5.15</v>
+        <v>3.14</v>
       </c>
       <c r="D326">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4983,13 +4983,13 @@
         <v>7.28</v>
       </c>
       <c r="B327">
-        <v>5.369999999999999</v>
+        <v>5.035</v>
       </c>
       <c r="C327">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="D327">
-        <v>0.341</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4997,13 +4997,13 @@
         <v>4.81</v>
       </c>
       <c r="B328">
-        <v>5.045</v>
+        <v>5.565</v>
       </c>
       <c r="C328">
-        <v>4.23</v>
+        <v>4.04</v>
       </c>
       <c r="D328">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5011,13 +5011,13 @@
         <v>4.47</v>
       </c>
       <c r="B329">
-        <v>4.805</v>
+        <v>3.995</v>
       </c>
       <c r="C329">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="D329">
-        <v>0.327</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5025,13 +5025,13 @@
         <v>5.91</v>
       </c>
       <c r="B330">
-        <v>5.505</v>
+        <v>4.49</v>
       </c>
       <c r="C330">
-        <v>4.36</v>
+        <v>5.94</v>
       </c>
       <c r="D330">
-        <v>0.329</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5039,13 +5039,13 @@
         <v>6.49</v>
       </c>
       <c r="B331">
-        <v>5.17</v>
+        <v>6.295</v>
       </c>
       <c r="C331">
-        <v>4.09</v>
+        <v>4.49</v>
       </c>
       <c r="D331">
-        <v>0.339</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5053,13 +5053,13 @@
         <v>7.51</v>
       </c>
       <c r="B332">
-        <v>4.984999999999999</v>
+        <v>5.32</v>
       </c>
       <c r="C332">
-        <v>4.18</v>
+        <v>6.01</v>
       </c>
       <c r="D332">
-        <v>0.325</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5067,13 +5067,13 @@
         <v>13.18</v>
       </c>
       <c r="B333">
-        <v>5.154999999999999</v>
+        <v>10.455</v>
       </c>
       <c r="C333">
-        <v>4.06</v>
+        <v>3.11</v>
       </c>
       <c r="D333">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5081,13 +5081,13 @@
         <v>8.56</v>
       </c>
       <c r="B334">
-        <v>5.035</v>
+        <v>6.825</v>
       </c>
       <c r="C334">
-        <v>4.35</v>
+        <v>4.62</v>
       </c>
       <c r="D334">
-        <v>0.318</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5095,13 +5095,13 @@
         <v>11.04</v>
       </c>
       <c r="B335">
-        <v>-0.3400000000000001</v>
+        <v>6.645</v>
       </c>
       <c r="C335">
-        <v>4.47</v>
+        <v>3.52</v>
       </c>
       <c r="D335">
-        <v>0.317</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5109,13 +5109,13 @@
         <v>15.31</v>
       </c>
       <c r="B336">
-        <v>-3.265</v>
+        <v>6.09</v>
       </c>
       <c r="C336">
-        <v>5.81</v>
+        <v>3.76</v>
       </c>
       <c r="D336">
-        <v>0.325</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5123,13 +5123,13 @@
         <v>10.95</v>
       </c>
       <c r="B337">
-        <v>5.36</v>
+        <v>5.545</v>
       </c>
       <c r="C337">
-        <v>5.73</v>
+        <v>2.98</v>
       </c>
       <c r="D337">
-        <v>0.313</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5137,13 +5137,13 @@
         <v>17.65</v>
       </c>
       <c r="B338">
-        <v>4.484999999999999</v>
+        <v>4.895</v>
       </c>
       <c r="C338">
-        <v>5.82</v>
+        <v>6.69</v>
       </c>
       <c r="D338">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5151,13 +5151,13 @@
         <v>6.91</v>
       </c>
       <c r="B339">
-        <v>4.365</v>
+        <v>5.03</v>
       </c>
       <c r="C339">
-        <v>4.86</v>
+        <v>4.81</v>
       </c>
       <c r="D339">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5165,13 +5165,13 @@
         <v>21.51</v>
       </c>
       <c r="B340">
-        <v>5.77</v>
+        <v>5.615</v>
       </c>
       <c r="C340">
-        <v>5.11</v>
+        <v>6.43</v>
       </c>
       <c r="D340">
-        <v>0.311</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>26.55</v>
       </c>
       <c r="B341">
-        <v>4.325</v>
+        <v>-9.434999999999999</v>
       </c>
       <c r="C341">
-        <v>4.52</v>
+        <v>3.51</v>
       </c>
       <c r="D341">
-        <v>0.321</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5193,13 +5193,13 @@
         <v>14.99</v>
       </c>
       <c r="B342">
-        <v>7.305</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="C342">
-        <v>3.14</v>
+        <v>5.4</v>
       </c>
       <c r="D342">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5207,13 +5207,13 @@
         <v>8.75</v>
       </c>
       <c r="B343">
-        <v>6.720000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="C343">
-        <v>4.54</v>
+        <v>4.71</v>
       </c>
       <c r="D343">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5221,13 +5221,13 @@
         <v>6.28</v>
       </c>
       <c r="B344">
-        <v>5.415</v>
+        <v>-0.5399999999999998</v>
       </c>
       <c r="C344">
-        <v>3.67</v>
+        <v>5.25</v>
       </c>
       <c r="D344">
-        <v>0.33</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5235,13 +5235,13 @@
         <v>6.82</v>
       </c>
       <c r="B345">
-        <v>7.26</v>
+        <v>-0.6199999999999999</v>
       </c>
       <c r="C345">
-        <v>4.82</v>
+        <v>4.92</v>
       </c>
       <c r="D345">
-        <v>0.347</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5249,13 +5249,13 @@
         <v>7.58</v>
       </c>
       <c r="B346">
-        <v>7.805</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="C346">
-        <v>3.13</v>
+        <v>4.26</v>
       </c>
       <c r="D346">
-        <v>0.343</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5263,13 +5263,13 @@
         <v>12.66</v>
       </c>
       <c r="B347">
-        <v>5.71</v>
+        <v>1.215</v>
       </c>
       <c r="C347">
-        <v>4.23</v>
+        <v>3.9</v>
       </c>
       <c r="D347">
-        <v>0.327</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5277,13 +5277,13 @@
         <v>15.03</v>
       </c>
       <c r="B348">
-        <v>4.995</v>
+        <v>1.455</v>
       </c>
       <c r="C348">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="D348">
-        <v>0.342</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5291,13 +5291,13 @@
         <v>12.34</v>
       </c>
       <c r="B349">
-        <v>6.205</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="C349">
-        <v>3.91</v>
+        <v>4.26</v>
       </c>
       <c r="D349">
-        <v>0.344</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5305,13 +5305,13 @@
         <v>4.53</v>
       </c>
       <c r="B350">
-        <v>6.685</v>
+        <v>-1.78</v>
       </c>
       <c r="C350">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="D350">
-        <v>0.336</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5319,13 +5319,13 @@
         <v>5.92</v>
       </c>
       <c r="B351">
-        <v>5.565</v>
+        <v>-2.395</v>
       </c>
       <c r="C351">
-        <v>4.04</v>
+        <v>5.98</v>
       </c>
       <c r="D351">
-        <v>0.335</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5333,13 +5333,13 @@
         <v>4.53</v>
       </c>
       <c r="B352">
-        <v>-0.155</v>
+        <v>-1.66</v>
       </c>
       <c r="C352">
-        <v>3.33</v>
+        <v>5.15</v>
       </c>
       <c r="D352">
-        <v>0.329</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5347,13 +5347,13 @@
         <v>7.88</v>
       </c>
       <c r="B353">
-        <v>-2.635</v>
+        <v>-1.665</v>
       </c>
       <c r="C353">
-        <v>4.58</v>
+        <v>7.71</v>
       </c>
       <c r="D353">
-        <v>0.32</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5361,13 +5361,13 @@
         <v>11.41</v>
       </c>
       <c r="B354">
-        <v>1.475</v>
+        <v>-1.68</v>
       </c>
       <c r="C354">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="D354">
-        <v>0.323</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5375,13 +5375,13 @@
         <v>12.28</v>
       </c>
       <c r="B355">
-        <v>5.79</v>
+        <v>-3.57</v>
       </c>
       <c r="C355">
-        <v>4.53</v>
+        <v>3.38</v>
       </c>
       <c r="D355">
-        <v>0.32</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5389,13 +5389,13 @@
         <v>11.09</v>
       </c>
       <c r="B356">
-        <v>6.775</v>
+        <v>-1.49</v>
       </c>
       <c r="C356">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D356">
-        <v>0.319</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5403,13 +5403,13 @@
         <v>5.92</v>
       </c>
       <c r="B357">
-        <v>6.16</v>
+        <v>-2.085</v>
       </c>
       <c r="C357">
-        <v>4.26</v>
+        <v>7.99</v>
       </c>
       <c r="D357">
-        <v>0.309</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5417,13 +5417,13 @@
         <v>3.78</v>
       </c>
       <c r="B358">
-        <v>3.09</v>
+        <v>-6.145</v>
       </c>
       <c r="C358">
-        <v>3.84</v>
+        <v>1.25</v>
       </c>
       <c r="D358">
-        <v>0.317</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5431,13 +5431,13 @@
         <v>13.97</v>
       </c>
       <c r="B359">
-        <v>3.635</v>
+        <v>0.87</v>
       </c>
       <c r="C359">
-        <v>4.83</v>
+        <v>3.04</v>
       </c>
       <c r="D359">
-        <v>0.353</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5445,13 +5445,13 @@
         <v>20.9</v>
       </c>
       <c r="B360">
-        <v>4.015</v>
+        <v>0.505</v>
       </c>
       <c r="C360">
-        <v>4.92</v>
+        <v>2.64</v>
       </c>
       <c r="D360">
-        <v>0.334</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5459,13 +5459,13 @@
         <v>7.17</v>
       </c>
       <c r="B361">
-        <v>4.550000000000001</v>
+        <v>-0.3400000000000001</v>
       </c>
       <c r="C361">
-        <v>3.63</v>
+        <v>4.47</v>
       </c>
       <c r="D361">
-        <v>0.332</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5473,13 +5473,13 @@
         <v>4.82</v>
       </c>
       <c r="B362">
-        <v>4.295</v>
+        <v>-0.155</v>
       </c>
       <c r="C362">
-        <v>5.45</v>
+        <v>3.33</v>
       </c>
       <c r="D362">
-        <v>0.351</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5487,13 +5487,13 @@
         <v>4.38</v>
       </c>
       <c r="B363">
-        <v>5.1</v>
+        <v>0.615</v>
       </c>
       <c r="C363">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="D363">
-        <v>0.347</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5501,13 +5501,13 @@
         <v>6.1</v>
       </c>
       <c r="B364">
-        <v>5.455</v>
+        <v>-2.07</v>
       </c>
       <c r="C364">
-        <v>4.77</v>
+        <v>6.72</v>
       </c>
       <c r="D364">
-        <v>0.347</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5515,13 +5515,13 @@
         <v>6.8</v>
       </c>
       <c r="B365">
-        <v>4.755</v>
+        <v>1.015</v>
       </c>
       <c r="C365">
-        <v>3.72</v>
+        <v>5.71</v>
       </c>
       <c r="D365">
-        <v>0.344</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5529,13 +5529,13 @@
         <v>7.62</v>
       </c>
       <c r="B366">
-        <v>5.405</v>
+        <v>0.2650000000000001</v>
       </c>
       <c r="C366">
-        <v>4.35</v>
+        <v>5.34</v>
       </c>
       <c r="D366">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5543,13 +5543,13 @@
         <v>12.92</v>
       </c>
       <c r="B367">
-        <v>4.185</v>
+        <v>6.185</v>
       </c>
       <c r="C367">
-        <v>3.41</v>
+        <v>2.93</v>
       </c>
       <c r="D367">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5557,13 +5557,13 @@
         <v>8.720000000000001</v>
       </c>
       <c r="B368">
-        <v>3.995</v>
+        <v>-0.4200000000000002</v>
       </c>
       <c r="C368">
-        <v>4.18</v>
+        <v>5.7</v>
       </c>
       <c r="D368">
-        <v>0.334</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5571,13 +5571,13 @@
         <v>11</v>
       </c>
       <c r="B369">
-        <v>0.615</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="C369">
-        <v>3.67</v>
+        <v>3.1</v>
       </c>
       <c r="D369">
-        <v>0.332</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5585,13 +5585,13 @@
         <v>15.22</v>
       </c>
       <c r="B370">
-        <v>-3.95</v>
+        <v>1.89</v>
       </c>
       <c r="C370">
-        <v>4.74</v>
+        <v>3.29</v>
       </c>
       <c r="D370">
-        <v>0.351</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5599,13 +5599,13 @@
         <v>10.87</v>
       </c>
       <c r="B371">
-        <v>1.725</v>
+        <v>2.015</v>
       </c>
       <c r="C371">
-        <v>4.33</v>
+        <v>2.39</v>
       </c>
       <c r="D371">
-        <v>0.33</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5613,13 +5613,13 @@
         <v>17.44</v>
       </c>
       <c r="B372">
-        <v>5.2</v>
+        <v>1.305</v>
       </c>
       <c r="C372">
-        <v>4.95</v>
+        <v>6.71</v>
       </c>
       <c r="D372">
-        <v>0.325</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5627,13 +5627,13 @@
         <v>6.78</v>
       </c>
       <c r="B373">
-        <v>4.675</v>
+        <v>1.93</v>
       </c>
       <c r="C373">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="D373">
-        <v>0.317</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5641,13 +5641,13 @@
         <v>21.37</v>
       </c>
       <c r="B374">
-        <v>5.484999999999999</v>
+        <v>3.035</v>
       </c>
       <c r="C374">
-        <v>4.74</v>
+        <v>6.78</v>
       </c>
       <c r="D374">
-        <v>0.309</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5655,13 +5655,13 @@
         <v>26.64</v>
       </c>
       <c r="B375">
-        <v>5.065</v>
+        <v>2.725</v>
       </c>
       <c r="C375">
-        <v>3.95</v>
+        <v>3.42</v>
       </c>
       <c r="D375">
-        <v>0.313</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5669,13 +5669,13 @@
         <v>15.43</v>
       </c>
       <c r="B376">
-        <v>-0.645</v>
+        <v>-1.54</v>
       </c>
       <c r="C376">
-        <v>7.17</v>
+        <v>6.59</v>
       </c>
       <c r="D376">
-        <v>0.316</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5683,13 +5683,13 @@
         <v>9.140000000000001</v>
       </c>
       <c r="B377">
-        <v>-1.75</v>
+        <v>-2.77</v>
       </c>
       <c r="C377">
-        <v>7.5</v>
+        <v>6.91</v>
       </c>
       <c r="D377">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5697,13 +5697,13 @@
         <v>6.56</v>
       </c>
       <c r="B378">
-        <v>-0.615</v>
+        <v>-2.575</v>
       </c>
       <c r="C378">
-        <v>8.859999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D378">
-        <v>0.315</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5711,13 +5711,13 @@
         <v>7.04</v>
       </c>
       <c r="B379">
-        <v>-0.15</v>
+        <v>-1.61</v>
       </c>
       <c r="C379">
-        <v>7.95</v>
+        <v>6.32</v>
       </c>
       <c r="D379">
-        <v>0.328</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5725,13 +5725,13 @@
         <v>7.97</v>
       </c>
       <c r="B380">
-        <v>3.725</v>
+        <v>-0.98</v>
       </c>
       <c r="C380">
-        <v>8.550000000000001</v>
+        <v>5.13</v>
       </c>
       <c r="D380">
-        <v>0.33</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5739,13 +5739,13 @@
         <v>12.98</v>
       </c>
       <c r="B381">
-        <v>2.555</v>
+        <v>-1.32</v>
       </c>
       <c r="C381">
-        <v>6.91</v>
+        <v>5.51</v>
       </c>
       <c r="D381">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5753,13 +5753,13 @@
         <v>15.3</v>
       </c>
       <c r="B382">
-        <v>1.87</v>
+        <v>-1.425</v>
       </c>
       <c r="C382">
-        <v>6.79</v>
+        <v>4.07</v>
       </c>
       <c r="D382">
-        <v>0.342</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5767,13 +5767,13 @@
         <v>12.76</v>
       </c>
       <c r="B383">
-        <v>3.395</v>
+        <v>-2.315</v>
       </c>
       <c r="C383">
-        <v>6.41</v>
+        <v>4.67</v>
       </c>
       <c r="D383">
-        <v>0.342</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5781,13 +5781,13 @@
         <v>4.89</v>
       </c>
       <c r="B384">
-        <v>4.945</v>
+        <v>-2.72</v>
       </c>
       <c r="C384">
-        <v>6.65</v>
+        <v>5.25</v>
       </c>
       <c r="D384">
-        <v>0.33</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5795,13 +5795,13 @@
         <v>6.13</v>
       </c>
       <c r="B385">
-        <v>4.49</v>
+        <v>-5.135</v>
       </c>
       <c r="C385">
-        <v>5.94</v>
+        <v>10.34</v>
       </c>
       <c r="D385">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5809,13 +5809,13 @@
         <v>4.69</v>
       </c>
       <c r="B386">
-        <v>-2.07</v>
+        <v>-3.055</v>
       </c>
       <c r="C386">
-        <v>6.72</v>
+        <v>10.95</v>
       </c>
       <c r="D386">
-        <v>0.328</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5823,13 +5823,13 @@
         <v>8.43</v>
       </c>
       <c r="B387">
-        <v>-3.73</v>
+        <v>-3.27</v>
       </c>
       <c r="C387">
-        <v>6.87</v>
+        <v>10.46</v>
       </c>
       <c r="D387">
-        <v>0.335</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5837,13 +5837,13 @@
         <v>11.84</v>
       </c>
       <c r="B388">
-        <v>1.26</v>
+        <v>-3.53</v>
       </c>
       <c r="C388">
-        <v>6.81</v>
+        <v>6.48</v>
       </c>
       <c r="D388">
-        <v>0.334</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5851,13 +5851,13 @@
         <v>12.8</v>
       </c>
       <c r="B389">
-        <v>4</v>
+        <v>-1.815</v>
       </c>
       <c r="C389">
-        <v>6.83</v>
+        <v>4.57</v>
       </c>
       <c r="D389">
-        <v>0.331</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5865,13 +5865,13 @@
         <v>11.46</v>
       </c>
       <c r="B390">
-        <v>3.01</v>
+        <v>-3.065</v>
       </c>
       <c r="C390">
-        <v>6.77</v>
+        <v>5.84</v>
       </c>
       <c r="D390">
-        <v>0.327</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5879,13 +5879,13 @@
         <v>6.63</v>
       </c>
       <c r="B391">
-        <v>5.904999999999999</v>
+        <v>-4.6</v>
       </c>
       <c r="C391">
-        <v>5.71</v>
+        <v>10.64</v>
       </c>
       <c r="D391">
-        <v>0.317</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5893,13 +5893,13 @@
         <v>4.45</v>
       </c>
       <c r="B392">
-        <v>6.94</v>
+        <v>-12.315</v>
       </c>
       <c r="C392">
-        <v>6.37</v>
+        <v>5.63</v>
       </c>
       <c r="D392">
-        <v>0.322</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5907,13 +5907,13 @@
         <v>14.23</v>
       </c>
       <c r="B393">
-        <v>4.515</v>
+        <v>-1.975</v>
       </c>
       <c r="C393">
-        <v>5.79</v>
+        <v>4.22</v>
       </c>
       <c r="D393">
-        <v>0.294</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5921,13 +5921,13 @@
         <v>21.21</v>
       </c>
       <c r="B394">
-        <v>2.35</v>
+        <v>-2.015</v>
       </c>
       <c r="C394">
-        <v>5.68</v>
+        <v>4.28</v>
       </c>
       <c r="D394">
-        <v>0.314</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5935,13 +5935,13 @@
         <v>7.24</v>
       </c>
       <c r="B395">
-        <v>2.795</v>
+        <v>-3.265</v>
       </c>
       <c r="C395">
-        <v>3.92</v>
+        <v>5.81</v>
       </c>
       <c r="D395">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5949,13 +5949,13 @@
         <v>5.26</v>
       </c>
       <c r="B396">
-        <v>4.275</v>
+        <v>-2.635</v>
       </c>
       <c r="C396">
-        <v>5.23</v>
+        <v>4.58</v>
       </c>
       <c r="D396">
-        <v>0.305</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5963,13 +5963,13 @@
         <v>4.83</v>
       </c>
       <c r="B397">
-        <v>6.77</v>
+        <v>-3.95</v>
       </c>
       <c r="C397">
-        <v>5.17</v>
+        <v>4.74</v>
       </c>
       <c r="D397">
-        <v>0.308</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5977,13 +5977,13 @@
         <v>6.64</v>
       </c>
       <c r="B398">
-        <v>6.83</v>
+        <v>-3.73</v>
       </c>
       <c r="C398">
-        <v>5.54</v>
+        <v>6.87</v>
       </c>
       <c r="D398">
-        <v>0.313</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5991,13 +5991,13 @@
         <v>7.41</v>
       </c>
       <c r="B399">
-        <v>4.460000000000001</v>
+        <v>-3.055</v>
       </c>
       <c r="C399">
-        <v>4.7</v>
+        <v>4.97</v>
       </c>
       <c r="D399">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6005,13 +6005,13 @@
         <v>7.78</v>
       </c>
       <c r="B400">
-        <v>6.215</v>
+        <v>-2.015</v>
       </c>
       <c r="C400">
-        <v>5.11</v>
+        <v>7.37</v>
       </c>
       <c r="D400">
-        <v>0.304</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6019,13 +6019,13 @@
         <v>13.06</v>
       </c>
       <c r="B401">
-        <v>7.525</v>
+        <v>3.645</v>
       </c>
       <c r="C401">
-        <v>5.84</v>
+        <v>3.77</v>
       </c>
       <c r="D401">
-        <v>0.295</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6033,13 +6033,13 @@
         <v>8.99</v>
       </c>
       <c r="B402">
-        <v>6.295</v>
+        <v>-0.875</v>
       </c>
       <c r="C402">
-        <v>4.49</v>
+        <v>6.31</v>
       </c>
       <c r="D402">
-        <v>0.292</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6047,13 +6047,13 @@
         <v>11.69</v>
       </c>
       <c r="B403">
-        <v>1.015</v>
+        <v>-2.02</v>
       </c>
       <c r="C403">
-        <v>5.71</v>
+        <v>4.58</v>
       </c>
       <c r="D403">
-        <v>0.292</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6061,13 +6061,13 @@
         <v>15.59</v>
       </c>
       <c r="B404">
-        <v>-3.055</v>
+        <v>-1.83</v>
       </c>
       <c r="C404">
-        <v>4.97</v>
+        <v>4.28</v>
       </c>
       <c r="D404">
-        <v>0.3</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6075,13 +6075,13 @@
         <v>11.5</v>
       </c>
       <c r="B405">
-        <v>1.9</v>
+        <v>-6.220000000000001</v>
       </c>
       <c r="C405">
-        <v>4.67</v>
+        <v>3.32</v>
       </c>
       <c r="D405">
-        <v>0.292</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6089,13 +6089,13 @@
         <v>17.99</v>
       </c>
       <c r="B406">
-        <v>6.175</v>
+        <v>-3.01</v>
       </c>
       <c r="C406">
-        <v>4.58</v>
+        <v>7.57</v>
       </c>
       <c r="D406">
-        <v>0.285</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6103,13 +6103,13 @@
         <v>6.97</v>
       </c>
       <c r="B407">
-        <v>4.859999999999999</v>
+        <v>8.715</v>
       </c>
       <c r="C407">
-        <v>4.62</v>
+        <v>5.15</v>
       </c>
       <c r="D407">
-        <v>0.272</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6117,13 +6117,13 @@
         <v>21.7</v>
       </c>
       <c r="B408">
-        <v>5.75</v>
+        <v>-4.18</v>
       </c>
       <c r="C408">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
       <c r="D408">
-        <v>0.27</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6131,13 +6131,13 @@
         <v>26.8</v>
       </c>
       <c r="B409">
-        <v>5.21</v>
+        <v>2.205</v>
       </c>
       <c r="C409">
-        <v>4.1</v>
+        <v>4.28</v>
       </c>
       <c r="D409">
-        <v>0.277</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6145,13 +6145,13 @@
         <v>15.33</v>
       </c>
       <c r="B410">
-        <v>6.345000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C410">
-        <v>8.69</v>
+        <v>6.3</v>
       </c>
       <c r="D410">
-        <v>0.368</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6159,13 +6159,13 @@
         <v>9.01</v>
       </c>
       <c r="B411">
-        <v>5.95</v>
+        <v>1.55</v>
       </c>
       <c r="C411">
-        <v>9.029999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="D411">
-        <v>0.366</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6173,13 +6173,13 @@
         <v>6.63</v>
       </c>
       <c r="B412">
-        <v>6.055</v>
+        <v>2.8</v>
       </c>
       <c r="C412">
-        <v>7.82</v>
+        <v>6.67</v>
       </c>
       <c r="D412">
-        <v>0.386</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6187,13 +6187,13 @@
         <v>7.12</v>
       </c>
       <c r="B413">
-        <v>6.245</v>
+        <v>2.785</v>
       </c>
       <c r="C413">
-        <v>6.18</v>
+        <v>4.96</v>
       </c>
       <c r="D413">
-        <v>0.379</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6201,13 +6201,13 @@
         <v>8.09</v>
       </c>
       <c r="B414">
-        <v>6.105</v>
+        <v>2.57</v>
       </c>
       <c r="C414">
-        <v>6.12</v>
+        <v>4.76</v>
       </c>
       <c r="D414">
-        <v>0.396</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6215,13 +6215,13 @@
         <v>12.84</v>
       </c>
       <c r="B415">
-        <v>6.505000000000001</v>
+        <v>2.655</v>
       </c>
       <c r="C415">
-        <v>7.18</v>
+        <v>5.17</v>
       </c>
       <c r="D415">
-        <v>0.394</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6229,13 +6229,13 @@
         <v>15.22</v>
       </c>
       <c r="B416">
-        <v>6.19</v>
+        <v>2.44</v>
       </c>
       <c r="C416">
-        <v>5.86</v>
+        <v>3.72</v>
       </c>
       <c r="D416">
-        <v>0.394</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6243,13 +6243,13 @@
         <v>12.62</v>
       </c>
       <c r="B417">
-        <v>5.83</v>
+        <v>1.565</v>
       </c>
       <c r="C417">
-        <v>6.61</v>
+        <v>4.54</v>
       </c>
       <c r="D417">
-        <v>0.372</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6257,13 +6257,13 @@
         <v>4.9</v>
       </c>
       <c r="B418">
-        <v>6.029999999999999</v>
+        <v>3.91</v>
       </c>
       <c r="C418">
-        <v>5.17</v>
+        <v>5.04</v>
       </c>
       <c r="D418">
-        <v>0.367</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6271,13 +6271,13 @@
         <v>6.12</v>
       </c>
       <c r="B419">
-        <v>5.32</v>
+        <v>2.855</v>
       </c>
       <c r="C419">
-        <v>6.01</v>
+        <v>10.12</v>
       </c>
       <c r="D419">
-        <v>0.376</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6285,13 +6285,13 @@
         <v>4.72</v>
       </c>
       <c r="B420">
-        <v>0.2650000000000001</v>
+        <v>4.49</v>
       </c>
       <c r="C420">
-        <v>5.34</v>
+        <v>8.51</v>
       </c>
       <c r="D420">
-        <v>0.37</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6299,13 +6299,13 @@
         <v>8.4</v>
       </c>
       <c r="B421">
-        <v>-2.015</v>
+        <v>2.7</v>
       </c>
       <c r="C421">
-        <v>7.37</v>
+        <v>8.92</v>
       </c>
       <c r="D421">
-        <v>0.368</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6313,13 +6313,13 @@
         <v>11.79</v>
       </c>
       <c r="B422">
-        <v>5.185</v>
+        <v>2.68</v>
       </c>
       <c r="C422">
-        <v>7.28</v>
+        <v>5.96</v>
       </c>
       <c r="D422">
-        <v>0.365</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6327,13 +6327,13 @@
         <v>12.8</v>
       </c>
       <c r="B423">
-        <v>3.26</v>
+        <v>8.875</v>
       </c>
       <c r="C423">
-        <v>7.06</v>
+        <v>4.28</v>
       </c>
       <c r="D423">
-        <v>0.359</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6341,13 +6341,13 @@
         <v>11.4</v>
       </c>
       <c r="B424">
-        <v>4.91</v>
+        <v>3.31</v>
       </c>
       <c r="C424">
-        <v>6.51</v>
+        <v>5.17</v>
       </c>
       <c r="D424">
-        <v>0.365</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6355,13 +6355,13 @@
         <v>6.66</v>
       </c>
       <c r="B425">
-        <v>5.91</v>
+        <v>4.335</v>
       </c>
       <c r="C425">
-        <v>6.61</v>
+        <v>9.01</v>
       </c>
       <c r="D425">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6369,13 +6369,13 @@
         <v>4.53</v>
       </c>
       <c r="B426">
-        <v>5.765000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="C426">
-        <v>6.19</v>
+        <v>5.42</v>
       </c>
       <c r="D426">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6383,13 +6383,13 @@
         <v>14.14</v>
       </c>
       <c r="B427">
-        <v>15.67</v>
+        <v>1.795</v>
       </c>
       <c r="C427">
-        <v>2.99</v>
+        <v>3.97</v>
       </c>
       <c r="D427">
-        <v>0.374</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6397,13 +6397,13 @@
         <v>20.99</v>
       </c>
       <c r="B428">
-        <v>15.365</v>
+        <v>2.275</v>
       </c>
       <c r="C428">
-        <v>4.1</v>
+        <v>3.38</v>
       </c>
       <c r="D428">
-        <v>0.37</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6411,13 +6411,13 @@
         <v>7.15</v>
       </c>
       <c r="B429">
-        <v>14.535</v>
+        <v>5.36</v>
       </c>
       <c r="C429">
-        <v>3.46</v>
+        <v>5.73</v>
       </c>
       <c r="D429">
-        <v>0.362</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6425,13 +6425,13 @@
         <v>5.16</v>
       </c>
       <c r="B430">
-        <v>5.795</v>
+        <v>1.475</v>
       </c>
       <c r="C430">
-        <v>3.29</v>
+        <v>4.25</v>
       </c>
       <c r="D430">
-        <v>0.347</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6439,13 +6439,13 @@
         <v>4.83</v>
       </c>
       <c r="B431">
-        <v>5.25</v>
+        <v>1.725</v>
       </c>
       <c r="C431">
-        <v>2.97</v>
+        <v>4.33</v>
       </c>
       <c r="D431">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6453,13 +6453,13 @@
         <v>6.54</v>
       </c>
       <c r="B432">
-        <v>8.899999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="C432">
-        <v>3.81</v>
+        <v>6.81</v>
       </c>
       <c r="D432">
-        <v>0.345</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6467,13 +6467,13 @@
         <v>7.36</v>
       </c>
       <c r="B433">
-        <v>20.89</v>
+        <v>1.9</v>
       </c>
       <c r="C433">
-        <v>3.12</v>
+        <v>4.67</v>
       </c>
       <c r="D433">
-        <v>0.346</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6481,13 +6481,13 @@
         <v>7.77</v>
       </c>
       <c r="B434">
-        <v>20.375</v>
+        <v>5.185</v>
       </c>
       <c r="C434">
-        <v>3.37</v>
+        <v>7.28</v>
       </c>
       <c r="D434">
-        <v>0.317</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6495,13 +6495,13 @@
         <v>13</v>
       </c>
       <c r="B435">
-        <v>7.135</v>
+        <v>12</v>
       </c>
       <c r="C435">
-        <v>3.46</v>
+        <v>3.73</v>
       </c>
       <c r="D435">
-        <v>0.327</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6509,13 +6509,13 @@
         <v>8.779999999999999</v>
       </c>
       <c r="B436">
-        <v>10.455</v>
+        <v>3.745</v>
       </c>
       <c r="C436">
-        <v>3.11</v>
+        <v>5.79</v>
       </c>
       <c r="D436">
-        <v>0.33</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6523,13 +6523,13 @@
         <v>11.66</v>
       </c>
       <c r="B437">
-        <v>6.185</v>
+        <v>2.165</v>
       </c>
       <c r="C437">
-        <v>2.93</v>
+        <v>4.22</v>
       </c>
       <c r="D437">
-        <v>0.326</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6537,13 +6537,13 @@
         <v>15.61</v>
       </c>
       <c r="B438">
-        <v>3.645</v>
+        <v>0.7450000000000001</v>
       </c>
       <c r="C438">
-        <v>3.77</v>
+        <v>3.41</v>
       </c>
       <c r="D438">
-        <v>0.321</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6551,13 +6551,13 @@
         <v>11.29</v>
       </c>
       <c r="B439">
-        <v>12</v>
+        <v>2.015</v>
       </c>
       <c r="C439">
-        <v>3.73</v>
+        <v>3.28</v>
       </c>
       <c r="D439">
-        <v>0.316</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6565,13 +6565,13 @@
         <v>17.87</v>
       </c>
       <c r="B440">
-        <v>11.36</v>
+        <v>1.855</v>
       </c>
       <c r="C440">
-        <v>3.75</v>
+        <v>6.73</v>
       </c>
       <c r="D440">
-        <v>0.326</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6579,13 +6579,13 @@
         <v>6.89</v>
       </c>
       <c r="B441">
-        <v>11.095</v>
+        <v>16.155</v>
       </c>
       <c r="C441">
-        <v>3.67</v>
+        <v>5.06</v>
       </c>
       <c r="D441">
-        <v>0.308</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6593,13 +6593,13 @@
         <v>21.84</v>
       </c>
       <c r="B442">
-        <v>19.18</v>
+        <v>-0.595</v>
       </c>
       <c r="C442">
-        <v>3</v>
+        <v>6.18</v>
       </c>
       <c r="D442">
-        <v>0.305</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6607,13 +6607,13 @@
         <v>26.86</v>
       </c>
       <c r="B443">
-        <v>12.54</v>
+        <v>14.085</v>
       </c>
       <c r="C443">
-        <v>3.49</v>
+        <v>3.77</v>
       </c>
       <c r="D443">
-        <v>0.304</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6621,13 +6621,13 @@
         <v>15.53</v>
       </c>
       <c r="B444">
-        <v>6.91</v>
+        <v>5.225</v>
       </c>
       <c r="C444">
-        <v>5.81</v>
+        <v>6.3</v>
       </c>
       <c r="D444">
-        <v>0.424</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6635,13 +6635,13 @@
         <v>8.49</v>
       </c>
       <c r="B445">
-        <v>7.425</v>
+        <v>3.74</v>
       </c>
       <c r="C445">
-        <v>5.95</v>
+        <v>6.33</v>
       </c>
       <c r="D445">
-        <v>0.404</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6649,13 +6649,13 @@
         <v>6.04</v>
       </c>
       <c r="B446">
-        <v>7.625</v>
+        <v>3.84</v>
       </c>
       <c r="C446">
-        <v>5.11</v>
+        <v>6.52</v>
       </c>
       <c r="D446">
-        <v>0.426</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6663,13 +6663,13 @@
         <v>7</v>
       </c>
       <c r="B447">
-        <v>7.22</v>
+        <v>3.97</v>
       </c>
       <c r="C447">
-        <v>4.8</v>
+        <v>4.42</v>
       </c>
       <c r="D447">
-        <v>0.4</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6677,13 +6677,13 @@
         <v>7.67</v>
       </c>
       <c r="B448">
-        <v>7.245</v>
+        <v>4.84</v>
       </c>
       <c r="C448">
-        <v>4.77</v>
+        <v>5.09</v>
       </c>
       <c r="D448">
-        <v>0.407</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6691,13 +6691,13 @@
         <v>12.79</v>
       </c>
       <c r="B449">
-        <v>7.195</v>
+        <v>4.52</v>
       </c>
       <c r="C449">
-        <v>5.61</v>
+        <v>4.98</v>
       </c>
       <c r="D449">
-        <v>0.429</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6705,13 +6705,13 @@
         <v>14.43</v>
       </c>
       <c r="B450">
-        <v>7.32</v>
+        <v>4.17</v>
       </c>
       <c r="C450">
-        <v>5.04</v>
+        <v>3.65</v>
       </c>
       <c r="D450">
-        <v>0.397</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6719,13 +6719,13 @@
         <v>11.67</v>
       </c>
       <c r="B451">
-        <v>6.775</v>
+        <v>4.029999999999999</v>
       </c>
       <c r="C451">
-        <v>4.94</v>
+        <v>4.69</v>
       </c>
       <c r="D451">
-        <v>0.388</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6733,13 +6733,13 @@
         <v>4.67</v>
       </c>
       <c r="B452">
-        <v>6.97</v>
+        <v>6.205</v>
       </c>
       <c r="C452">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="D452">
-        <v>0.389</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6747,13 +6747,13 @@
         <v>5.75</v>
       </c>
       <c r="B453">
-        <v>6.825</v>
+        <v>4.12</v>
       </c>
       <c r="C453">
-        <v>4.62</v>
+        <v>9.91</v>
       </c>
       <c r="D453">
-        <v>0.391</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6761,13 +6761,13 @@
         <v>4.67</v>
       </c>
       <c r="B454">
-        <v>-0.4200000000000002</v>
+        <v>3.02</v>
       </c>
       <c r="C454">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="D454">
-        <v>0.389</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6775,13 +6775,13 @@
         <v>7.97</v>
       </c>
       <c r="B455">
-        <v>-0.875</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C455">
-        <v>6.31</v>
+        <v>9.82</v>
       </c>
       <c r="D455">
-        <v>0.382</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6789,13 +6789,13 @@
         <v>11.25</v>
       </c>
       <c r="B456">
-        <v>3.745</v>
+        <v>4.06</v>
       </c>
       <c r="C456">
-        <v>5.79</v>
+        <v>5.95</v>
       </c>
       <c r="D456">
-        <v>0.382</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6803,13 +6803,13 @@
         <v>11.91</v>
       </c>
       <c r="B457">
-        <v>5.565</v>
+        <v>2.6</v>
       </c>
       <c r="C457">
-        <v>5.72</v>
+        <v>4.56</v>
       </c>
       <c r="D457">
-        <v>0.377</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6817,13 +6817,13 @@
         <v>10.59</v>
       </c>
       <c r="B458">
-        <v>4.755</v>
+        <v>3.905</v>
       </c>
       <c r="C458">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="D458">
-        <v>0.377</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6831,13 +6831,13 @@
         <v>6.5</v>
       </c>
       <c r="B459">
-        <v>5.395</v>
+        <v>4.84</v>
       </c>
       <c r="C459">
-        <v>4.51</v>
+        <v>8.98</v>
       </c>
       <c r="D459">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6845,13 +6845,13 @@
         <v>4.72</v>
       </c>
       <c r="B460">
-        <v>5.145</v>
+        <v>-1.165</v>
       </c>
       <c r="C460">
-        <v>5.26</v>
+        <v>5.37</v>
       </c>
       <c r="D460">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6859,13 +6859,13 @@
         <v>13.83</v>
       </c>
       <c r="B461">
-        <v>6.470000000000001</v>
+        <v>2.79</v>
       </c>
       <c r="C461">
-        <v>3.62</v>
+        <v>3.01</v>
       </c>
       <c r="D461">
-        <v>0.399</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6873,13 +6873,13 @@
         <v>20.44</v>
       </c>
       <c r="B462">
-        <v>7.25</v>
+        <v>2.73</v>
       </c>
       <c r="C462">
-        <v>5.55</v>
+        <v>3.77</v>
       </c>
       <c r="D462">
-        <v>0.381</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6887,13 +6887,13 @@
         <v>6.84</v>
       </c>
       <c r="B463">
-        <v>6.154999999999999</v>
+        <v>4.484999999999999</v>
       </c>
       <c r="C463">
-        <v>3.78</v>
+        <v>5.82</v>
       </c>
       <c r="D463">
-        <v>0.402</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6901,13 +6901,13 @@
         <v>5.16</v>
       </c>
       <c r="B464">
-        <v>6.81</v>
+        <v>5.79</v>
       </c>
       <c r="C464">
-        <v>2.72</v>
+        <v>4.53</v>
       </c>
       <c r="D464">
-        <v>0.388</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6915,13 +6915,13 @@
         <v>4.56</v>
       </c>
       <c r="B465">
-        <v>7.29</v>
+        <v>5.2</v>
       </c>
       <c r="C465">
-        <v>3.14</v>
+        <v>4.95</v>
       </c>
       <c r="D465">
-        <v>0.394</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6929,13 +6929,13 @@
         <v>6.27</v>
       </c>
       <c r="B466">
-        <v>6.295</v>
+        <v>4</v>
       </c>
       <c r="C466">
-        <v>3.3</v>
+        <v>6.83</v>
       </c>
       <c r="D466">
-        <v>0.404</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6943,13 +6943,13 @@
         <v>6.83</v>
       </c>
       <c r="B467">
-        <v>6.115</v>
+        <v>6.175</v>
       </c>
       <c r="C467">
-        <v>2.77</v>
+        <v>4.58</v>
       </c>
       <c r="D467">
-        <v>0.409</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6957,13 +6957,13 @@
         <v>7.36</v>
       </c>
       <c r="B468">
-        <v>6.66</v>
+        <v>3.26</v>
       </c>
       <c r="C468">
-        <v>3.19</v>
+        <v>7.06</v>
       </c>
       <c r="D468">
-        <v>0.392</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6971,13 +6971,13 @@
         <v>12.18</v>
       </c>
       <c r="B469">
-        <v>6.35</v>
+        <v>11.36</v>
       </c>
       <c r="C469">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="D469">
-        <v>0.399</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6985,13 +6985,13 @@
         <v>8.529999999999999</v>
       </c>
       <c r="B470">
-        <v>6.645</v>
+        <v>5.565</v>
       </c>
       <c r="C470">
-        <v>3.52</v>
+        <v>5.72</v>
       </c>
       <c r="D470">
-        <v>0.393</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6999,13 +6999,13 @@
         <v>11.74</v>
       </c>
       <c r="B471">
-        <v>0.9700000000000002</v>
+        <v>5.915</v>
       </c>
       <c r="C471">
-        <v>3.1</v>
+        <v>3.92</v>
       </c>
       <c r="D471">
-        <v>0.389</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7013,13 +7013,13 @@
         <v>15.41</v>
       </c>
       <c r="B472">
-        <v>-2.02</v>
+        <v>4.12</v>
       </c>
       <c r="C472">
-        <v>4.58</v>
+        <v>3.01</v>
       </c>
       <c r="D472">
-        <v>0.388</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7027,13 +7027,13 @@
         <v>11.85</v>
       </c>
       <c r="B473">
-        <v>2.165</v>
+        <v>3.14</v>
       </c>
       <c r="C473">
-        <v>4.22</v>
+        <v>3.13</v>
       </c>
       <c r="D473">
-        <v>0.39</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7041,13 +7041,13 @@
         <v>16.3</v>
       </c>
       <c r="B474">
-        <v>5.915</v>
+        <v>5.435</v>
       </c>
       <c r="C474">
-        <v>3.92</v>
+        <v>6.93</v>
       </c>
       <c r="D474">
-        <v>0.394</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7055,13 +7055,13 @@
         <v>6.38</v>
       </c>
       <c r="B475">
-        <v>5.575</v>
+        <v>17.255</v>
       </c>
       <c r="C475">
-        <v>3.86</v>
+        <v>4.71</v>
       </c>
       <c r="D475">
-        <v>0.387</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7069,13 +7069,13 @@
         <v>21.82</v>
       </c>
       <c r="B476">
-        <v>5.48</v>
+        <v>-0.47</v>
       </c>
       <c r="C476">
-        <v>3.36</v>
+        <v>5.84</v>
       </c>
       <c r="D476">
-        <v>0.366</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7083,13 +7083,13 @@
         <v>27.38</v>
       </c>
       <c r="B477">
-        <v>5.665</v>
+        <v>16.115</v>
       </c>
       <c r="C477">
-        <v>3.66</v>
+        <v>3.33</v>
       </c>
       <c r="D477">
-        <v>0.371</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7097,13 +7097,13 @@
         <v>14.64</v>
       </c>
       <c r="B478">
-        <v>5.7</v>
+        <v>4.35</v>
       </c>
       <c r="C478">
-        <v>3.06</v>
+        <v>5.97</v>
       </c>
       <c r="D478">
-        <v>0.42</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7111,13 +7111,13 @@
         <v>8.42</v>
       </c>
       <c r="B479">
-        <v>6.755000000000001</v>
+        <v>4.325</v>
       </c>
       <c r="C479">
-        <v>4.65</v>
+        <v>5.47</v>
       </c>
       <c r="D479">
-        <v>0.401</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7125,13 +7125,13 @@
         <v>5.92</v>
       </c>
       <c r="B480">
-        <v>6.02</v>
+        <v>4.365</v>
       </c>
       <c r="C480">
-        <v>3.88</v>
+        <v>6.17</v>
       </c>
       <c r="D480">
-        <v>0.419</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7139,13 +7139,13 @@
         <v>6.78</v>
       </c>
       <c r="B481">
-        <v>7</v>
+        <v>4.78</v>
       </c>
       <c r="C481">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="D481">
-        <v>0.41</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7153,13 +7153,13 @@
         <v>7.62</v>
       </c>
       <c r="B482">
-        <v>6.99</v>
+        <v>5.02</v>
       </c>
       <c r="C482">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="D482">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7167,13 +7167,13 @@
         <v>11.9</v>
       </c>
       <c r="B483">
-        <v>6.51</v>
+        <v>5.19</v>
       </c>
       <c r="C483">
-        <v>4.28</v>
+        <v>4.74</v>
       </c>
       <c r="D483">
-        <v>0.405</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7181,13 +7181,13 @@
         <v>14.62</v>
       </c>
       <c r="B484">
-        <v>6.775</v>
+        <v>3.965</v>
       </c>
       <c r="C484">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="D484">
-        <v>0.403</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7195,13 +7195,13 @@
         <v>11.57</v>
       </c>
       <c r="B485">
-        <v>6.234999999999999</v>
+        <v>4.045</v>
       </c>
       <c r="C485">
-        <v>3.7</v>
+        <v>4.31</v>
       </c>
       <c r="D485">
-        <v>0.417</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7209,13 +7209,13 @@
         <v>4.45</v>
       </c>
       <c r="B486">
-        <v>6.725</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="C486">
-        <v>3.25</v>
+        <v>4.18</v>
       </c>
       <c r="D486">
-        <v>0.407</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7223,13 +7223,13 @@
         <v>6.24</v>
       </c>
       <c r="B487">
-        <v>6.09</v>
+        <v>3.92</v>
       </c>
       <c r="C487">
-        <v>3.76</v>
+        <v>8.02</v>
       </c>
       <c r="D487">
-        <v>0.41</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7237,13 +7237,13 @@
         <v>4.69</v>
       </c>
       <c r="B488">
-        <v>1.89</v>
+        <v>5.115</v>
       </c>
       <c r="C488">
-        <v>3.29</v>
+        <v>8</v>
       </c>
       <c r="D488">
-        <v>0.408</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7251,13 +7251,13 @@
         <v>8.06</v>
       </c>
       <c r="B489">
-        <v>-1.83</v>
+        <v>5.595000000000001</v>
       </c>
       <c r="C489">
-        <v>4.28</v>
+        <v>8.35</v>
       </c>
       <c r="D489">
-        <v>0.406</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7265,13 +7265,13 @@
         <v>10.93</v>
       </c>
       <c r="B490">
-        <v>0.7450000000000001</v>
+        <v>5.37</v>
       </c>
       <c r="C490">
-        <v>3.41</v>
+        <v>5.75</v>
       </c>
       <c r="D490">
-        <v>0.408</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7279,13 +7279,13 @@
         <v>11.34</v>
       </c>
       <c r="B491">
-        <v>4.12</v>
+        <v>4.44</v>
       </c>
       <c r="C491">
-        <v>3.01</v>
+        <v>3.73</v>
       </c>
       <c r="D491">
-        <v>0.409</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7293,13 +7293,13 @@
         <v>10.38</v>
       </c>
       <c r="B492">
-        <v>4.035</v>
+        <v>5.505</v>
       </c>
       <c r="C492">
-        <v>3.25</v>
+        <v>4.81</v>
       </c>
       <c r="D492">
-        <v>0.418</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7307,13 +7307,13 @@
         <v>6.16</v>
       </c>
       <c r="B493">
-        <v>4.04</v>
+        <v>5.244999999999999</v>
       </c>
       <c r="C493">
-        <v>2.58</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D493">
-        <v>0.423</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7321,13 +7321,13 @@
         <v>4.57</v>
       </c>
       <c r="B494">
-        <v>4.235</v>
+        <v>2.285</v>
       </c>
       <c r="C494">
-        <v>3.07</v>
+        <v>4.84</v>
       </c>
       <c r="D494">
-        <v>0.417</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7335,13 +7335,13 @@
         <v>13.68</v>
       </c>
       <c r="B495">
-        <v>7.065</v>
+        <v>6.86</v>
       </c>
       <c r="C495">
-        <v>1.81</v>
+        <v>3.92</v>
       </c>
       <c r="D495">
-        <v>0.363</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7349,13 +7349,13 @@
         <v>20.05</v>
       </c>
       <c r="B496">
-        <v>7.495</v>
+        <v>2.59</v>
       </c>
       <c r="C496">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="D496">
-        <v>0.362</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7363,13 +7363,13 @@
         <v>6.73</v>
       </c>
       <c r="B497">
-        <v>5.32</v>
+        <v>4.365</v>
       </c>
       <c r="C497">
-        <v>2.72</v>
+        <v>4.86</v>
       </c>
       <c r="D497">
-        <v>0.364</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7377,13 +7377,13 @@
         <v>5.28</v>
       </c>
       <c r="B498">
-        <v>6.65</v>
+        <v>6.775</v>
       </c>
       <c r="C498">
-        <v>3.33</v>
+        <v>4.2</v>
       </c>
       <c r="D498">
-        <v>0.371</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7391,13 +7391,13 @@
         <v>4.49</v>
       </c>
       <c r="B499">
-        <v>6.185</v>
+        <v>4.675</v>
       </c>
       <c r="C499">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="D499">
-        <v>0.354</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7405,13 +7405,13 @@
         <v>6.31</v>
       </c>
       <c r="B500">
-        <v>6.615</v>
+        <v>3.01</v>
       </c>
       <c r="C500">
-        <v>3.21</v>
+        <v>6.77</v>
       </c>
       <c r="D500">
-        <v>0.339</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7419,13 +7419,13 @@
         <v>6.77</v>
       </c>
       <c r="B501">
-        <v>6.18</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C501">
-        <v>2.33</v>
+        <v>4.62</v>
       </c>
       <c r="D501">
-        <v>0.37</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7433,13 +7433,13 @@
         <v>7.28</v>
       </c>
       <c r="B502">
-        <v>6.345000000000001</v>
+        <v>4.91</v>
       </c>
       <c r="C502">
-        <v>3.01</v>
+        <v>6.51</v>
       </c>
       <c r="D502">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7447,13 +7447,13 @@
         <v>12.33</v>
       </c>
       <c r="B503">
-        <v>5.58</v>
+        <v>11.095</v>
       </c>
       <c r="C503">
-        <v>1.29</v>
+        <v>3.67</v>
       </c>
       <c r="D503">
-        <v>0.365</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7461,13 +7461,13 @@
         <v>8.630000000000001</v>
       </c>
       <c r="B504">
-        <v>5.545</v>
+        <v>4.755</v>
       </c>
       <c r="C504">
-        <v>2.98</v>
+        <v>5.75</v>
       </c>
       <c r="D504">
-        <v>0.365</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7475,13 +7475,13 @@
         <v>11.17</v>
       </c>
       <c r="B505">
-        <v>2.015</v>
+        <v>5.575</v>
       </c>
       <c r="C505">
-        <v>2.39</v>
+        <v>3.86</v>
       </c>
       <c r="D505">
-        <v>0.364</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7489,13 +7489,13 @@
         <v>15.42</v>
       </c>
       <c r="B506">
-        <v>-6.220000000000001</v>
+        <v>4.035</v>
       </c>
       <c r="C506">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="D506">
-        <v>0.356</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7503,13 +7503,13 @@
         <v>11.75</v>
       </c>
       <c r="B507">
-        <v>2.015</v>
+        <v>1.515</v>
       </c>
       <c r="C507">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="D507">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7517,13 +7517,13 @@
         <v>15.97</v>
       </c>
       <c r="B508">
-        <v>3.14</v>
+        <v>4.675</v>
       </c>
       <c r="C508">
-        <v>3.13</v>
+        <v>6.44</v>
       </c>
       <c r="D508">
-        <v>0.366</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7531,13 +7531,13 @@
         <v>6.23</v>
       </c>
       <c r="B509">
-        <v>1.515</v>
+        <v>25.86</v>
       </c>
       <c r="C509">
-        <v>3.11</v>
+        <v>4.98</v>
       </c>
       <c r="D509">
-        <v>0.362</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7545,13 +7545,13 @@
         <v>21.33</v>
       </c>
       <c r="B510">
-        <v>3.08</v>
+        <v>2.525</v>
       </c>
       <c r="C510">
-        <v>2.34</v>
+        <v>5.78</v>
       </c>
       <c r="D510">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7559,13 +7559,13 @@
         <v>26.56</v>
       </c>
       <c r="B511">
-        <v>4.775</v>
+        <v>14.155</v>
       </c>
       <c r="C511">
-        <v>3.04</v>
+        <v>3.6</v>
       </c>
       <c r="D511">
-        <v>0.351</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7573,13 +7573,13 @@
         <v>14.75</v>
       </c>
       <c r="B512">
-        <v>4.835</v>
+        <v>4.055</v>
       </c>
       <c r="C512">
-        <v>6.72</v>
+        <v>6.17</v>
       </c>
       <c r="D512">
-        <v>0.34</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7587,13 +7587,13 @@
         <v>8.33</v>
       </c>
       <c r="B513">
-        <v>6.09</v>
+        <v>5.115</v>
       </c>
       <c r="C513">
-        <v>9.93</v>
+        <v>6.16</v>
       </c>
       <c r="D513">
-        <v>0.338</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7601,13 +7601,13 @@
         <v>6.04</v>
       </c>
       <c r="B514">
-        <v>5.835</v>
+        <v>4.355</v>
       </c>
       <c r="C514">
-        <v>6.98</v>
+        <v>6.28</v>
       </c>
       <c r="D514">
-        <v>0.348</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7615,13 +7615,13 @@
         <v>6.84</v>
       </c>
       <c r="B515">
-        <v>5.635</v>
+        <v>4.34</v>
       </c>
       <c r="C515">
-        <v>7.05</v>
+        <v>4.37</v>
       </c>
       <c r="D515">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7629,13 +7629,13 @@
         <v>7.7</v>
       </c>
       <c r="B516">
-        <v>6.21</v>
+        <v>5.215</v>
       </c>
       <c r="C516">
-        <v>7.77</v>
+        <v>4.59</v>
       </c>
       <c r="D516">
-        <v>0.343</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7643,13 +7643,13 @@
         <v>11.95</v>
       </c>
       <c r="B517">
-        <v>5.465</v>
+        <v>5.26</v>
       </c>
       <c r="C517">
-        <v>9.289999999999999</v>
+        <v>4.63</v>
       </c>
       <c r="D517">
-        <v>0.321</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7657,13 +7657,13 @@
         <v>14.34</v>
       </c>
       <c r="B518">
-        <v>5.425</v>
+        <v>4.63</v>
       </c>
       <c r="C518">
-        <v>7.07</v>
+        <v>3.59</v>
       </c>
       <c r="D518">
-        <v>0.343</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7671,13 +7671,13 @@
         <v>11.44</v>
       </c>
       <c r="B519">
-        <v>6.37</v>
+        <v>4.495</v>
       </c>
       <c r="C519">
-        <v>6.95</v>
+        <v>4.52</v>
       </c>
       <c r="D519">
-        <v>0.326</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7685,13 +7685,13 @@
         <v>4.61</v>
       </c>
       <c r="B520">
-        <v>5.95</v>
+        <v>4.495</v>
       </c>
       <c r="C520">
-        <v>6.61</v>
+        <v>4.77</v>
       </c>
       <c r="D520">
-        <v>0.324</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7699,13 +7699,13 @@
         <v>6.03</v>
       </c>
       <c r="B521">
-        <v>4.895</v>
+        <v>6.215</v>
       </c>
       <c r="C521">
-        <v>6.69</v>
+        <v>8.23</v>
       </c>
       <c r="D521">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7713,13 +7713,13 @@
         <v>4.61</v>
       </c>
       <c r="B522">
-        <v>1.305</v>
+        <v>5.395</v>
       </c>
       <c r="C522">
-        <v>6.71</v>
+        <v>7.18</v>
       </c>
       <c r="D522">
-        <v>0.318</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7727,13 +7727,13 @@
         <v>7.98</v>
       </c>
       <c r="B523">
-        <v>-3.01</v>
+        <v>5.32</v>
       </c>
       <c r="C523">
-        <v>7.57</v>
+        <v>8.31</v>
       </c>
       <c r="D523">
-        <v>0.326</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7741,13 +7741,13 @@
         <v>10.98</v>
       </c>
       <c r="B524">
-        <v>1.855</v>
+        <v>5.25</v>
       </c>
       <c r="C524">
-        <v>6.73</v>
+        <v>5.57</v>
       </c>
       <c r="D524">
-        <v>0.314</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7755,13 +7755,13 @@
         <v>11.49</v>
       </c>
       <c r="B525">
-        <v>5.435</v>
+        <v>5.865</v>
       </c>
       <c r="C525">
-        <v>6.93</v>
+        <v>4.06</v>
       </c>
       <c r="D525">
-        <v>0.316</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7769,13 +7769,13 @@
         <v>10.49</v>
       </c>
       <c r="B526">
-        <v>4.675</v>
+        <v>5.175</v>
       </c>
       <c r="C526">
-        <v>6.44</v>
+        <v>5.49</v>
       </c>
       <c r="D526">
-        <v>0.301</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7783,13 +7783,13 @@
         <v>6.24</v>
       </c>
       <c r="B527">
-        <v>5.92</v>
+        <v>4.83</v>
       </c>
       <c r="C527">
-        <v>6.88</v>
+        <v>8.09</v>
       </c>
       <c r="D527">
-        <v>0.306</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7797,13 +7797,13 @@
         <v>4.53</v>
       </c>
       <c r="B528">
-        <v>5.779999999999999</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C528">
-        <v>6.08</v>
+        <v>4.8</v>
       </c>
       <c r="D528">
-        <v>0.288</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7811,13 +7811,13 @@
         <v>13.82</v>
       </c>
       <c r="B529">
-        <v>5.765000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="C529">
-        <v>5.56</v>
+        <v>2.89</v>
       </c>
       <c r="D529">
-        <v>0.28</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7825,13 +7825,13 @@
         <v>20.23</v>
       </c>
       <c r="B530">
-        <v>6.42</v>
+        <v>3.48</v>
       </c>
       <c r="C530">
-        <v>6.05</v>
+        <v>3.54</v>
       </c>
       <c r="D530">
-        <v>0.286</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7839,13 +7839,13 @@
         <v>6.81</v>
       </c>
       <c r="B531">
-        <v>5.45</v>
+        <v>5.77</v>
       </c>
       <c r="C531">
-        <v>3.43</v>
+        <v>5.11</v>
       </c>
       <c r="D531">
-        <v>0.286</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7853,10 +7853,10 @@
         <v>5.22</v>
       </c>
       <c r="B532">
-        <v>6.075</v>
+        <v>6.16</v>
       </c>
       <c r="C532">
-        <v>4.01</v>
+        <v>4.26</v>
       </c>
       <c r="D532">
         <v>0.309</v>
@@ -7867,13 +7867,13 @@
         <v>4.61</v>
       </c>
       <c r="B533">
-        <v>7.300000000000001</v>
+        <v>5.484999999999999</v>
       </c>
       <c r="C533">
-        <v>4.82</v>
+        <v>4.74</v>
       </c>
       <c r="D533">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7881,13 +7881,13 @@
         <v>6.44</v>
       </c>
       <c r="B534">
-        <v>8.030000000000001</v>
+        <v>5.904999999999999</v>
       </c>
       <c r="C534">
-        <v>5.33</v>
+        <v>5.71</v>
       </c>
       <c r="D534">
-        <v>0.33</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7895,13 +7895,13 @@
         <v>6.86</v>
       </c>
       <c r="B535">
-        <v>7.46</v>
+        <v>5.75</v>
       </c>
       <c r="C535">
-        <v>4.56</v>
+        <v>4.33</v>
       </c>
       <c r="D535">
-        <v>0.328</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7909,13 +7909,13 @@
         <v>7.34</v>
       </c>
       <c r="B536">
-        <v>8.23</v>
+        <v>5.91</v>
       </c>
       <c r="C536">
-        <v>4.63</v>
+        <v>6.61</v>
       </c>
       <c r="D536">
-        <v>0.336</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7923,13 +7923,13 @@
         <v>12.3</v>
       </c>
       <c r="B537">
-        <v>7.53</v>
+        <v>19.18</v>
       </c>
       <c r="C537">
-        <v>4.96</v>
+        <v>3</v>
       </c>
       <c r="D537">
-        <v>0.312</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7937,13 +7937,13 @@
         <v>8.66</v>
       </c>
       <c r="B538">
-        <v>5.03</v>
+        <v>5.395</v>
       </c>
       <c r="C538">
-        <v>4.81</v>
+        <v>4.51</v>
       </c>
       <c r="D538">
-        <v>0.31</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7951,13 +7951,13 @@
         <v>11.27</v>
       </c>
       <c r="B539">
-        <v>1.93</v>
+        <v>5.48</v>
       </c>
       <c r="C539">
-        <v>4.09</v>
+        <v>3.36</v>
       </c>
       <c r="D539">
-        <v>0.308</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7965,13 +7965,13 @@
         <v>15.51</v>
       </c>
       <c r="B540">
-        <v>8.715</v>
+        <v>4.04</v>
       </c>
       <c r="C540">
-        <v>5.15</v>
+        <v>2.58</v>
       </c>
       <c r="D540">
-        <v>0.29</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7979,13 +7979,13 @@
         <v>11.92</v>
       </c>
       <c r="B541">
-        <v>16.155</v>
+        <v>3.08</v>
       </c>
       <c r="C541">
-        <v>5.06</v>
+        <v>2.34</v>
       </c>
       <c r="D541">
-        <v>0.3</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7993,13 +7993,13 @@
         <v>16.23</v>
       </c>
       <c r="B542">
-        <v>17.255</v>
+        <v>5.92</v>
       </c>
       <c r="C542">
-        <v>4.71</v>
+        <v>6.88</v>
       </c>
       <c r="D542">
-        <v>0.278</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8007,13 +8007,13 @@
         <v>6.37</v>
       </c>
       <c r="B543">
-        <v>25.86</v>
+        <v>20.52</v>
       </c>
       <c r="C543">
-        <v>4.98</v>
+        <v>3.98</v>
       </c>
       <c r="D543">
-        <v>0.279</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8021,13 +8021,13 @@
         <v>21.43</v>
       </c>
       <c r="B544">
-        <v>20.52</v>
+        <v>1.665</v>
       </c>
       <c r="C544">
-        <v>3.98</v>
+        <v>5.37</v>
       </c>
       <c r="D544">
-        <v>0.309</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8035,13 +8035,13 @@
         <v>26.8</v>
       </c>
       <c r="B545">
-        <v>19.46</v>
+        <v>4.415</v>
       </c>
       <c r="C545">
-        <v>4.6</v>
+        <v>2.83</v>
       </c>
       <c r="D545">
-        <v>0.3</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8049,13 +8049,13 @@
         <v>14.45</v>
       </c>
       <c r="B546">
-        <v>2.635</v>
+        <v>4.505</v>
       </c>
       <c r="C546">
-        <v>4.61</v>
+        <v>5.75</v>
       </c>
       <c r="D546">
-        <v>0.44</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8063,13 +8063,13 @@
         <v>8.15</v>
       </c>
       <c r="B547">
-        <v>5.845000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="C547">
-        <v>8.08</v>
+        <v>5.24</v>
       </c>
       <c r="D547">
-        <v>0.428</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8077,13 +8077,13 @@
         <v>5.95</v>
       </c>
       <c r="B548">
-        <v>4.67</v>
+        <v>4.965</v>
       </c>
       <c r="C548">
-        <v>5.73</v>
+        <v>5.9</v>
       </c>
       <c r="D548">
-        <v>0.373</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8091,13 +8091,13 @@
         <v>6.68</v>
       </c>
       <c r="B549">
-        <v>4.365</v>
+        <v>4.41</v>
       </c>
       <c r="C549">
-        <v>7.46</v>
+        <v>4.25</v>
       </c>
       <c r="D549">
-        <v>0.401</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8105,13 +8105,13 @@
         <v>7.58</v>
       </c>
       <c r="B550">
-        <v>2.83</v>
+        <v>4.9</v>
       </c>
       <c r="C550">
-        <v>7.52</v>
+        <v>4.5</v>
       </c>
       <c r="D550">
-        <v>0.39</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8119,13 +8119,13 @@
         <v>11.78</v>
       </c>
       <c r="B551">
-        <v>5.095</v>
+        <v>5.154999999999999</v>
       </c>
       <c r="C551">
-        <v>6.49</v>
+        <v>4.53</v>
       </c>
       <c r="D551">
-        <v>0.387</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8133,13 +8133,13 @@
         <v>14.04</v>
       </c>
       <c r="B552">
-        <v>9.390000000000001</v>
+        <v>4.14</v>
       </c>
       <c r="C552">
-        <v>6.27</v>
+        <v>3.21</v>
       </c>
       <c r="D552">
-        <v>0.394</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8147,13 +8147,13 @@
         <v>11.11</v>
       </c>
       <c r="B553">
-        <v>3.54</v>
+        <v>4.470000000000001</v>
       </c>
       <c r="C553">
-        <v>6.45</v>
+        <v>4.18</v>
       </c>
       <c r="D553">
-        <v>0.391</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8161,13 +8161,13 @@
         <v>4.52</v>
       </c>
       <c r="B554">
-        <v>-0.375</v>
+        <v>4.765000000000001</v>
       </c>
       <c r="C554">
-        <v>5.81</v>
+        <v>3.89</v>
       </c>
       <c r="D554">
-        <v>0.386</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8175,13 +8175,13 @@
         <v>5.69</v>
       </c>
       <c r="B555">
-        <v>5.615</v>
+        <v>5.775</v>
       </c>
       <c r="C555">
-        <v>6.43</v>
+        <v>7.61</v>
       </c>
       <c r="D555">
-        <v>0.381</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8189,13 +8189,13 @@
         <v>4.44</v>
       </c>
       <c r="B556">
-        <v>3.035</v>
+        <v>5.035</v>
       </c>
       <c r="C556">
-        <v>6.78</v>
+        <v>7.57</v>
       </c>
       <c r="D556">
-        <v>0.382</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8203,13 +8203,13 @@
         <v>7.62</v>
       </c>
       <c r="B557">
-        <v>-4.18</v>
+        <v>5.13</v>
       </c>
       <c r="C557">
-        <v>6.8</v>
+        <v>7.89</v>
       </c>
       <c r="D557">
-        <v>0.376</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8217,13 +8217,13 @@
         <v>10.77</v>
       </c>
       <c r="B558">
-        <v>-0.595</v>
+        <v>5.135</v>
       </c>
       <c r="C558">
-        <v>6.18</v>
+        <v>5.24</v>
       </c>
       <c r="D558">
-        <v>0.38</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8231,13 +8231,13 @@
         <v>11.04</v>
       </c>
       <c r="B559">
-        <v>-0.47</v>
+        <v>5.24</v>
       </c>
       <c r="C559">
-        <v>5.84</v>
+        <v>3.58</v>
       </c>
       <c r="D559">
-        <v>0.374</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8245,13 +8245,13 @@
         <v>10.35</v>
       </c>
       <c r="B560">
-        <v>2.525</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="C560">
-        <v>5.78</v>
+        <v>4.33</v>
       </c>
       <c r="D560">
-        <v>0.37</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8259,13 +8259,13 @@
         <v>6.17</v>
       </c>
       <c r="B561">
-        <v>1.665</v>
+        <v>4.71</v>
       </c>
       <c r="C561">
-        <v>5.37</v>
+        <v>7.97</v>
       </c>
       <c r="D561">
-        <v>0.384</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8273,13 +8273,13 @@
         <v>4.25</v>
       </c>
       <c r="B562">
-        <v>3.02</v>
+        <v>5.825</v>
       </c>
       <c r="C562">
-        <v>5.53</v>
+        <v>3.73</v>
       </c>
       <c r="D562">
-        <v>0.37</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8287,13 +8287,13 @@
         <v>13.85</v>
       </c>
       <c r="B563">
-        <v>7.47</v>
+        <v>1.005</v>
       </c>
       <c r="C563">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="D563">
-        <v>0.421</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8301,13 +8301,13 @@
         <v>19.96</v>
       </c>
       <c r="B564">
-        <v>7.295</v>
+        <v>3.96</v>
       </c>
       <c r="C564">
-        <v>3.99</v>
+        <v>3.1</v>
       </c>
       <c r="D564">
-        <v>0.392</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8315,13 +8315,13 @@
         <v>6.71</v>
       </c>
       <c r="B565">
-        <v>-3.08</v>
+        <v>4.325</v>
       </c>
       <c r="C565">
-        <v>2.97</v>
+        <v>4.52</v>
       </c>
       <c r="D565">
-        <v>0.39</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8329,13 +8329,13 @@
         <v>5.11</v>
       </c>
       <c r="B566">
-        <v>20.93</v>
+        <v>3.09</v>
       </c>
       <c r="C566">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="D566">
-        <v>0.399</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8343,13 +8343,13 @@
         <v>4.29</v>
       </c>
       <c r="B567">
-        <v>5.035</v>
+        <v>5.065</v>
       </c>
       <c r="C567">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="D567">
-        <v>0.397</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8357,13 +8357,13 @@
         <v>6.11</v>
       </c>
       <c r="B568">
-        <v>4.28</v>
+        <v>6.94</v>
       </c>
       <c r="C568">
-        <v>3.62</v>
+        <v>6.37</v>
       </c>
       <c r="D568">
-        <v>0.398</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8371,13 +8371,13 @@
         <v>6.45</v>
       </c>
       <c r="B569">
-        <v>25.25</v>
+        <v>5.21</v>
       </c>
       <c r="C569">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="D569">
-        <v>0.384</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8385,13 +8385,13 @@
         <v>7.38</v>
       </c>
       <c r="B570">
-        <v>-5.925</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="C570">
-        <v>3</v>
+        <v>6.19</v>
       </c>
       <c r="D570">
-        <v>0.398</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8399,13 +8399,13 @@
         <v>12.41</v>
       </c>
       <c r="B571">
-        <v>-21.3</v>
+        <v>12.54</v>
       </c>
       <c r="C571">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="D571">
-        <v>0.394</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8413,13 +8413,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="B572">
-        <v>-9.434999999999999</v>
+        <v>5.145</v>
       </c>
       <c r="C572">
-        <v>3.51</v>
+        <v>5.26</v>
       </c>
       <c r="D572">
-        <v>0.391</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -8427,13 +8427,13 @@
         <v>11.43</v>
       </c>
       <c r="B573">
-        <v>2.725</v>
+        <v>5.665</v>
       </c>
       <c r="C573">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="D573">
-        <v>0.392</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8441,13 +8441,13 @@
         <v>15.15</v>
       </c>
       <c r="B574">
-        <v>2.205</v>
+        <v>4.235</v>
       </c>
       <c r="C574">
-        <v>4.28</v>
+        <v>3.07</v>
       </c>
       <c r="D574">
-        <v>0.395</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8455,13 +8455,13 @@
         <v>11.49</v>
       </c>
       <c r="B575">
-        <v>14.085</v>
+        <v>4.775</v>
       </c>
       <c r="C575">
-        <v>3.77</v>
+        <v>3.04</v>
       </c>
       <c r="D575">
-        <v>0.397</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8469,13 +8469,13 @@
         <v>16.42</v>
       </c>
       <c r="B576">
-        <v>16.115</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="C576">
-        <v>3.33</v>
+        <v>6.08</v>
       </c>
       <c r="D576">
-        <v>0.396</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8483,13 +8483,13 @@
         <v>6.46</v>
       </c>
       <c r="B577">
-        <v>14.155</v>
+        <v>19.46</v>
       </c>
       <c r="C577">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D577">
-        <v>0.406</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8497,13 +8497,13 @@
         <v>20.49</v>
       </c>
       <c r="B578">
-        <v>4.415</v>
+        <v>3.02</v>
       </c>
       <c r="C578">
-        <v>2.83</v>
+        <v>5.53</v>
       </c>
       <c r="D578">
-        <v>0.393</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8572,13 +8572,13 @@
         <v>10.81475778546713</v>
       </c>
       <c r="C3">
-        <v>4.499152249134948</v>
+        <v>4.499152249134949</v>
       </c>
       <c r="D3">
         <v>5.055051903114187</v>
       </c>
       <c r="E3">
-        <v>0.3530968858131488</v>
+        <v>0.3530968858131489</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8592,7 +8592,7 @@
         <v>4.086966928357401</v>
       </c>
       <c r="D4">
-        <v>1.805692735157489</v>
+        <v>1.805692735157488</v>
       </c>
       <c r="E4">
         <v>0.03976605273878312</v>

--- a/pooled_data.xlsx
+++ b/pooled_data.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D579"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8518,6 +8518,482 @@
       </c>
       <c r="D579">
         <v>0.386</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580">
+        <v>14.34854534416843</v>
+      </c>
+      <c r="B580">
+        <v>3.965</v>
+      </c>
+      <c r="C580">
+        <v>6.03</v>
+      </c>
+      <c r="D580">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581">
+        <v>8.001250000001374</v>
+      </c>
+      <c r="B581">
+        <v>4.98</v>
+      </c>
+      <c r="C581">
+        <v>5.89</v>
+      </c>
+      <c r="D581">
+        <v>0.3181176470588235</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582">
+        <v>5.912001383529192</v>
+      </c>
+      <c r="B582">
+        <v>4.29</v>
+      </c>
+      <c r="C582">
+        <v>5.94</v>
+      </c>
+      <c r="D582">
+        <v>0.2710999999999421</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583">
+        <v>6.68</v>
+      </c>
+      <c r="B583">
+        <v>4.015</v>
+      </c>
+      <c r="C583">
+        <v>4.23</v>
+      </c>
+      <c r="D583">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584">
+        <v>7.58</v>
+      </c>
+      <c r="B584">
+        <v>4.435</v>
+      </c>
+      <c r="C584">
+        <v>4.53</v>
+      </c>
+      <c r="D584">
+        <v>0.353206030949981</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585">
+        <v>11.62562499999963</v>
+      </c>
+      <c r="B585">
+        <v>5.01</v>
+      </c>
+      <c r="C585">
+        <v>4.11</v>
+      </c>
+      <c r="D585">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586">
+        <v>13.79999999999967</v>
+      </c>
+      <c r="B586">
+        <v>4.365</v>
+      </c>
+      <c r="C586">
+        <v>3.42</v>
+      </c>
+      <c r="D586">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587">
+        <v>10.90750000000006</v>
+      </c>
+      <c r="B587">
+        <v>4.665</v>
+      </c>
+      <c r="C587">
+        <v>4.23</v>
+      </c>
+      <c r="D587">
+        <v>0.3018664137845254</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588">
+        <v>4.52</v>
+      </c>
+      <c r="B588">
+        <v>4.005</v>
+      </c>
+      <c r="C588">
+        <v>4.56</v>
+      </c>
+      <c r="D588">
+        <v>0.2369987287018682</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589">
+        <v>5.978823529412008</v>
+      </c>
+      <c r="B589">
+        <v>4.665</v>
+      </c>
+      <c r="C589">
+        <v>6.8</v>
+      </c>
+      <c r="D589">
+        <v>0.3371642162301796</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590">
+        <v>4.44</v>
+      </c>
+      <c r="B590">
+        <v>4.895</v>
+      </c>
+      <c r="C590">
+        <v>6.53</v>
+      </c>
+      <c r="D590">
+        <v>0.4232575859657763</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591">
+        <v>7.62</v>
+      </c>
+      <c r="B591">
+        <v>4.865</v>
+      </c>
+      <c r="C591">
+        <v>7.44</v>
+      </c>
+      <c r="D591">
+        <v>0.4129768452924647</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592">
+        <v>10.67126259564734</v>
+      </c>
+      <c r="B592">
+        <v>4.83</v>
+      </c>
+      <c r="C592">
+        <v>5.13</v>
+      </c>
+      <c r="D592">
+        <v>0.3671176470588323</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593">
+        <v>10.79812499999665</v>
+      </c>
+      <c r="B593">
+        <v>4.91</v>
+      </c>
+      <c r="C593">
+        <v>3.69</v>
+      </c>
+      <c r="D593">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594">
+        <v>10.35</v>
+      </c>
+      <c r="B594">
+        <v>4.78</v>
+      </c>
+      <c r="C594">
+        <v>4.88</v>
+      </c>
+      <c r="D594">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595">
+        <v>6.17</v>
+      </c>
+      <c r="B595">
+        <v>4.91</v>
+      </c>
+      <c r="C595">
+        <v>7.52</v>
+      </c>
+      <c r="D595">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596">
+        <v>4.277868628312075</v>
+      </c>
+      <c r="B596">
+        <v>5.61</v>
+      </c>
+      <c r="C596">
+        <v>2.69</v>
+      </c>
+      <c r="D596">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597">
+        <v>13.64687499999914</v>
+      </c>
+      <c r="B597">
+        <v>2.62</v>
+      </c>
+      <c r="C597">
+        <v>2.8</v>
+      </c>
+      <c r="D597">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598">
+        <v>19.79437500000008</v>
+      </c>
+      <c r="B598">
+        <v>3.09</v>
+      </c>
+      <c r="C598">
+        <v>3.14</v>
+      </c>
+      <c r="D598">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599">
+        <v>6.617159854848987</v>
+      </c>
+      <c r="B599">
+        <v>4.585</v>
+      </c>
+      <c r="C599">
+        <v>5.05</v>
+      </c>
+      <c r="D599">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600">
+        <v>5.11</v>
+      </c>
+      <c r="B600">
+        <v>5.115</v>
+      </c>
+      <c r="C600">
+        <v>4.1</v>
+      </c>
+      <c r="D600">
+        <v>0.3278128355862567</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601">
+        <v>4.29</v>
+      </c>
+      <c r="B601">
+        <v>4.635</v>
+      </c>
+      <c r="C601">
+        <v>4.31</v>
+      </c>
+      <c r="D601">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602">
+        <v>6.11</v>
+      </c>
+      <c r="B602">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="C602">
+        <v>5.31</v>
+      </c>
+      <c r="D602">
+        <v>0.324748561669166</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603">
+        <v>6.572336983837038</v>
+      </c>
+      <c r="B603">
+        <v>4.695</v>
+      </c>
+      <c r="C603">
+        <v>4.01</v>
+      </c>
+      <c r="D603">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604">
+        <v>7.38</v>
+      </c>
+      <c r="B604">
+        <v>5.205</v>
+      </c>
+      <c r="C604">
+        <v>6.1</v>
+      </c>
+      <c r="D604">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605">
+        <v>12.26937499999959</v>
+      </c>
+      <c r="B605">
+        <v>11.4</v>
+      </c>
+      <c r="C605">
+        <v>2.95</v>
+      </c>
+      <c r="D605">
+        <v>0.289687824629983</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="B606">
+        <v>3.92</v>
+      </c>
+      <c r="C606">
+        <v>4.33</v>
+      </c>
+      <c r="D606">
+        <v>0.3743933793495576</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607">
+        <v>11.43</v>
+      </c>
+      <c r="B607">
+        <v>5.085</v>
+      </c>
+      <c r="C607">
+        <v>3.15</v>
+      </c>
+      <c r="D607">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608">
+        <v>14.95187500000067</v>
+      </c>
+      <c r="B608">
+        <v>4.76</v>
+      </c>
+      <c r="C608">
+        <v>3.06</v>
+      </c>
+      <c r="D608">
+        <v>0.4124117647058823</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609">
+        <v>11.63680753643135</v>
+      </c>
+      <c r="B609">
+        <v>5.675000000000001</v>
+      </c>
+      <c r="C609">
+        <v>2.27</v>
+      </c>
+      <c r="D609">
+        <v>0.361470588235294</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610">
+        <v>16.25602045285562</v>
+      </c>
+      <c r="B610">
+        <v>4.65</v>
+      </c>
+      <c r="C610">
+        <v>6.31</v>
+      </c>
+      <c r="D610">
+        <v>0.2826468362297734</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611">
+        <v>6.51249994650501</v>
+      </c>
+      <c r="B611">
+        <v>21.56</v>
+      </c>
+      <c r="C611">
+        <v>4.31</v>
+      </c>
+      <c r="D611">
+        <v>0.3110614830199199</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612">
+        <v>20.15687499999154</v>
+      </c>
+      <c r="B612">
+        <v>4.79</v>
+      </c>
+      <c r="C612">
+        <v>5.38</v>
+      </c>
+      <c r="D612">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613">
+        <v>26.03</v>
+      </c>
+      <c r="B613">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C613">
+        <v>2.67</v>
+      </c>
+      <c r="D613">
+        <v>0.3958235294117559</v>
       </c>
     </row>
   </sheetData>
@@ -8552,16 +9028,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="C2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="D2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="E2">
-        <v>578</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8569,16 +9045,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>10.81475778546713</v>
+        <v>10.77136470793388</v>
       </c>
       <c r="C3">
-        <v>4.499152249134949</v>
+        <v>4.553186274509804</v>
       </c>
       <c r="D3">
-        <v>5.055051903114187</v>
+        <v>5.030539215686274</v>
       </c>
       <c r="E3">
-        <v>0.3530968858131489</v>
+        <v>0.3525667678396732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8586,16 +9062,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.638554121008848</v>
+        <v>5.609864831578292</v>
       </c>
       <c r="C4">
-        <v>4.086966928357401</v>
+        <v>4.048237262985184</v>
       </c>
       <c r="D4">
-        <v>1.805692735157488</v>
+        <v>1.788318488084889</v>
       </c>
       <c r="E4">
-        <v>0.03976605273878312</v>
+        <v>0.04023879923701083</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8620,16 +9096,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.3875</v>
+        <v>6.3775</v>
       </c>
       <c r="C6">
-        <v>3.32125</v>
+        <v>3.53</v>
       </c>
       <c r="D6">
-        <v>3.72</v>
+        <v>3.6975</v>
       </c>
       <c r="E6">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8637,13 +9113,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>9.09</v>
+        <v>9.035</v>
       </c>
       <c r="C7">
-        <v>5.075</v>
+        <v>5.03</v>
       </c>
       <c r="D7">
-        <v>4.68</v>
+        <v>4.655</v>
       </c>
       <c r="E7">
         <v>0.351</v>
@@ -8654,16 +9130,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>13.845</v>
+        <v>13.80499999999975</v>
       </c>
       <c r="C8">
-        <v>5.77375</v>
+        <v>5.765000000000001</v>
       </c>
       <c r="D8">
-        <v>6.17</v>
+        <v>6.1625</v>
       </c>
       <c r="E8">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="9" spans="1:5">
